--- a/Успеваемость_СО-ИП-21-2.xlsx
+++ b/Успеваемость_СО-ИП-21-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" state="visible" r:id="rId1"/>
@@ -30,6 +30,9 @@
     <t>+</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t xml:space="preserve">Борода Егор Игоревич</t>
   </si>
   <si>
@@ -37,9 +40,6 @@
   </si>
   <si>
     <t xml:space="preserve">Гончаров Никита Дмитриевич</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t xml:space="preserve">Григорьев Игорь Константинович</t>
@@ -170,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,12 +181,13 @@
     <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,7 +719,9 @@
       <c r="D1" s="3">
         <v>44939</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="4">
+        <v>44944</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -734,19 +737,21 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -762,19 +767,21 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2"/>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -790,19 +797,21 @@
       <c r="R3" s="2"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2"/>
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -818,19 +827,21 @@
       <c r="R4" s="2"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -846,19 +857,21 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -874,19 +887,21 @@
       <c r="R6" s="2"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -902,19 +917,21 @@
       <c r="R7" s="2"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -930,19 +947,21 @@
       <c r="R8" s="2"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -958,19 +977,21 @@
       <c r="R9" s="2"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -986,19 +1007,21 @@
       <c r="R10" s="2"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1014,19 +1037,21 @@
       <c r="R11" s="2"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1042,19 +1067,21 @@
       <c r="R12" s="2"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1070,19 +1097,21 @@
       <c r="R13" s="2"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1098,19 +1127,21 @@
       <c r="R14" s="2"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1126,19 +1157,21 @@
       <c r="R15" s="2"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1156,13 +1189,13 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{004900EE-00B1-415E-AAAD-00EE00D80005}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{005D00FC-0016-46D8-A607-00E200D4008E}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1179,7 +1212,7 @@
           <xm:sqref>C2:R16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{004100A7-00EF-494B-9789-00DE00D800F8}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0012007D-00BA-43C0-9814-00EB004D002E}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1196,7 +1229,7 @@
           <xm:sqref>C2:R16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00FE003B-0086-4EAC-B029-00E800B2001F}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00B30006-0022-4EB3-B902-00EA002500E5}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -1225,7 +1258,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" min="1" max="1" width="2.8515625"/>
     <col bestFit="1" min="2" max="2" width="37.28125"/>
@@ -1239,7 +1272,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="2"/>
@@ -1259,10 +1292,10 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
@@ -1283,11 +1316,11 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1307,11 +1340,11 @@
       <c r="R3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1331,11 +1364,11 @@
       <c r="R4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1355,10 +1388,10 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2"/>
@@ -1379,13 +1412,13 @@
       <c r="R6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2"/>
@@ -1405,10 +1438,10 @@
       <c r="R7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2"/>
@@ -1429,10 +1462,10 @@
       <c r="R8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2"/>
@@ -1453,10 +1486,10 @@
       <c r="R9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2"/>
@@ -1477,13 +1510,13 @@
       <c r="R10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2"/>
@@ -1503,10 +1536,10 @@
       <c r="R11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2"/>
@@ -1527,10 +1560,10 @@
       <c r="R12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2"/>
@@ -1551,10 +1584,10 @@
       <c r="R13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="2"/>
@@ -1575,10 +1608,10 @@
       <c r="R14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="2"/>
@@ -1599,10 +1632,10 @@
       <c r="R15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="2"/>
@@ -1625,7 +1658,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1657,7 +1690,9 @@
       <c r="D1" s="3">
         <v>44939</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="4">
+        <v>44944</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1674,19 +1709,21 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1703,19 +1740,21 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1732,19 +1771,21 @@
       <c r="S3" s="2"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1761,19 +1802,21 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1790,19 +1833,21 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1819,19 +1864,21 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1848,19 +1895,21 @@
       <c r="S7" s="2"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1877,19 +1926,21 @@
       <c r="S8" s="2"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1906,19 +1957,21 @@
       <c r="S9" s="2"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1935,19 +1988,21 @@
       <c r="S10" s="2"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1964,19 +2019,21 @@
       <c r="S11" s="2"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1993,19 +2050,21 @@
       <c r="S12" s="2"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -2022,19 +2081,21 @@
       <c r="S13" s="2"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -2051,19 +2112,21 @@
       <c r="S14" s="2"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -2083,13 +2146,13 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00B500C3-0097-449F-8305-00BB005400FF}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{006200B7-006E-427A-86BC-00BB009300CC}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -2106,7 +2169,7 @@
           <xm:sqref>C2:S15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00040089-008B-4FD9-A8B5-00F800B40071}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00130013-00F2-4626-B5BB-006200C000FF}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -2123,7 +2186,7 @@
           <xm:sqref>C2:S15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0069008E-008A-4720-9E78-00B5004B0022}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{000F0082-00B7-4B88-818E-0083004B001E}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -2185,10 +2248,10 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="2"/>
@@ -2210,10 +2273,10 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="2"/>
@@ -2235,10 +2298,10 @@
       <c r="S3" s="2"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="2"/>
@@ -2260,10 +2323,10 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="2"/>
@@ -2285,10 +2348,10 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="2"/>
@@ -2310,10 +2373,10 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="2"/>
@@ -2335,10 +2398,10 @@
       <c r="S7" s="2"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="2"/>
@@ -2360,10 +2423,10 @@
       <c r="S8" s="2"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="2"/>
@@ -2385,10 +2448,10 @@
       <c r="S9" s="2"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2"/>
@@ -2410,10 +2473,10 @@
       <c r="S10" s="2"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="2"/>
@@ -2435,10 +2498,10 @@
       <c r="S11" s="2"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="2"/>
@@ -2460,10 +2523,10 @@
       <c r="S12" s="2"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="2"/>
@@ -2485,10 +2548,10 @@
       <c r="S13" s="2"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="2"/>
@@ -2510,10 +2573,10 @@
       <c r="S14" s="2"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="2"/>
@@ -2538,7 +2601,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Успеваемость_СО-ИП-21-2.xlsx
+++ b/Успеваемость_СО-ИП-21-2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>№</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t xml:space="preserve">Сдала 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сдал 1</t>
   </si>
   <si>
     <t xml:space="preserve">Баграновский Дмитрий Сергеевич</t>
@@ -719,10 +722,12 @@
       <c r="D1" s="3">
         <v>44939</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>44944</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="4">
+        <v>44946</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -749,10 +754,12 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -779,10 +786,12 @@
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -809,10 +818,12 @@
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -839,10 +850,12 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -869,10 +882,12 @@
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -899,10 +914,12 @@
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -929,10 +946,12 @@
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -959,10 +978,12 @@
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -989,10 +1010,12 @@
       <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1019,10 +1042,12 @@
       <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1049,10 +1074,12 @@
       <c r="D12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1079,10 +1106,12 @@
       <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1109,10 +1138,12 @@
       <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1139,10 +1170,12 @@
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1169,10 +1202,12 @@
       <c r="D16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1195,7 +1230,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{005D00FC-0016-46D8-A607-00E200D4008E}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{005700BC-0013-4817-97EA-000900C80071}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1212,7 +1247,7 @@
           <xm:sqref>C2:R16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0012007D-00BA-43C0-9814-00EB004D002E}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00C20027-0023-49B9-B234-007D00470073}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1229,7 +1264,7 @@
           <xm:sqref>C2:R16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00B30006-0022-4EB3-B902-00EA002500E5}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00080095-0019-42A5-9B6E-00DA00A000AE}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -1346,7 +1381,9 @@
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1542,7 +1579,9 @@
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1566,7 +1605,9 @@
       <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1590,7 +1631,9 @@
       <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1638,7 +1681,9 @@
       <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2">
+        <v>10</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1690,10 +1735,12 @@
       <c r="D1" s="3">
         <v>44939</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>44944</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="4">
+        <v>44946</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1713,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -1721,10 +1768,12 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1744,7 +1793,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -1752,10 +1801,12 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1775,7 +1826,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -1783,10 +1834,12 @@
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1806,7 +1859,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
@@ -1814,10 +1867,12 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1837,7 +1892,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -1845,10 +1900,12 @@
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1868,7 +1925,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
@@ -1876,10 +1933,12 @@
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1899,7 +1958,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -1907,10 +1966,12 @@
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1930,7 +1991,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
@@ -1938,10 +1999,12 @@
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1961,7 +2024,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
@@ -1969,10 +2032,12 @@
       <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1992,7 +2057,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
@@ -2000,10 +2065,12 @@
       <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2023,7 +2090,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
@@ -2031,10 +2098,12 @@
       <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2054,7 +2123,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -2062,10 +2131,12 @@
       <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2085,7 +2156,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -2093,10 +2164,12 @@
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -2116,7 +2189,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -2124,10 +2197,12 @@
       <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2152,7 +2227,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{006200B7-006E-427A-86BC-00BB009300CC}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00D900A0-00EC-4309-AE5B-000600AF00AD}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -2169,7 +2244,7 @@
           <xm:sqref>C2:S15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00130013-00F2-4626-B5BB-006200C000FF}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00180028-0027-4036-AEB6-00EF00A700E0}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -2186,7 +2261,7 @@
           <xm:sqref>C2:S15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{000F0082-00B7-4B88-818E-0083004B001E}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{005F00CF-0068-4F22-B5AD-0005008B001B}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -2229,7 +2304,9 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="4">
+        <v>44946</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2252,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2277,7 +2354,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2302,7 +2379,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2327,7 +2404,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2352,7 +2429,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2377,7 +2454,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2402,7 +2479,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2427,7 +2504,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2452,7 +2529,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2477,7 +2554,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2502,7 +2579,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2527,9 +2604,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2552,7 +2631,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2577,7 +2656,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>

--- a/Успеваемость_СО-ИП-21-2.xlsx
+++ b/Успеваемость_СО-ИП-21-2.xlsx
@@ -1,22 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26124"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_100A8CCABD9986613EF5DDB12298B33D5F74B405" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42AE5F36-5378-4E24-83D4-824587C0C790}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Посещаемость (подгруппа 1)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Успеваемость (подгруппа 1)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Посещаемость (подгруппа 2)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Успеваемость (подгруппа 2)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
+    <sheet name="Успеваемость (подгруппа 1)" sheetId="2" r:id="rId2"/>
+    <sheet name="Посещаемость (подгруппа 2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Успеваемость (подгруппа 2)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="36">
   <si>
     <t>№</t>
   </si>
@@ -24,7 +39,7 @@
     <t>Студент</t>
   </si>
   <si>
-    <t xml:space="preserve">Борисов Василий Николаевич</t>
+    <t>Борисов Василий Николаевич</t>
   </si>
   <si>
     <t>+</t>
@@ -33,108 +48,108 @@
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">Борода Егор Игоревич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Брусков Артём Викторович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гончаров Никита Дмитриевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Григорьев Игорь Константинович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ерофеева Екатерина Александровна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иванова Диана Юльевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Козюков Никита Владимирович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Колесникова Наталья Валентиновна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Короченцева Александра Владимировна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мосенков Данил Вадимович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пилюгайцев Дмитрий Александрович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Погожев Герман Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Радченко Данил Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Малкова Алиса</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лаб 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сдала 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сдал 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Баграновский Дмитрий Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Батршин Тимур Ильдарович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Борисов Глеб Юрьевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Воронов Михаил Алексеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Григорьев Никита Станиславович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кодинцев Никита Владимирович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Косицын Валерий Евгеньевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Паленый Степан Алексеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Панченко Алексей Дмитриевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Полторак Василий Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пучков Максим Васильевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Цымбал Данил Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Смирнов Максим</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Исмаилов Руслан</t>
+    <t>Борода Егор Игоревич</t>
+  </si>
+  <si>
+    <t>Брусков Артём Викторович</t>
+  </si>
+  <si>
+    <t>Гончаров Никита Дмитриевич</t>
+  </si>
+  <si>
+    <t>Григорьев Игорь Константинович</t>
+  </si>
+  <si>
+    <t>Ерофеева Екатерина Александровна</t>
+  </si>
+  <si>
+    <t>Иванова Диана Юльевна</t>
+  </si>
+  <si>
+    <t>Козюков Никита Владимирович</t>
+  </si>
+  <si>
+    <t>Колесникова Наталья Валентиновна</t>
+  </si>
+  <si>
+    <t>Короченцева Александра Владимировна</t>
+  </si>
+  <si>
+    <t>Мосенков Данил Вадимович</t>
+  </si>
+  <si>
+    <t>Пилюгайцев Дмитрий Александрович</t>
+  </si>
+  <si>
+    <t>Погожев Герман Сергеевич</t>
+  </si>
+  <si>
+    <t>Радченко Данил Сергеевич</t>
+  </si>
+  <si>
+    <t>Малкова Алиса</t>
+  </si>
+  <si>
+    <t>Лаб 1</t>
+  </si>
+  <si>
+    <t>Сдала 1</t>
+  </si>
+  <si>
+    <t>Сдал 1</t>
+  </si>
+  <si>
+    <t>Баграновский Дмитрий Сергеевич</t>
+  </si>
+  <si>
+    <t>Батршин Тимур Ильдарович</t>
+  </si>
+  <si>
+    <t>Борисов Глеб Юрьевич</t>
+  </si>
+  <si>
+    <t>Воронов Михаил Алексеевич</t>
+  </si>
+  <si>
+    <t>Григорьев Никита Станиславович</t>
+  </si>
+  <si>
+    <t>Кодинцев Никита Владимирович</t>
+  </si>
+  <si>
+    <t>Косицын Валерий Евгеньевич</t>
+  </si>
+  <si>
+    <t>Паленый Степан Алексеевич</t>
+  </si>
+  <si>
+    <t>Панченко Алексей Дмитриевич</t>
+  </si>
+  <si>
+    <t>Полторак Василий Сергеевич</t>
+  </si>
+  <si>
+    <t>Пучков Максим Васильевич</t>
+  </si>
+  <si>
+    <t>Цымбал Данил Сергеевич</t>
+  </si>
+  <si>
+    <t>Смирнов Максим</t>
+  </si>
+  <si>
+    <t>Исмаилов Руслан</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -171,325 +186,109 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -692,24 +491,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.8515625"/>
-    <col bestFit="1" min="2" max="2" width="37.28125"/>
-    <col min="3" max="18" style="1" width="9.140625"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1"/>
+    <col min="3" max="18" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -725,11 +526,15 @@
       <c r="E1" s="3">
         <v>44944</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>44946</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="3">
+        <v>44952</v>
+      </c>
+      <c r="H1" s="3">
+        <v>44953</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -741,11 +546,11 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" ht="14.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:18">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -757,11 +562,15 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -773,11 +582,11 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:18">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -789,11 +598,15 @@
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -805,11 +618,11 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:18">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -821,11 +634,15 @@
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -837,11 +654,11 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:18">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -853,11 +670,15 @@
       <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -869,11 +690,11 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:18">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -885,11 +706,15 @@
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -901,11 +726,11 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:18">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -917,11 +742,15 @@
       <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -933,11 +762,11 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:18">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -949,11 +778,15 @@
       <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -965,11 +798,11 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:18">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -981,11 +814,15 @@
       <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -997,11 +834,11 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:18">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1013,11 +850,15 @@
       <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1029,11 +870,11 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:18">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1045,11 +886,15 @@
       <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1061,11 +906,11 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" ht="14.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:18">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1077,11 +922,15 @@
       <c r="E12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1093,11 +942,11 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:18">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1109,11 +958,15 @@
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1125,11 +978,11 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" ht="14.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:18">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1141,11 +994,15 @@
       <c r="E14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1157,11 +1014,11 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" ht="14.25">
-      <c r="A15" s="5">
+    <row r="15" spans="1:18">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1173,11 +1030,15 @@
       <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1189,11 +1050,11 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" ht="14.25">
-      <c r="A16" s="5">
+    <row r="16" spans="1:18">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1205,11 +1066,15 @@
       <c r="E16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1222,85 +1087,42 @@
       <c r="R16" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{005700BC-0013-4817-97EA-000900C80071}">
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFC7CE"/>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:R16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00C20027-0023-49B9-B234-007D00470073}">
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:R16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00080095-0019-42A5-9B6E-00DA00A000AE}">
-            <xm:f>"#"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:R16</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <conditionalFormatting sqref="C2:R16">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:R16">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:R16">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.8515625"/>
-    <col bestFit="1" min="2" max="2" width="37.28125"/>
-    <col min="3" max="18" style="1" width="9.140625"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1"/>
+    <col min="3" max="18" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1132,9 @@
       <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2">
+        <v>2</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1326,11 +1150,11 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:18">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
@@ -1350,11 +1174,11 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:18">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
@@ -1374,11 +1198,11 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:18">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2">
@@ -1400,11 +1224,11 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:18">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2"/>
@@ -1424,11 +1248,11 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6">
-      <c r="A6" s="5">
+    <row r="6" spans="1:18">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2"/>
@@ -1448,11 +1272,11 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7">
-      <c r="A7" s="5">
+    <row r="7" spans="1:18">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1474,11 +1298,11 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8">
-      <c r="A8" s="5">
+    <row r="8" spans="1:18">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2"/>
@@ -1498,11 +1322,11 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9">
-      <c r="A9" s="5">
+    <row r="9" spans="1:18">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2"/>
@@ -1522,11 +1346,11 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10">
-      <c r="A10" s="5">
+    <row r="10" spans="1:18">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2"/>
@@ -1546,11 +1370,11 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11">
-      <c r="A11" s="5">
+    <row r="11" spans="1:18">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1572,14 +1396,14 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12">
-      <c r="A12" s="5">
+    <row r="12" spans="1:18">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="2"/>
@@ -1598,11 +1422,11 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13">
-      <c r="A13" s="5">
+    <row r="13" spans="1:18">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2">
@@ -1624,17 +1448,19 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14">
-      <c r="A14" s="5">
+    <row r="14" spans="1:18">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1650,11 +1476,11 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15">
-      <c r="A15" s="5">
+    <row r="15" spans="1:18">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="2"/>
@@ -1674,17 +1500,19 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16">
-      <c r="A16" s="5">
+    <row r="16" spans="1:18">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="2">
         <v>10</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1701,28 +1529,27 @@
       <c r="R16" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.8515625"/>
-    <col bestFit="1" min="2" max="2" width="31.28125"/>
-    <col min="3" max="19" style="1" width="9.140625"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1"/>
+    <col min="3" max="19" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1738,11 +1565,15 @@
       <c r="E1" s="3">
         <v>44944</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>44946</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="3">
+        <v>44952</v>
+      </c>
+      <c r="H1" s="3">
+        <v>44953</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1755,11 +1586,11 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" ht="14.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:19">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1771,11 +1602,15 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1788,11 +1623,11 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:19">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1804,11 +1639,15 @@
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1821,11 +1660,11 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:19">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1837,11 +1676,15 @@
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1854,11 +1697,11 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:19">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1870,11 +1713,15 @@
       <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1887,11 +1734,11 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:19">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1903,11 +1750,15 @@
       <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1920,11 +1771,11 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:19">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1936,11 +1787,15 @@
       <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1953,11 +1808,11 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:19">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1969,11 +1824,15 @@
       <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1986,11 +1845,11 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:19">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2002,11 +1861,15 @@
       <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2019,11 +1882,11 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:19">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2035,11 +1898,15 @@
       <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -2052,11 +1919,11 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:19">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2068,11 +1935,15 @@
       <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -2085,11 +1956,11 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" ht="14.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:19">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2101,11 +1972,15 @@
       <c r="E12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -2118,11 +1993,11 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:19">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2134,11 +2009,15 @@
       <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -2151,11 +2030,11 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" ht="14.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:19">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2167,11 +2046,15 @@
       <c r="E14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -2184,11 +2067,11 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" ht="14.25">
-      <c r="A15" s="5">
+    <row r="15" spans="1:19">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2200,11 +2083,15 @@
       <c r="E15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -2217,95 +2104,51 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" ht="14.25"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00D900A0-00EC-4309-AE5B-000600AF00AD}">
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFC7CE"/>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:S15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00180028-0027-4036-AEB6-00EF00A700E0}">
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:S15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{005F00CF-0068-4F22-B5AD-0005008B001B}">
-            <xm:f>"#"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:S15</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <conditionalFormatting sqref="C2:S15">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:S15">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:S15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.8515625"/>
-    <col bestFit="1" min="2" max="2" width="31.28125"/>
-    <col min="3" max="19" style="1" width="9.140625"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="19" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4">
-        <v>44946</v>
+      <c r="C1" s="5">
+        <v>1</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -2324,11 +2167,11 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" ht="14.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:19">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="2"/>
@@ -2349,11 +2192,11 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:19">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="2"/>
@@ -2374,14 +2217,16 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:19">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2399,11 +2244,11 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:19">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2"/>
@@ -2424,11 +2269,11 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:19">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="2"/>
@@ -2449,11 +2294,11 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:19">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="2"/>
@@ -2474,11 +2319,11 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:19">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="2"/>
@@ -2499,11 +2344,11 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:19">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="2"/>
@@ -2524,11 +2369,11 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:19">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="2"/>
@@ -2549,11 +2394,11 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:19">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="2"/>
@@ -2574,11 +2419,11 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" ht="14.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:19">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="2"/>
@@ -2599,15 +2444,15 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:19">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -2626,11 +2471,11 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" ht="14.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:19">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="2"/>
@@ -2651,11 +2496,11 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" ht="14.25">
-      <c r="A15" s="5">
+    <row r="15" spans="1:19">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="2"/>
@@ -2676,11 +2521,8 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" ht="14.25"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Успеваемость_СО-ИП-21-2.xlsx
+++ b/Успеваемость_СО-ИП-21-2.xlsx
@@ -1,37 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26124"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_100A8CCABD9986613EF5DDB12298B33D5F74B405" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42AE5F36-5378-4E24-83D4-824587C0C790}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
-    <sheet name="Успеваемость (подгруппа 1)" sheetId="2" r:id="rId2"/>
-    <sheet name="Посещаемость (подгруппа 2)" sheetId="3" r:id="rId3"/>
-    <sheet name="Успеваемость (подгруппа 2)" sheetId="4" r:id="rId4"/>
+    <sheet name="Посещаемость (подгруппа 1)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Успеваемость (подгруппа 1)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Посещаемость (подгруппа 2)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Успеваемость (подгруппа 2)" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>№</t>
   </si>
@@ -39,7 +24,7 @@
     <t>Студент</t>
   </si>
   <si>
-    <t>Борисов Василий Николаевич</t>
+    <t xml:space="preserve">Борисов Василий Николаевич</t>
   </si>
   <si>
     <t>+</t>
@@ -48,108 +33,108 @@
     <t>-</t>
   </si>
   <si>
-    <t>Борода Егор Игоревич</t>
-  </si>
-  <si>
-    <t>Брусков Артём Викторович</t>
-  </si>
-  <si>
-    <t>Гончаров Никита Дмитриевич</t>
-  </si>
-  <si>
-    <t>Григорьев Игорь Константинович</t>
-  </si>
-  <si>
-    <t>Ерофеева Екатерина Александровна</t>
-  </si>
-  <si>
-    <t>Иванова Диана Юльевна</t>
-  </si>
-  <si>
-    <t>Козюков Никита Владимирович</t>
-  </si>
-  <si>
-    <t>Колесникова Наталья Валентиновна</t>
-  </si>
-  <si>
-    <t>Короченцева Александра Владимировна</t>
-  </si>
-  <si>
-    <t>Мосенков Данил Вадимович</t>
-  </si>
-  <si>
-    <t>Пилюгайцев Дмитрий Александрович</t>
-  </si>
-  <si>
-    <t>Погожев Герман Сергеевич</t>
-  </si>
-  <si>
-    <t>Радченко Данил Сергеевич</t>
-  </si>
-  <si>
-    <t>Малкова Алиса</t>
-  </si>
-  <si>
-    <t>Лаб 1</t>
-  </si>
-  <si>
-    <t>Сдала 1</t>
-  </si>
-  <si>
-    <t>Сдал 1</t>
-  </si>
-  <si>
-    <t>Баграновский Дмитрий Сергеевич</t>
-  </si>
-  <si>
-    <t>Батршин Тимур Ильдарович</t>
-  </si>
-  <si>
-    <t>Борисов Глеб Юрьевич</t>
-  </si>
-  <si>
-    <t>Воронов Михаил Алексеевич</t>
-  </si>
-  <si>
-    <t>Григорьев Никита Станиславович</t>
-  </si>
-  <si>
-    <t>Кодинцев Никита Владимирович</t>
-  </si>
-  <si>
-    <t>Косицын Валерий Евгеньевич</t>
-  </si>
-  <si>
-    <t>Паленый Степан Алексеевич</t>
-  </si>
-  <si>
-    <t>Панченко Алексей Дмитриевич</t>
-  </si>
-  <si>
-    <t>Полторак Василий Сергеевич</t>
-  </si>
-  <si>
-    <t>Пучков Максим Васильевич</t>
-  </si>
-  <si>
-    <t>Цымбал Данил Сергеевич</t>
-  </si>
-  <si>
-    <t>Смирнов Максим</t>
-  </si>
-  <si>
-    <t>Исмаилов Руслан</t>
+    <t xml:space="preserve">Борода Егор Игоревич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Брусков Артём Викторович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гончаров Никита Дмитриевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Григорьев Игорь Константинович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ерофеева Екатерина Александровна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванова Диана Юльевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Козюков Никита Владимирович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Колесникова Наталья Валентиновна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Короченцева Александра Владимировна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мосенков Данил Вадимович</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пилюгайцев Дмитрий Александрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Погожев Герман Сергеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Радченко Данил Сергеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Малкова Алиса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лаб 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сдала 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Баграновский Дмитрий Сергеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Батршин Тимур Ильдарович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Борисов Глеб Юрьевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Воронов Михаил Алексеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Григорьев Никита Станиславович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кодинцев Никита Владимирович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Косицын Валерий Евгеньевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Паленый Степан Алексеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Панченко Алексей Дмитриевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полторак Василий Сергеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пучков Максим Васильевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цымбал Данил Сергеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Смирнов Максим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Исмаилов Руслан</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -186,109 +171,325 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -491,26 +692,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="Q15" activeCellId="0" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1"/>
-    <col min="3" max="18" width="9.140625" style="1"/>
+    <col bestFit="1" min="1" max="1" width="2.85546875"/>
+    <col bestFit="1" min="2" max="2" width="37.28515625"/>
+    <col min="3" max="18" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -535,8 +734,12 @@
       <c r="H1" s="3">
         <v>44953</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="I1" s="3">
+        <v>44958</v>
+      </c>
+      <c r="J1" s="4">
+        <v>44960</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -546,11 +749,11 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="4">
+    <row r="2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -571,8 +774,12 @@
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -582,11 +789,11 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="4">
+    <row r="3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -607,8 +814,12 @@
       <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -618,11 +829,11 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -643,8 +854,12 @@
       <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -654,11 +869,11 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -679,8 +894,12 @@
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -690,11 +909,11 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="4">
+    <row r="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -715,8 +934,12 @@
       <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -726,11 +949,11 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="4">
+    <row r="7">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -751,8 +974,12 @@
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -762,11 +989,11 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="4">
+    <row r="8">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -787,8 +1014,12 @@
       <c r="H8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -798,11 +1029,11 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="4">
+    <row r="9">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -823,8 +1054,12 @@
       <c r="H9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -834,11 +1069,11 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="4">
+    <row r="10">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -859,8 +1094,12 @@
       <c r="H10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -870,11 +1109,11 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="4">
+    <row r="11">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -895,8 +1134,12 @@
       <c r="H11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -906,11 +1149,11 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="4">
+    <row r="12">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -925,14 +1168,18 @@
       <c r="F12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="G12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -942,12 +1189,12 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="4">
+    <row r="13">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -967,8 +1214,12 @@
       <c r="H13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -978,12 +1229,12 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="4">
+    <row r="14">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -1003,8 +1254,12 @@
       <c r="H14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1014,12 +1269,12 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="4">
+    <row r="15">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
@@ -1039,8 +1294,12 @@
       <c r="H15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1050,12 +1309,12 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="4">
+    <row r="16">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
+      <c r="B16" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -1075,8 +1334,12 @@
       <c r="H16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1087,42 +1350,85 @@
       <c r="R16" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:R16">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:R16">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"+"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:R16">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00D9009F-0010-41DB-9B60-000F00B0007A}">
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:R16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00200073-00C3-4094-A5C1-008E0026002B}">
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:R16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00FB004B-00EF-4EA5-AF4D-00CB00C30091}">
+            <xm:f>"#"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:R16</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1"/>
-    <col min="3" max="18" width="9.140625" style="1"/>
+    <col bestFit="1" min="1" max="1" width="2.85546875"/>
+    <col bestFit="1" min="2" max="2" width="37.28515625"/>
+    <col min="3" max="18" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2">
         <v>2</v>
@@ -1150,11 +1456,11 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="4">
+    <row r="2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
@@ -1174,11 +1480,11 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="4">
+    <row r="3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
@@ -1198,11 +1504,11 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2">
@@ -1224,11 +1530,11 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2"/>
@@ -1248,11 +1554,11 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="4">
+    <row r="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2"/>
@@ -1272,15 +1578,15 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="4">
+    <row r="7">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1298,11 +1604,11 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="4">
+    <row r="8">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2"/>
@@ -1322,11 +1628,11 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="4">
+    <row r="9">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2"/>
@@ -1346,11 +1652,11 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="4">
+    <row r="10">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2"/>
@@ -1370,15 +1676,15 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="4">
+    <row r="11">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1396,15 +1702,15 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="4">
+    <row r="12">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
+      <c r="C12" s="2">
+        <v>10</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1422,12 +1728,12 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="4">
+    <row r="13">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
@@ -1448,12 +1754,12 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="4">
+    <row r="14">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="2">
         <v>10</v>
@@ -1476,12 +1782,12 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="4">
+    <row r="15">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1500,12 +1806,12 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="4">
+    <row r="16">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
+      <c r="B16" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="2">
         <v>10</v>
@@ -1529,27 +1835,28 @@
       <c r="R16" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="31.28515625" bestFit="1"/>
-    <col min="3" max="19" width="9.140625" style="1"/>
+    <col bestFit="1" min="1" max="1" width="2.85546875"/>
+    <col bestFit="1" min="2" max="2" width="31.28515625"/>
+    <col min="3" max="19" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1574,8 +1881,12 @@
       <c r="H1" s="3">
         <v>44953</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="I1" s="3">
+        <v>44958</v>
+      </c>
+      <c r="J1" s="4">
+        <v>44960</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -1586,11 +1897,11 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="4">
+    <row r="2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1611,8 +1922,12 @@
       <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1623,11 +1938,11 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="4">
+    <row r="3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1648,8 +1963,12 @@
       <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1660,11 +1979,11 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1685,8 +2004,12 @@
       <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1697,11 +2020,11 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1722,8 +2045,12 @@
       <c r="H5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1734,11 +2061,11 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="4">
+    <row r="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1759,8 +2086,12 @@
       <c r="H6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1771,11 +2102,11 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="4">
+    <row r="7">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1796,8 +2127,12 @@
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1808,11 +2143,11 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="4">
+    <row r="8">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1833,8 +2168,12 @@
       <c r="H8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1845,11 +2184,11 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="4">
+    <row r="9">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1870,8 +2209,12 @@
       <c r="H9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1882,11 +2225,11 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="4">
+    <row r="10">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1907,8 +2250,12 @@
       <c r="H10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1919,11 +2266,11 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="4">
+    <row r="11">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1944,8 +2291,12 @@
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1956,11 +2307,11 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="4">
+    <row r="12">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1981,8 +2332,12 @@
       <c r="H12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1993,11 +2348,11 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="4">
+    <row r="13">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2018,8 +2373,12 @@
       <c r="H13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -2030,11 +2389,11 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="4">
+    <row r="14">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2055,8 +2414,12 @@
       <c r="H14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2067,11 +2430,11 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="4">
+    <row r="15">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2092,8 +2455,12 @@
       <c r="H15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2105,52 +2472,97 @@
       <c r="S15" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:S15">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:S15">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"+"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:S15">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{002A006A-00AB-4433-BD77-00750022004D}">
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:S15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{005E0012-0060-4E44-A966-00FF00F300A4}">
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:S15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00BC000E-004A-4145-8475-001F00780001}">
+            <xm:f>"#"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:S15</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="19" width="9.140625" style="1"/>
+    <col bestFit="1" min="1" max="1" width="2.85546875"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="33"/>
+    <col min="3" max="19" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2">
+        <v>2</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2167,11 +2579,11 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="4">
+    <row r="2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="2"/>
@@ -2192,11 +2604,11 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="4">
+    <row r="3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="2"/>
@@ -2217,11 +2629,11 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="2">
@@ -2244,11 +2656,11 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2"/>
@@ -2269,11 +2681,11 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="4">
+    <row r="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="2"/>
@@ -2294,11 +2706,11 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="4">
+    <row r="7">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="2"/>
@@ -2319,11 +2731,11 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="4">
+    <row r="8">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="2"/>
@@ -2344,11 +2756,11 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="4">
+    <row r="9">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="2"/>
@@ -2369,11 +2781,11 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="4">
+    <row r="10">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="2"/>
@@ -2394,14 +2806,16 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="4">
+    <row r="11">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2419,11 +2833,11 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="4">
+    <row r="12">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="2"/>
@@ -2444,17 +2858,19 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="4">
+    <row r="13">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2471,11 +2887,11 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="4">
+    <row r="14">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="2"/>
@@ -2496,11 +2912,11 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="4">
+    <row r="15">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="2"/>
@@ -2522,7 +2938,9 @@
       <c r="S15" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Успеваемость_СО-ИП-21-2.xlsx
+++ b/Успеваемость_СО-ИП-21-2.xlsx
@@ -1,22 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_90346DBAC36A1AD58CB88E22F32196BC358CAB34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{870E4E7D-F4A2-4288-82F2-5E2FB39D0991}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Посещаемость (подгруппа 1)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Успеваемость (подгруппа 1)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Посещаемость (подгруппа 2)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Успеваемость (подгруппа 2)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
+    <sheet name="Успеваемость (подгруппа 1)" sheetId="2" r:id="rId2"/>
+    <sheet name="Посещаемость (подгруппа 2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Успеваемость (подгруппа 2)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="36">
   <si>
     <t>№</t>
   </si>
@@ -24,7 +39,7 @@
     <t>Студент</t>
   </si>
   <si>
-    <t xml:space="preserve">Борисов Василий Николаевич</t>
+    <t>Борисов Василий Николаевич</t>
   </si>
   <si>
     <t>+</t>
@@ -33,108 +48,108 @@
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">Борода Егор Игоревич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Брусков Артём Викторович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гончаров Никита Дмитриевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Григорьев Игорь Константинович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ерофеева Екатерина Александровна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иванова Диана Юльевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Козюков Никита Владимирович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Колесникова Наталья Валентиновна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Короченцева Александра Владимировна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мосенков Данил Вадимович</t>
+    <t>Борода Егор Игоревич</t>
+  </si>
+  <si>
+    <t>Брусков Артём Викторович</t>
+  </si>
+  <si>
+    <t>Гончаров Никита Дмитриевич</t>
+  </si>
+  <si>
+    <t>Григорьев Игорь Константинович</t>
+  </si>
+  <si>
+    <t>Ерофеева Екатерина Александровна</t>
+  </si>
+  <si>
+    <t>Иванова Диана Юльевна</t>
+  </si>
+  <si>
+    <t>Козюков Никита Владимирович</t>
+  </si>
+  <si>
+    <t>Колесникова Наталья Валентиновна</t>
+  </si>
+  <si>
+    <t>Короченцева Александра Владимировна</t>
+  </si>
+  <si>
+    <t>Мосенков Данил Вадимович</t>
   </si>
   <si>
     <t>#</t>
   </si>
   <si>
-    <t xml:space="preserve">Пилюгайцев Дмитрий Александрович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Погожев Герман Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Радченко Данил Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Малкова Алиса</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лаб 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сдала 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Баграновский Дмитрий Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Батршин Тимур Ильдарович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Борисов Глеб Юрьевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Воронов Михаил Алексеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Григорьев Никита Станиславович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кодинцев Никита Владимирович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Косицын Валерий Евгеньевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Паленый Степан Алексеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Панченко Алексей Дмитриевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Полторак Василий Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пучков Максим Васильевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Цымбал Данил Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Смирнов Максим</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Исмаилов Руслан</t>
+    <t>Пилюгайцев Дмитрий Александрович</t>
+  </si>
+  <si>
+    <t>Погожев Герман Сергеевич</t>
+  </si>
+  <si>
+    <t>Радченко Данил Сергеевич</t>
+  </si>
+  <si>
+    <t>Малкова Алиса</t>
+  </si>
+  <si>
+    <t>Лаб 1</t>
+  </si>
+  <si>
+    <t>Сдала 1</t>
+  </si>
+  <si>
+    <t>Баграновский Дмитрий Сергеевич</t>
+  </si>
+  <si>
+    <t>Батршин Тимур Ильдарович</t>
+  </si>
+  <si>
+    <t>Борисов Глеб Юрьевич</t>
+  </si>
+  <si>
+    <t>Воронов Михаил Алексеевич</t>
+  </si>
+  <si>
+    <t>Григорьев Никита Станиславович</t>
+  </si>
+  <si>
+    <t>Кодинцев Никита Владимирович</t>
+  </si>
+  <si>
+    <t>Косицын Валерий Евгеньевич</t>
+  </si>
+  <si>
+    <t>Паленый Степан Алексеевич</t>
+  </si>
+  <si>
+    <t>Панченко Алексей Дмитриевич</t>
+  </si>
+  <si>
+    <t>Полторак Василий Сергеевич</t>
+  </si>
+  <si>
+    <t>Пучков Максим Васильевич</t>
+  </si>
+  <si>
+    <t>Цымбал Данил Сергеевич</t>
+  </si>
+  <si>
+    <t>Смирнов Максим</t>
+  </si>
+  <si>
+    <t>Исмаилов Руслан</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -171,325 +186,106 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -692,24 +488,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="Q15" activeCellId="0" sqref="Q15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.85546875"/>
-    <col bestFit="1" min="2" max="2" width="37.28515625"/>
-    <col min="3" max="18" style="1" width="9.140625"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1"/>
+    <col min="3" max="18" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -737,10 +535,12 @@
       <c r="I1" s="3">
         <v>44958</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <v>44960</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="3">
+        <v>44966</v>
+      </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -749,11 +549,11 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:18">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -777,10 +577,12 @@
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -789,11 +591,11 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:18">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -817,10 +619,12 @@
       <c r="I3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -829,11 +633,11 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:18">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -857,10 +661,12 @@
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -869,11 +675,11 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:18">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -897,10 +703,12 @@
       <c r="I5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -909,11 +717,11 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6">
-      <c r="A6" s="5">
+    <row r="6" spans="1:18">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -937,10 +745,12 @@
       <c r="I6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -949,11 +759,11 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7">
-      <c r="A7" s="5">
+    <row r="7" spans="1:18">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -977,10 +787,12 @@
       <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -989,11 +801,11 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8">
-      <c r="A8" s="5">
+    <row r="8" spans="1:18">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1017,10 +829,12 @@
       <c r="I8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1029,11 +843,11 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9">
-      <c r="A9" s="5">
+    <row r="9" spans="1:18">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1057,10 +871,12 @@
       <c r="I9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1069,11 +885,11 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10">
-      <c r="A10" s="5">
+    <row r="10" spans="1:18">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1097,10 +913,12 @@
       <c r="I10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1109,11 +927,11 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11">
-      <c r="A11" s="5">
+    <row r="11" spans="1:18">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1137,10 +955,12 @@
       <c r="I11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1149,11 +969,11 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12">
-      <c r="A12" s="5">
+    <row r="12" spans="1:18">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1168,19 +988,21 @@
       <c r="F12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1189,11 +1011,11 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13">
-      <c r="A13" s="5">
+    <row r="13" spans="1:18">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1217,10 +1039,12 @@
       <c r="I13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1229,11 +1053,11 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14">
-      <c r="A14" s="5">
+    <row r="14" spans="1:18">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1257,10 +1081,12 @@
       <c r="I14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1269,11 +1095,11 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15">
-      <c r="A15" s="5">
+    <row r="15" spans="1:18">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1297,10 +1123,12 @@
       <c r="I15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1309,11 +1137,11 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16">
-      <c r="A16" s="5">
+    <row r="16" spans="1:18">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1337,10 +1165,12 @@
       <c r="I16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1350,85 +1180,42 @@
       <c r="R16" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00D9009F-0010-41DB-9B60-000F00B0007A}">
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFC7CE"/>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:R16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00200073-00C3-4094-A5C1-008E0026002B}">
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:R16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00FB004B-00EF-4EA5-AF4D-00CB00C30091}">
-            <xm:f>"#"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:R16</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <conditionalFormatting sqref="C2:R16">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:R16">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:R16">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.85546875"/>
-    <col bestFit="1" min="2" max="2" width="37.28515625"/>
-    <col min="3" max="18" style="1" width="9.140625"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1"/>
+    <col min="3" max="18" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1456,11 +1243,11 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:18">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
@@ -1480,11 +1267,11 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:18">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
@@ -1504,11 +1291,11 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:18">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2">
@@ -1530,11 +1317,11 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:18">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2"/>
@@ -1554,11 +1341,11 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6">
-      <c r="A6" s="5">
+    <row r="6" spans="1:18">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2"/>
@@ -1578,11 +1365,11 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7">
-      <c r="A7" s="5">
+    <row r="7" spans="1:18">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1604,11 +1391,11 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8">
-      <c r="A8" s="5">
+    <row r="8" spans="1:18">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2"/>
@@ -1628,11 +1415,11 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9">
-      <c r="A9" s="5">
+    <row r="9" spans="1:18">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2"/>
@@ -1652,11 +1439,11 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10">
-      <c r="A10" s="5">
+    <row r="10" spans="1:18">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2"/>
@@ -1676,11 +1463,11 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11">
-      <c r="A11" s="5">
+    <row r="11" spans="1:18">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1702,11 +1489,11 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12">
-      <c r="A12" s="5">
+    <row r="12" spans="1:18">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2">
@@ -1728,11 +1515,11 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13">
-      <c r="A13" s="5">
+    <row r="13" spans="1:18">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2">
@@ -1754,11 +1541,11 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14">
-      <c r="A14" s="5">
+    <row r="14" spans="1:18">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2">
@@ -1782,11 +1569,11 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15">
-      <c r="A15" s="5">
+    <row r="15" spans="1:18">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2"/>
@@ -1806,11 +1593,11 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16">
-      <c r="A16" s="5">
+    <row r="16" spans="1:18">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2">
@@ -1835,28 +1622,27 @@
       <c r="R16" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="H16" activeCellId="0" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.85546875"/>
-    <col bestFit="1" min="2" max="2" width="31.28515625"/>
-    <col min="3" max="19" style="1" width="9.140625"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1"/>
+    <col min="3" max="19" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1884,10 +1670,12 @@
       <c r="I1" s="3">
         <v>44958</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <v>44960</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="3">
+        <v>44966</v>
+      </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -1897,11 +1685,11 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:19">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1925,10 +1713,12 @@
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1938,11 +1728,11 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:19">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1966,10 +1756,12 @@
       <c r="I3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1979,11 +1771,11 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:19">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2007,10 +1799,12 @@
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2020,11 +1814,11 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:19">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2048,10 +1842,12 @@
       <c r="I5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2061,11 +1857,11 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6">
-      <c r="A6" s="5">
+    <row r="6" spans="1:19">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2089,10 +1885,12 @@
       <c r="I6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -2102,11 +1900,11 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7">
-      <c r="A7" s="5">
+    <row r="7" spans="1:19">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2130,10 +1928,12 @@
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -2143,11 +1943,11 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8">
-      <c r="A8" s="5">
+    <row r="8" spans="1:19">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2171,10 +1971,12 @@
       <c r="I8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -2184,11 +1986,11 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9">
-      <c r="A9" s="5">
+    <row r="9" spans="1:19">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2212,10 +2014,12 @@
       <c r="I9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2225,11 +2029,11 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10">
-      <c r="A10" s="5">
+    <row r="10" spans="1:19">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2253,10 +2057,12 @@
       <c r="I10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2266,11 +2072,11 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11">
-      <c r="A11" s="5">
+    <row r="11" spans="1:19">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2294,10 +2100,12 @@
       <c r="I11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2307,11 +2115,11 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12">
-      <c r="A12" s="5">
+    <row r="12" spans="1:19">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2335,10 +2143,12 @@
       <c r="I12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2348,11 +2158,11 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13">
-      <c r="A13" s="5">
+    <row r="13" spans="1:19">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2376,10 +2186,12 @@
       <c r="I13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2389,11 +2201,11 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14">
-      <c r="A14" s="5">
+    <row r="14" spans="1:19">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2417,10 +2229,12 @@
       <c r="I14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2430,11 +2244,11 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15">
-      <c r="A15" s="5">
+    <row r="15" spans="1:19">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2458,10 +2272,12 @@
       <c r="I15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2472,85 +2288,42 @@
       <c r="S15" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{002A006A-00AB-4433-BD77-00750022004D}">
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFC7CE"/>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:S15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{005E0012-0060-4E44-A966-00FF00F300A4}">
-            <xm:f>"+"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFC6EFCE"/>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:S15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00BC000E-004A-4145-8475-001F00780001}">
-            <xm:f>"#"</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C5700"/>
-              </font>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFFFEB9C"/>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C2:S15</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <conditionalFormatting sqref="C2:S15">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:S15">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:S15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="H21" activeCellId="0" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="2.85546875"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="33"/>
-    <col min="3" max="19" style="1" width="9.140625"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="19" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2579,11 +2352,11 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:19">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="2"/>
@@ -2604,11 +2377,11 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:19">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="2"/>
@@ -2629,11 +2402,11 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:19">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="2">
@@ -2656,11 +2429,11 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:19">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2"/>
@@ -2681,11 +2454,11 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6">
-      <c r="A6" s="5">
+    <row r="6" spans="1:19">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="2"/>
@@ -2706,11 +2479,11 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7">
-      <c r="A7" s="5">
+    <row r="7" spans="1:19">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="2"/>
@@ -2731,11 +2504,11 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8">
-      <c r="A8" s="5">
+    <row r="8" spans="1:19">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="2"/>
@@ -2756,11 +2529,11 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9">
-      <c r="A9" s="5">
+    <row r="9" spans="1:19">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="2"/>
@@ -2781,11 +2554,11 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10">
-      <c r="A10" s="5">
+    <row r="10" spans="1:19">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="2"/>
@@ -2806,11 +2579,11 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11">
-      <c r="A11" s="5">
+    <row r="11" spans="1:19">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="2">
@@ -2833,11 +2606,11 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12">
-      <c r="A12" s="5">
+    <row r="12" spans="1:19">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="2"/>
@@ -2858,11 +2631,11 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13">
-      <c r="A13" s="5">
+    <row r="13" spans="1:19">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="2">
@@ -2887,11 +2660,11 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14">
-      <c r="A14" s="5">
+    <row r="14" spans="1:19">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="2"/>
@@ -2912,11 +2685,11 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15">
-      <c r="A15" s="5">
+    <row r="15" spans="1:19">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="2"/>
@@ -2938,9 +2711,7 @@
       <c r="S15" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Успеваемость_СО-ИП-21-2.xlsx
+++ b/Успеваемость_СО-ИП-21-2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26216"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_90346DBAC36A1AD58CB88E22F32196BC358CAB34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{870E4E7D-F4A2-4288-82F2-5E2FB39D0991}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="11_90346DBAC36A1AD58CB88E22F32196BC358CAB34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA8D73B3-0AA0-4A3B-AF14-F44860752616}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="35">
   <si>
     <t>№</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Ерофеева Екатерина Александровна</t>
-  </si>
-  <si>
-    <t>Иванова Диана Юльевна</t>
   </si>
   <si>
     <t>Козюков Никита Владимирович</t>
@@ -145,10 +142,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -188,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,6 +203,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -494,10 +500,766 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" bestFit="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1"/>
+    <col min="3" max="18" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>44938</v>
+      </c>
+      <c r="D1" s="3">
+        <v>44939</v>
+      </c>
+      <c r="E1" s="3">
+        <v>44944</v>
+      </c>
+      <c r="F1" s="3">
+        <v>44946</v>
+      </c>
+      <c r="G1" s="3">
+        <v>44952</v>
+      </c>
+      <c r="H1" s="3">
+        <v>44953</v>
+      </c>
+      <c r="I1" s="3">
+        <v>44958</v>
+      </c>
+      <c r="J1" s="3">
+        <v>44960</v>
+      </c>
+      <c r="K1" s="3">
+        <v>44966</v>
+      </c>
+      <c r="L1" s="3">
+        <v>44967</v>
+      </c>
+      <c r="M1" s="3">
+        <v>44972</v>
+      </c>
+      <c r="N1" s="5">
+        <v>44974</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:R15">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:R15">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:R15">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -514,721 +1276,15 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
-        <v>44938</v>
-      </c>
-      <c r="D1" s="3">
-        <v>44939</v>
-      </c>
-      <c r="E1" s="3">
-        <v>44944</v>
-      </c>
-      <c r="F1" s="3">
-        <v>44946</v>
-      </c>
-      <c r="G1" s="3">
-        <v>44952</v>
-      </c>
-      <c r="H1" s="3">
-        <v>44953</v>
-      </c>
-      <c r="I1" s="3">
-        <v>44958</v>
-      </c>
-      <c r="J1" s="3">
-        <v>44960</v>
-      </c>
-      <c r="K1" s="3">
-        <v>44966</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C2:R16">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:R16">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"+"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:R16">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1"/>
-    <col min="3" max="18" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D1" s="2">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2">
+        <v>3</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1373,9 +1429,11 @@
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1446,7 +1504,9 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1470,10 +1530,12 @@
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1494,7 +1556,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2">
         <v>10</v>
@@ -1525,8 +1587,12 @@
       <c r="C13" s="2">
         <v>10</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1548,12 +1614,8 @@
       <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2">
-        <v>5</v>
-      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1576,9 +1638,15 @@
       <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1593,34 +1661,6 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2">
-        <v>10</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
@@ -1631,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1642,7 +1682,7 @@
     <col min="3" max="19" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1676,9 +1716,15 @@
       <c r="K1" s="3">
         <v>44966</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="L1" s="3">
+        <v>44967</v>
+      </c>
+      <c r="M1" s="3">
+        <v>44972</v>
+      </c>
+      <c r="N1" s="5">
+        <v>44974</v>
+      </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -1690,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -1719,9 +1765,15 @@
       <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -1733,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -1762,9 +1814,15 @@
       <c r="K3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1776,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -1805,9 +1863,15 @@
       <c r="K4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1819,7 +1883,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
@@ -1848,9 +1912,15 @@
       <c r="K5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1862,7 +1932,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -1891,9 +1961,15 @@
       <c r="K6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1905,7 +1981,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
@@ -1934,9 +2010,15 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1948,7 +2030,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -1977,9 +2059,15 @@
       <c r="K8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1991,7 +2079,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
@@ -2020,9 +2108,15 @@
       <c r="K9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -2034,7 +2128,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
@@ -2063,9 +2157,15 @@
       <c r="K10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -2077,7 +2177,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
@@ -2106,9 +2206,15 @@
       <c r="K11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -2120,7 +2226,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
@@ -2149,9 +2255,15 @@
       <c r="K12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -2163,7 +2275,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -2192,9 +2304,15 @@
       <c r="K13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -2206,7 +2324,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -2235,9 +2353,15 @@
       <c r="K14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -2249,7 +2373,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -2278,9 +2402,15 @@
       <c r="K15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -2312,8 +2442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2336,7 +2466,9 @@
       <c r="D1" s="2">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2">
+        <v>3</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2357,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2382,9 +2514,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2407,12 +2541,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2">
         <v>10</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -2434,7 +2570,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2459,7 +2595,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2484,11 +2620,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -2509,7 +2647,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2534,9 +2672,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2559,7 +2699,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2584,7 +2724,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2">
         <v>5</v>
@@ -2611,9 +2751,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2636,7 +2778,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
@@ -2665,9 +2807,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2690,7 +2834,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>

--- a/Успеваемость_СО-ИП-21-2.xlsx
+++ b/Успеваемость_СО-ИП-21-2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26306"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="149" documentId="11_90346DBAC36A1AD58CB88E22F32196BC358CAB34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA8D73B3-0AA0-4A3B-AF14-F44860752616}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="11_90346DBAC36A1AD58CB88E22F32196BC358CAB34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BC35C9D-46AE-487F-A473-31804A46F757}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="42">
   <si>
     <t>№</t>
   </si>
@@ -90,10 +90,25 @@
     <t>Малкова Алиса</t>
   </si>
   <si>
-    <t>Лаб 1</t>
-  </si>
-  <si>
-    <t>Сдала 1</t>
+    <t>Кодинцев Никита Владимирович</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Deleg</t>
+  </si>
+  <si>
+    <t>Encap</t>
+  </si>
+  <si>
+    <t>Decor</t>
+  </si>
+  <si>
+    <t>Тест</t>
+  </si>
+  <si>
+    <t>Итог</t>
   </si>
   <si>
     <t>Баграновский Дмитрий Сергеевич</t>
@@ -111,9 +126,6 @@
     <t>Григорьев Никита Станиславович</t>
   </si>
   <si>
-    <t>Кодинцев Никита Владимирович</t>
-  </si>
-  <si>
     <t>Косицын Валерий Евгеньевич</t>
   </si>
   <si>
@@ -136,6 +148,15 @@
   </si>
   <si>
     <t>Исмаилов Руслан</t>
+  </si>
+  <si>
+    <t>15-25</t>
+  </si>
+  <si>
+    <t>25-35</t>
+  </si>
+  <si>
+    <t>35-40</t>
   </si>
 </sst>
 </file>
@@ -164,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -187,11 +208,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -206,11 +255,50 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -500,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -513,7 +601,7 @@
     <col min="3" max="18" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15">
+    <row r="1" spans="1:19" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -556,12 +644,20 @@
       <c r="N1" s="5">
         <v>44974</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="O1" s="3">
+        <v>44986</v>
+      </c>
+      <c r="P1" s="3">
+        <v>44988</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>44994</v>
+      </c>
+      <c r="R1" s="3">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -604,12 +700,20 @@
       <c r="N2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="O2" s="2">
+        <v>-10</v>
+      </c>
+      <c r="P2" s="2">
+        <v>-15</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>-10</v>
+      </c>
+      <c r="R2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -652,12 +756,20 @@
       <c r="N3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -700,12 +812,20 @@
       <c r="N4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+      <c r="P4" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>15</v>
+      </c>
+      <c r="R4" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -748,12 +868,20 @@
       <c r="N5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="O5" s="2">
+        <v>15</v>
+      </c>
+      <c r="P5" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>-10</v>
+      </c>
+      <c r="R5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -796,12 +924,20 @@
       <c r="N6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="O6" s="2">
+        <v>15</v>
+      </c>
+      <c r="P6" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>15</v>
+      </c>
+      <c r="R6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -844,12 +980,20 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="O7" s="2">
+        <v>-10</v>
+      </c>
+      <c r="P7" s="2">
+        <v>-15</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>-10</v>
+      </c>
+      <c r="R7" s="2">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -892,12 +1036,20 @@
       <c r="N8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="O8" s="2">
+        <v>-10</v>
+      </c>
+      <c r="P8" s="2">
+        <v>-15</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>-10</v>
+      </c>
+      <c r="R8" s="2">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -940,12 +1092,20 @@
       <c r="N9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="O9" s="2">
+        <v>-10</v>
+      </c>
+      <c r="P9" s="2">
+        <v>-15</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>-10</v>
+      </c>
+      <c r="R9" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -988,12 +1148,20 @@
       <c r="N10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="O10" s="2">
+        <v>15</v>
+      </c>
+      <c r="P10" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>15</v>
+      </c>
+      <c r="R10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1036,12 +1204,20 @@
       <c r="N11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="O11" s="2">
+        <v>15</v>
+      </c>
+      <c r="P11" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>-10</v>
+      </c>
+      <c r="R11" s="2">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1084,12 +1260,20 @@
       <c r="N12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="O12" s="2">
+        <v>15</v>
+      </c>
+      <c r="P12" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>15</v>
+      </c>
+      <c r="R12" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1097,13 +1281,13 @@
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>3</v>
@@ -1132,12 +1316,20 @@
       <c r="N13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="O13" s="2">
+        <v>15</v>
+      </c>
+      <c r="P13" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>15</v>
+      </c>
+      <c r="R13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1180,12 +1372,20 @@
       <c r="N14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="O14" s="2">
+        <v>15</v>
+      </c>
+      <c r="P14" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>15</v>
+      </c>
+      <c r="R14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1228,23 +1428,103 @@
       <c r="N15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="O15" s="2">
+        <v>15</v>
+      </c>
+      <c r="P15" s="2">
+        <v>-15</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>15</v>
+      </c>
+      <c r="R15" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="4">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="2">
+        <v>15</v>
+      </c>
+      <c r="P16" s="2">
+        <v>-15</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>15</v>
+      </c>
+      <c r="R16" s="2">
+        <v>10</v>
+      </c>
+      <c r="S16" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:R15">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:R15">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:R15">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"#"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:S16">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:R15">
+  <conditionalFormatting sqref="C16:S16">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:R15">
+  <conditionalFormatting sqref="C16:S16">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"#"</formula>
     </cfRule>
@@ -1256,10 +1536,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1269,7 +1549,7 @@
     <col min="3" max="18" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1277,29 +1557,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1314,16 +1602,13 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="K2" s="6"/>
+      <c r="L2" s="7">
+        <f>SUM(C2:K2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1338,16 +1623,13 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="K3" s="6"/>
+      <c r="L3" s="7">
+        <f t="shared" ref="L3:L16" si="0">SUM(C3:K3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1357,30 +1639,31 @@
       <c r="C4" s="2">
         <v>10</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="K4" s="6"/>
+      <c r="L4" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1388,23 +1671,22 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="K5" s="6"/>
+      <c r="L5" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1412,24 +1694,21 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="K6" s="6"/>
+      <c r="L6" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
+      <c r="C7" s="2">
+        <v>5</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
@@ -1440,16 +1719,13 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="K7" s="6"/>
+      <c r="L7" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1464,16 +1740,13 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="K8" s="6"/>
+      <c r="L8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1488,24 +1761,21 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="K9" s="6"/>
+      <c r="L9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
+      <c r="C10" s="2">
+        <v>5</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1514,16 +1784,13 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="K10" s="6"/>
+      <c r="L10" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1542,16 +1809,13 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="K11" s="6"/>
+      <c r="L11" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1568,16 +1832,13 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="K12" s="6"/>
+      <c r="L12" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1593,45 +1854,45 @@
       <c r="E13" s="2">
         <v>10</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="K13" s="6"/>
+      <c r="L13" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="K14" s="6"/>
+      <c r="L14" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1652,14 +1913,35 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="4">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="S16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
@@ -1669,10 +1951,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1725,10 +2007,18 @@
       <c r="N1" s="5">
         <v>44974</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
+      <c r="O1" s="3">
+        <v>44986</v>
+      </c>
+      <c r="P1" s="3">
+        <v>44988</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>44994</v>
+      </c>
+      <c r="R1" s="3">
+        <v>44995</v>
+      </c>
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19">
@@ -1736,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -1774,10 +2064,18 @@
       <c r="N2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="O2" s="2">
+        <v>-10</v>
+      </c>
+      <c r="P2" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>15</v>
+      </c>
+      <c r="R2" s="2">
+        <v>-15</v>
+      </c>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19">
@@ -1785,7 +2083,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -1823,10 +2121,18 @@
       <c r="N3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>15</v>
+      </c>
+      <c r="R3" s="2">
+        <v>10</v>
+      </c>
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19">
@@ -1834,7 +2140,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -1872,10 +2178,18 @@
       <c r="N4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+      <c r="P4" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>15</v>
+      </c>
+      <c r="R4" s="2">
+        <v>10</v>
+      </c>
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19">
@@ -1883,7 +2197,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
@@ -1921,10 +2235,18 @@
       <c r="N5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="O5" s="2">
+        <v>15</v>
+      </c>
+      <c r="P5" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>-10</v>
+      </c>
+      <c r="R5" s="2">
+        <v>10</v>
+      </c>
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19">
@@ -1932,7 +2254,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -1970,91 +2292,107 @@
       <c r="N6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="2">
+        <v>-10</v>
+      </c>
+      <c r="P6" s="2">
+        <v>-15</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>-10</v>
+      </c>
+      <c r="R6" s="2">
+        <v>-15</v>
+      </c>
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="2">
+        <v>-10</v>
+      </c>
+      <c r="P7" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>-10</v>
+      </c>
+      <c r="R7" s="2">
+        <v>10</v>
+      </c>
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>4</v>
@@ -2068,33 +2406,41 @@
       <c r="N8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="2">
+        <v>-10</v>
+      </c>
+      <c r="P8" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>-10</v>
+      </c>
+      <c r="R8" s="2">
+        <v>10</v>
+      </c>
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>4</v>
@@ -2112,23 +2458,31 @@
         <v>4</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="2">
+        <v>15</v>
+      </c>
+      <c r="P9" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>15</v>
+      </c>
+      <c r="R9" s="2">
+        <v>10</v>
+      </c>
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
@@ -2143,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>4</v>
@@ -2161,23 +2515,31 @@
         <v>4</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="2">
+        <v>-10</v>
+      </c>
+      <c r="P10" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>-10</v>
+      </c>
+      <c r="R10" s="2">
+        <v>-15</v>
+      </c>
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
@@ -2195,7 +2557,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>4</v>
@@ -2210,32 +2572,40 @@
         <v>4</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="O11" s="2">
+        <v>15</v>
+      </c>
+      <c r="P11" s="2">
+        <v>-15</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>15</v>
+      </c>
+      <c r="R11" s="2">
+        <v>10</v>
+      </c>
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>3</v>
@@ -2253,29 +2623,37 @@
         <v>3</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>15</v>
+      </c>
+      <c r="R12" s="2">
+        <v>10</v>
+      </c>
       <c r="S12" s="2"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -2284,16 +2662,16 @@
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>4</v>
@@ -2305,35 +2683,43 @@
         <v>3</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="O13" s="2">
+        <v>15</v>
+      </c>
+      <c r="P13" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>15</v>
+      </c>
+      <c r="R13" s="2">
+        <v>10</v>
+      </c>
       <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>3</v>
@@ -2354,7 +2740,7 @@
         <v>3</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>4</v>
@@ -2362,73 +2748,32 @@
       <c r="N14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="O14" s="2">
+        <v>15</v>
+      </c>
+      <c r="P14" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>15</v>
+      </c>
+      <c r="R14" s="2">
+        <v>10</v>
+      </c>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:S15">
+  <conditionalFormatting sqref="C2:S14">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:S15">
+  <conditionalFormatting sqref="C2:S14">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:S15">
+  <conditionalFormatting sqref="C2:S14">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"#"</formula>
     </cfRule>
@@ -2440,10 +2785,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2453,43 +2798,50 @@
     <col min="3" max="19" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:12" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2499,49 +2851,45 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="K2" s="6"/>
+      <c r="L2" s="7">
+        <f>SUM(C2:K2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <v>10</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="2">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="K3" s="6"/>
+      <c r="L3" s="7">
+        <f t="shared" ref="L3:L15" si="0">SUM(C3:K3)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
         <v>10</v>
@@ -2555,24 +2903,22 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="K4" s="6"/>
+      <c r="L4" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2580,22 +2926,18 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="K5" s="6"/>
+      <c r="L5" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2605,22 +2947,18 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="K6" s="6"/>
+      <c r="L6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2632,22 +2970,18 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="K7" s="6"/>
+      <c r="L7" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2657,25 +2991,21 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="K8" s="6"/>
+      <c r="L8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2684,24 +3014,22 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="K9" s="6"/>
+      <c r="L9" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2709,25 +3037,21 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="K10" s="6"/>
+      <c r="L10" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2736,22 +3060,18 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="K11" s="6"/>
+      <c r="L11" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2">
         <v>10</v>
@@ -2763,51 +3083,45 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="K12" s="6"/>
+      <c r="L12" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
       </c>
       <c r="D13" s="2">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2">
         <v>5</v>
       </c>
-      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="K13" s="6"/>
+      <c r="L13" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2">
         <v>10</v>
@@ -2819,24 +3133,22 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="K14" s="6"/>
+      <c r="L14" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2844,15 +3156,26 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>

--- a/Успеваемость_СО-ИП-21-2.xlsx
+++ b/Успеваемость_СО-ИП-21-2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26306"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26307"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="330" documentId="11_90346DBAC36A1AD58CB88E22F32196BC358CAB34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BC35C9D-46AE-487F-A473-31804A46F757}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="11_90346DBAC36A1AD58CB88E22F32196BC358CAB34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76849DC6-0FBA-4DA2-AFFD-4EB453746BCD}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -1539,7 +1539,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1615,7 +1615,9 @@
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1626,7 +1628,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="7">
         <f t="shared" ref="L3:L16" si="0">SUM(C3:K3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:19">

--- a/Успеваемость_СО-ИП-21-2.xlsx
+++ b/Успеваемость_СО-ИП-21-2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="331" documentId="11_90346DBAC36A1AD58CB88E22F32196BC358CAB34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76849DC6-0FBA-4DA2-AFFD-4EB453746BCD}"/>
+  <xr:revisionPtr revIDLastSave="366" documentId="11_90346DBAC36A1AD58CB88E22F32196BC358CAB34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2FFBC5B-0CAB-4CFB-9110-A836EF0427C0}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -240,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,6 +259,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -588,20 +594,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <pane xSplit="2" ySplit="16" topLeftCell="M17" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="S17" sqref="S17"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1"/>
     <col min="2" max="2" width="37.28515625" bestFit="1"/>
-    <col min="3" max="18" width="9.140625" style="1"/>
+    <col min="3" max="23" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15">
+    <row r="1" spans="1:21" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -653,11 +662,16 @@
       <c r="Q1" s="3">
         <v>44994</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="9">
         <v>44995</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="S1" s="8">
+        <v>45000</v>
+      </c>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -709,11 +723,16 @@
       <c r="Q2" s="2">
         <v>-10</v>
       </c>
-      <c r="R2" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="R2" s="6">
+        <v>10</v>
+      </c>
+      <c r="S2" s="7">
+        <v>-10</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -765,11 +784,16 @@
       <c r="Q3" s="2">
         <v>0</v>
       </c>
-      <c r="R3" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="R3" s="6">
+        <v>10</v>
+      </c>
+      <c r="S3" s="7">
+        <v>15</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -821,11 +845,16 @@
       <c r="Q4" s="2">
         <v>15</v>
       </c>
-      <c r="R4" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="R4" s="6">
+        <v>10</v>
+      </c>
+      <c r="S4" s="7">
+        <v>15</v>
+      </c>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -877,11 +906,16 @@
       <c r="Q5" s="2">
         <v>-10</v>
       </c>
-      <c r="R5" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="R5" s="6">
+        <v>10</v>
+      </c>
+      <c r="S5" s="7">
+        <v>15</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -933,11 +967,16 @@
       <c r="Q6" s="2">
         <v>15</v>
       </c>
-      <c r="R6" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="R6" s="6">
+        <v>10</v>
+      </c>
+      <c r="S6" s="7">
+        <v>15</v>
+      </c>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -989,11 +1028,16 @@
       <c r="Q7" s="2">
         <v>-10</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="6">
         <v>-15</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="S7" s="7">
+        <v>15</v>
+      </c>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1045,11 +1089,16 @@
       <c r="Q8" s="2">
         <v>-10</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="6">
         <v>-15</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="S8" s="7">
+        <v>-10</v>
+      </c>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1101,11 +1150,16 @@
       <c r="Q9" s="2">
         <v>-10</v>
       </c>
-      <c r="R9" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="R9" s="6">
+        <v>10</v>
+      </c>
+      <c r="S9" s="7">
+        <v>-10</v>
+      </c>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1157,11 +1211,16 @@
       <c r="Q10" s="2">
         <v>15</v>
       </c>
-      <c r="R10" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="R10" s="6">
+        <v>10</v>
+      </c>
+      <c r="S10" s="7">
+        <v>-10</v>
+      </c>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1213,11 +1272,16 @@
       <c r="Q11" s="2">
         <v>-10</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="6">
         <v>-15</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="S11" s="7">
+        <v>-10</v>
+      </c>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1269,11 +1333,16 @@
       <c r="Q12" s="2">
         <v>15</v>
       </c>
-      <c r="R12" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="R12" s="6">
+        <v>10</v>
+      </c>
+      <c r="S12" s="7">
+        <v>15</v>
+      </c>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1325,11 +1394,16 @@
       <c r="Q13" s="2">
         <v>15</v>
       </c>
-      <c r="R13" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="R13" s="6">
+        <v>10</v>
+      </c>
+      <c r="S13" s="7">
+        <v>-10</v>
+      </c>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1381,11 +1455,16 @@
       <c r="Q14" s="2">
         <v>15</v>
       </c>
-      <c r="R14" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="R14" s="6">
+        <v>10</v>
+      </c>
+      <c r="S14" s="7">
+        <v>15</v>
+      </c>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1437,11 +1516,16 @@
       <c r="Q15" s="2">
         <v>15</v>
       </c>
-      <c r="R15" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="R15" s="6">
+        <v>10</v>
+      </c>
+      <c r="S15" s="7">
+        <v>15</v>
+      </c>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="4">
         <v>6</v>
       </c>
@@ -1493,10 +1577,14 @@
       <c r="Q16" s="2">
         <v>15</v>
       </c>
-      <c r="R16" s="2">
-        <v>10</v>
-      </c>
-      <c r="S16" s="2"/>
+      <c r="R16" s="6">
+        <v>10</v>
+      </c>
+      <c r="S16" s="7">
+        <v>15</v>
+      </c>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:R15">
@@ -1538,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1955,8 +2043,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="14" topLeftCell="M15" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="U8" sqref="U8"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2021,7 +2112,9 @@
       <c r="R1" s="3">
         <v>44995</v>
       </c>
-      <c r="S1" s="2"/>
+      <c r="S1" s="3">
+        <v>45000</v>
+      </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="4">
@@ -2078,7 +2171,9 @@
       <c r="R2" s="2">
         <v>-15</v>
       </c>
-      <c r="S2" s="2"/>
+      <c r="S2" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="4">
@@ -2135,7 +2230,9 @@
       <c r="R3" s="2">
         <v>10</v>
       </c>
-      <c r="S3" s="2"/>
+      <c r="S3" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="4">
@@ -2192,7 +2289,9 @@
       <c r="R4" s="2">
         <v>10</v>
       </c>
-      <c r="S4" s="2"/>
+      <c r="S4" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="4">
@@ -2249,7 +2348,9 @@
       <c r="R5" s="2">
         <v>10</v>
       </c>
-      <c r="S5" s="2"/>
+      <c r="S5" s="2">
+        <v>-10</v>
+      </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="4">
@@ -2306,7 +2407,9 @@
       <c r="R6" s="2">
         <v>-15</v>
       </c>
-      <c r="S6" s="2"/>
+      <c r="S6" s="2">
+        <v>-10</v>
+      </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="4">
@@ -2363,7 +2466,9 @@
       <c r="R7" s="2">
         <v>10</v>
       </c>
-      <c r="S7" s="2"/>
+      <c r="S7" s="2">
+        <v>-10</v>
+      </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="4">
@@ -2420,7 +2525,9 @@
       <c r="R8" s="2">
         <v>10</v>
       </c>
-      <c r="S8" s="2"/>
+      <c r="S8" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="4">
@@ -2477,7 +2584,9 @@
       <c r="R9" s="2">
         <v>10</v>
       </c>
-      <c r="S9" s="2"/>
+      <c r="S9" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="4">
@@ -2534,7 +2643,9 @@
       <c r="R10" s="2">
         <v>-15</v>
       </c>
-      <c r="S10" s="2"/>
+      <c r="S10" s="2">
+        <v>-10</v>
+      </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="4">
@@ -2591,7 +2702,9 @@
       <c r="R11" s="2">
         <v>10</v>
       </c>
-      <c r="S11" s="2"/>
+      <c r="S11" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="4">
@@ -2648,7 +2761,9 @@
       <c r="R12" s="2">
         <v>10</v>
       </c>
-      <c r="S12" s="2"/>
+      <c r="S12" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="4">
@@ -2705,7 +2820,9 @@
       <c r="R13" s="2">
         <v>10</v>
       </c>
-      <c r="S13" s="2"/>
+      <c r="S13" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="4">
@@ -2762,7 +2879,9 @@
       <c r="R14" s="2">
         <v>10</v>
       </c>
-      <c r="S14" s="2"/>
+      <c r="S14" s="2">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:S14">

--- a/Успеваемость_СО-ИП-21-2.xlsx
+++ b/Успеваемость_СО-ИП-21-2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="366" documentId="11_90346DBAC36A1AD58CB88E22F32196BC358CAB34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2FFBC5B-0CAB-4CFB-9110-A836EF0427C0}"/>
+  <xr:revisionPtr revIDLastSave="409" documentId="11_90346DBAC36A1AD58CB88E22F32196BC358CAB34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{651401CC-FB67-42FD-ABDE-DEF36DF5EA1D}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="39">
   <si>
     <t>№</t>
   </si>
@@ -148,15 +148,6 @@
   </si>
   <si>
     <t>Исмаилов Руслан</t>
-  </si>
-  <si>
-    <t>15-25</t>
-  </si>
-  <si>
-    <t>25-35</t>
-  </si>
-  <si>
-    <t>35-40</t>
   </si>
 </sst>
 </file>
@@ -240,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -267,6 +258,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -597,8 +589,8 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="16" topLeftCell="M17" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="S17" sqref="S17"/>
+      <pane xSplit="2" ySplit="16" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="Q27" sqref="Q27"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -668,7 +660,9 @@
       <c r="S1" s="8">
         <v>45000</v>
       </c>
-      <c r="T1" s="7"/>
+      <c r="T1" s="8">
+        <v>45002</v>
+      </c>
       <c r="U1" s="7"/>
     </row>
     <row r="2" spans="1:21">
@@ -729,7 +723,9 @@
       <c r="S2" s="7">
         <v>-10</v>
       </c>
-      <c r="T2" s="7"/>
+      <c r="T2" s="7">
+        <v>10</v>
+      </c>
       <c r="U2" s="7"/>
     </row>
     <row r="3" spans="1:21">
@@ -790,7 +786,9 @@
       <c r="S3" s="7">
         <v>15</v>
       </c>
-      <c r="T3" s="7"/>
+      <c r="T3" s="7">
+        <v>10</v>
+      </c>
       <c r="U3" s="7"/>
     </row>
     <row r="4" spans="1:21">
@@ -851,7 +849,9 @@
       <c r="S4" s="7">
         <v>15</v>
       </c>
-      <c r="T4" s="7"/>
+      <c r="T4" s="7">
+        <v>10</v>
+      </c>
       <c r="U4" s="7"/>
     </row>
     <row r="5" spans="1:21">
@@ -912,7 +912,9 @@
       <c r="S5" s="7">
         <v>15</v>
       </c>
-      <c r="T5" s="7"/>
+      <c r="T5" s="7">
+        <v>-15</v>
+      </c>
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21">
@@ -973,7 +975,9 @@
       <c r="S6" s="7">
         <v>15</v>
       </c>
-      <c r="T6" s="7"/>
+      <c r="T6" s="7">
+        <v>10</v>
+      </c>
       <c r="U6" s="7"/>
     </row>
     <row r="7" spans="1:21">
@@ -1034,7 +1038,9 @@
       <c r="S7" s="7">
         <v>15</v>
       </c>
-      <c r="T7" s="7"/>
+      <c r="T7" s="7">
+        <v>10</v>
+      </c>
       <c r="U7" s="7"/>
     </row>
     <row r="8" spans="1:21">
@@ -1095,7 +1101,9 @@
       <c r="S8" s="7">
         <v>-10</v>
       </c>
-      <c r="T8" s="7"/>
+      <c r="T8" s="7">
+        <v>10</v>
+      </c>
       <c r="U8" s="7"/>
     </row>
     <row r="9" spans="1:21">
@@ -1156,7 +1164,9 @@
       <c r="S9" s="7">
         <v>-10</v>
       </c>
-      <c r="T9" s="7"/>
+      <c r="T9" s="7">
+        <v>10</v>
+      </c>
       <c r="U9" s="7"/>
     </row>
     <row r="10" spans="1:21">
@@ -1217,7 +1227,9 @@
       <c r="S10" s="7">
         <v>-10</v>
       </c>
-      <c r="T10" s="7"/>
+      <c r="T10" s="7">
+        <v>10</v>
+      </c>
       <c r="U10" s="7"/>
     </row>
     <row r="11" spans="1:21">
@@ -1278,7 +1290,9 @@
       <c r="S11" s="7">
         <v>-10</v>
       </c>
-      <c r="T11" s="7"/>
+      <c r="T11" s="7">
+        <v>-15</v>
+      </c>
       <c r="U11" s="7"/>
     </row>
     <row r="12" spans="1:21">
@@ -1339,7 +1353,9 @@
       <c r="S12" s="7">
         <v>15</v>
       </c>
-      <c r="T12" s="7"/>
+      <c r="T12" s="7">
+        <v>10</v>
+      </c>
       <c r="U12" s="7"/>
     </row>
     <row r="13" spans="1:21">
@@ -1400,7 +1416,9 @@
       <c r="S13" s="7">
         <v>-10</v>
       </c>
-      <c r="T13" s="7"/>
+      <c r="T13" s="7">
+        <v>10</v>
+      </c>
       <c r="U13" s="7"/>
     </row>
     <row r="14" spans="1:21">
@@ -1461,7 +1479,9 @@
       <c r="S14" s="7">
         <v>15</v>
       </c>
-      <c r="T14" s="7"/>
+      <c r="T14" s="7">
+        <v>10</v>
+      </c>
       <c r="U14" s="7"/>
     </row>
     <row r="15" spans="1:21">
@@ -1522,7 +1542,9 @@
       <c r="S15" s="7">
         <v>15</v>
       </c>
-      <c r="T15" s="7"/>
+      <c r="T15" s="7">
+        <v>10</v>
+      </c>
       <c r="U15" s="7"/>
     </row>
     <row r="16" spans="1:21">
@@ -1583,7 +1605,9 @@
       <c r="S16" s="7">
         <v>15</v>
       </c>
-      <c r="T16" s="7"/>
+      <c r="T16" s="7">
+        <v>10</v>
+      </c>
       <c r="U16" s="7"/>
     </row>
   </sheetData>
@@ -1627,7 +1651,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1775,7 +1799,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1787,7 +1811,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1798,7 +1822,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
@@ -1812,7 +1836,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1915,7 +1939,9 @@
       <c r="C12" s="2">
         <v>10</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1925,7 +1951,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1996,7 +2022,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2006,7 +2032,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="7">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2041,11 +2067,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="14" topLeftCell="M15" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="U8" sqref="U8"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -2057,7 +2083,7 @@
     <col min="3" max="19" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15">
+    <row r="1" spans="1:20" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2115,8 +2141,11 @@
       <c r="S1" s="3">
         <v>45000</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="10">
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2174,8 +2203,11 @@
       <c r="S2" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2233,8 +2265,11 @@
       <c r="S3" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2292,8 +2327,11 @@
       <c r="S4" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2351,8 +2389,11 @@
       <c r="S5" s="2">
         <v>-10</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2410,8 +2451,11 @@
       <c r="S6" s="2">
         <v>-10</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="4">
         <v>7</v>
       </c>
@@ -2469,8 +2513,11 @@
       <c r="S7" s="2">
         <v>-10</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -2528,8 +2575,11 @@
       <c r="S8" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="4">
         <v>9</v>
       </c>
@@ -2587,8 +2637,11 @@
       <c r="S9" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="4">
         <v>10</v>
       </c>
@@ -2646,8 +2699,11 @@
       <c r="S10" s="2">
         <v>-10</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="4">
         <v>11</v>
       </c>
@@ -2705,8 +2761,11 @@
       <c r="S11" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="4">
         <v>12</v>
       </c>
@@ -2764,8 +2823,11 @@
       <c r="S12" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="4">
         <v>13</v>
       </c>
@@ -2823,8 +2885,11 @@
       <c r="S13" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="4">
         <v>14</v>
       </c>
@@ -2881,6 +2946,9 @@
       </c>
       <c r="S14" s="2">
         <v>15</v>
+      </c>
+      <c r="T14">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2906,10 +2974,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3001,7 +3069,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="6"/>
       <c r="L3" s="7">
-        <f t="shared" ref="L3:L15" si="0">SUM(C3:K3)</f>
+        <f t="shared" ref="L3:L6" si="0">SUM(C3:K3)</f>
         <v>25</v>
       </c>
     </row>
@@ -3018,7 +3086,9 @@
       <c r="D4" s="2">
         <v>10</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -3027,7 +3097,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3079,13 +3149,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>5</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -3093,8 +3161,8 @@
       <c r="J7" s="2"/>
       <c r="K7" s="6"/>
       <c r="L7" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(C7:K7)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3102,10 +3170,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -3114,8 +3186,8 @@
       <c r="J8" s="2"/>
       <c r="K8" s="6"/>
       <c r="L8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(C8:K8)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3123,10 +3195,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3137,8 +3209,8 @@
       <c r="J9" s="2"/>
       <c r="K9" s="6"/>
       <c r="L9" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(C9:K9)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3146,10 +3218,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3160,8 +3232,8 @@
       <c r="J10" s="2"/>
       <c r="K10" s="6"/>
       <c r="L10" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>SUM(C10:K10)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3169,7 +3241,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
@@ -3183,7 +3255,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="6"/>
       <c r="L11" s="7">
-        <f t="shared" si="0"/>
+        <f>SUM(C11:K11)</f>
         <v>10</v>
       </c>
     </row>
@@ -3192,13 +3264,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2">
         <v>10</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -3206,8 +3282,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="6"/>
       <c r="L12" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>SUM(C12:K12)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3215,17 +3291,15 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
       </c>
       <c r="D13" s="2">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -3233,8 +3307,8 @@
       <c r="J13" s="2"/>
       <c r="K13" s="6"/>
       <c r="L13" s="7">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>SUM(C13:K13)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3242,10 +3316,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -3256,46 +3330,8 @@
       <c r="J14" s="2"/>
       <c r="K14" s="6"/>
       <c r="L14" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="2">
+        <f>SUM(C14:K14)</f>
         <v>5</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7">
-      <c r="G19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7">
-      <c r="G20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7">
-      <c r="G21" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Успеваемость_СО-ИП-21-2.xlsx
+++ b/Успеваемость_СО-ИП-21-2.xlsx
@@ -1,37 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="409" documentId="11_90346DBAC36A1AD58CB88E22F32196BC358CAB34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{651401CC-FB67-42FD-ABDE-DEF36DF5EA1D}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
-    <sheet name="Успеваемость (подгруппа 1)" sheetId="2" r:id="rId2"/>
-    <sheet name="Посещаемость (подгруппа 2)" sheetId="3" r:id="rId3"/>
-    <sheet name="Успеваемость (подгруппа 2)" sheetId="4" r:id="rId4"/>
+    <sheet name="Посещаемость (подгруппа 1)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Успеваемость (подгруппа 1)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Посещаемость (подгруппа 2)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Успеваемость (подгруппа 2)" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>№</t>
   </si>
@@ -39,7 +24,7 @@
     <t>Студент</t>
   </si>
   <si>
-    <t>Борисов Василий Николаевич</t>
+    <t xml:space="preserve">Борисов Василий Николаевич</t>
   </si>
   <si>
     <t>+</t>
@@ -48,49 +33,49 @@
     <t>-</t>
   </si>
   <si>
-    <t>Борода Егор Игоревич</t>
+    <t xml:space="preserve">Борода Егор Игоревич</t>
   </si>
   <si>
-    <t>Брусков Артём Викторович</t>
+    <t xml:space="preserve">Брусков Артём Викторович</t>
   </si>
   <si>
-    <t>Гончаров Никита Дмитриевич</t>
+    <t xml:space="preserve">Гончаров Никита Дмитриевич</t>
   </si>
   <si>
-    <t>Григорьев Игорь Константинович</t>
+    <t xml:space="preserve">Григорьев Игорь Константинович</t>
   </si>
   <si>
-    <t>Ерофеева Екатерина Александровна</t>
+    <t xml:space="preserve">Ерофеева Екатерина Александровна</t>
   </si>
   <si>
-    <t>Козюков Никита Владимирович</t>
+    <t xml:space="preserve">Козюков Никита Владимирович</t>
   </si>
   <si>
-    <t>Колесникова Наталья Валентиновна</t>
+    <t xml:space="preserve">Колесникова Наталья Валентиновна</t>
   </si>
   <si>
-    <t>Короченцева Александра Владимировна</t>
+    <t xml:space="preserve">Короченцева Александра Владимировна</t>
   </si>
   <si>
-    <t>Мосенков Данил Вадимович</t>
+    <t xml:space="preserve">Мосенков Данил Вадимович</t>
   </si>
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>Пилюгайцев Дмитрий Александрович</t>
+    <t xml:space="preserve">Пилюгайцев Дмитрий Александрович</t>
   </si>
   <si>
-    <t>Погожев Герман Сергеевич</t>
+    <t xml:space="preserve">Погожев Герман Сергеевич</t>
   </si>
   <si>
-    <t>Радченко Данил Сергеевич</t>
+    <t xml:space="preserve">Радченко Данил Сергеевич</t>
   </si>
   <si>
-    <t>Малкова Алиса</t>
+    <t xml:space="preserve">Малкова Алиса</t>
   </si>
   <si>
-    <t>Кодинцев Никита Владимирович</t>
+    <t xml:space="preserve">Кодинцев Никита Владимирович</t>
   </si>
   <si>
     <t>Base</t>
@@ -111,60 +96,60 @@
     <t>Итог</t>
   </si>
   <si>
-    <t>Баграновский Дмитрий Сергеевич</t>
+    <t xml:space="preserve">Баграновский Дмитрий Сергеевич</t>
   </si>
   <si>
-    <t>Батршин Тимур Ильдарович</t>
+    <t xml:space="preserve">Батршин Тимур Ильдарович</t>
   </si>
   <si>
-    <t>Борисов Глеб Юрьевич</t>
+    <t xml:space="preserve">Борисов Глеб Юрьевич</t>
   </si>
   <si>
-    <t>Воронов Михаил Алексеевич</t>
+    <t xml:space="preserve">Воронов Михаил Алексеевич</t>
   </si>
   <si>
-    <t>Григорьев Никита Станиславович</t>
+    <t xml:space="preserve">Григорьев Никита Станиславович</t>
   </si>
   <si>
-    <t>Косицын Валерий Евгеньевич</t>
+    <t xml:space="preserve">Косицын Валерий Евгеньевич</t>
   </si>
   <si>
-    <t>Паленый Степан Алексеевич</t>
+    <t xml:space="preserve">Паленый Степан Алексеевич</t>
   </si>
   <si>
-    <t>Панченко Алексей Дмитриевич</t>
+    <t xml:space="preserve">Панченко Алексей Дмитриевич</t>
   </si>
   <si>
-    <t>Полторак Василий Сергеевич</t>
+    <t xml:space="preserve">Полторак Василий Сергеевич</t>
   </si>
   <si>
-    <t>Пучков Максим Васильевич</t>
+    <t xml:space="preserve">Пучков Максим Васильевич</t>
   </si>
   <si>
-    <t>Цымбал Данил Сергеевич</t>
+    <t xml:space="preserve">Цымбал Данил Сергеевич</t>
   </si>
   <si>
-    <t>Смирнов Максим</t>
+    <t xml:space="preserve">Смирнов Максим</t>
   </si>
   <si>
-    <t>Исмаилов Руслан</t>
+    <t xml:space="preserve">Исмаилов Руслан</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <color indexed="2"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -214,170 +199,355 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -580,29 +750,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="16" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="Q27" sqref="Q27"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="16" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1"/>
-    <col min="3" max="23" width="9.140625" style="1"/>
+    <col bestFit="1" min="1" max="1" width="2.85546875"/>
+    <col bestFit="1" min="2" max="2" width="37.28515625"/>
+    <col min="3" max="23" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15">
+    <row r="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -642,7 +808,7 @@
       <c r="M1" s="3">
         <v>44972</v>
       </c>
-      <c r="N1" s="5">
+      <c r="N1" s="4">
         <v>44974</v>
       </c>
       <c r="O1" s="3">
@@ -654,22 +820,27 @@
       <c r="Q1" s="3">
         <v>44994</v>
       </c>
-      <c r="R1" s="9">
+      <c r="R1" s="5">
         <v>44995</v>
       </c>
-      <c r="S1" s="8">
+      <c r="S1" s="6">
         <v>45000</v>
       </c>
-      <c r="T1" s="8">
+      <c r="T1" s="6">
         <v>45002</v>
       </c>
-      <c r="U1" s="7"/>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="4">
+      <c r="U1" s="6">
+        <v>45008</v>
+      </c>
+      <c r="V1" s="7">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -717,22 +888,27 @@
       <c r="Q2" s="2">
         <v>-10</v>
       </c>
-      <c r="R2" s="6">
-        <v>10</v>
-      </c>
-      <c r="S2" s="7">
+      <c r="R2" s="9">
+        <v>10</v>
+      </c>
+      <c r="S2" s="10">
         <v>-10</v>
       </c>
-      <c r="T2" s="7">
-        <v>10</v>
-      </c>
-      <c r="U2" s="7"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="4">
+      <c r="T2" s="10">
+        <v>10</v>
+      </c>
+      <c r="U2" s="10">
+        <v>-10</v>
+      </c>
+      <c r="V2" s="1">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -780,22 +956,27 @@
       <c r="Q3" s="2">
         <v>0</v>
       </c>
-      <c r="R3" s="6">
-        <v>10</v>
-      </c>
-      <c r="S3" s="7">
-        <v>15</v>
-      </c>
-      <c r="T3" s="7">
-        <v>10</v>
-      </c>
-      <c r="U3" s="7"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="R3" s="9">
+        <v>10</v>
+      </c>
+      <c r="S3" s="10">
+        <v>15</v>
+      </c>
+      <c r="T3" s="10">
+        <v>10</v>
+      </c>
+      <c r="U3" s="10">
+        <v>15</v>
+      </c>
+      <c r="V3" s="1">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -843,22 +1024,27 @@
       <c r="Q4" s="2">
         <v>15</v>
       </c>
-      <c r="R4" s="6">
-        <v>10</v>
-      </c>
-      <c r="S4" s="7">
-        <v>15</v>
-      </c>
-      <c r="T4" s="7">
-        <v>10</v>
-      </c>
-      <c r="U4" s="7"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="R4" s="9">
+        <v>10</v>
+      </c>
+      <c r="S4" s="10">
+        <v>15</v>
+      </c>
+      <c r="T4" s="10">
+        <v>10</v>
+      </c>
+      <c r="U4" s="10">
+        <v>15</v>
+      </c>
+      <c r="V4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -906,22 +1092,27 @@
       <c r="Q5" s="2">
         <v>-10</v>
       </c>
-      <c r="R5" s="6">
-        <v>10</v>
-      </c>
-      <c r="S5" s="7">
-        <v>15</v>
-      </c>
-      <c r="T5" s="7">
+      <c r="R5" s="9">
+        <v>10</v>
+      </c>
+      <c r="S5" s="10">
+        <v>15</v>
+      </c>
+      <c r="T5" s="10">
         <v>-15</v>
       </c>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="4">
+      <c r="U5" s="10">
+        <v>-10</v>
+      </c>
+      <c r="V5" s="1">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -969,22 +1160,27 @@
       <c r="Q6" s="2">
         <v>15</v>
       </c>
-      <c r="R6" s="6">
-        <v>10</v>
-      </c>
-      <c r="S6" s="7">
-        <v>15</v>
-      </c>
-      <c r="T6" s="7">
-        <v>10</v>
-      </c>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="4">
+      <c r="R6" s="9">
+        <v>10</v>
+      </c>
+      <c r="S6" s="10">
+        <v>15</v>
+      </c>
+      <c r="T6" s="10">
+        <v>10</v>
+      </c>
+      <c r="U6" s="10">
+        <v>-10</v>
+      </c>
+      <c r="V6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1032,22 +1228,27 @@
       <c r="Q7" s="2">
         <v>-10</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="9">
         <v>-15</v>
       </c>
-      <c r="S7" s="7">
-        <v>15</v>
-      </c>
-      <c r="T7" s="7">
-        <v>10</v>
-      </c>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="4">
+      <c r="S7" s="10">
+        <v>15</v>
+      </c>
+      <c r="T7" s="10">
+        <v>10</v>
+      </c>
+      <c r="U7" s="10">
+        <v>15</v>
+      </c>
+      <c r="V7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1095,22 +1296,27 @@
       <c r="Q8" s="2">
         <v>-10</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="9">
         <v>-15</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="10">
         <v>-10</v>
       </c>
-      <c r="T8" s="7">
-        <v>10</v>
-      </c>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="4">
+      <c r="T8" s="10">
+        <v>10</v>
+      </c>
+      <c r="U8" s="10">
+        <v>-10</v>
+      </c>
+      <c r="V8" s="1">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1158,22 +1364,27 @@
       <c r="Q9" s="2">
         <v>-10</v>
       </c>
-      <c r="R9" s="6">
-        <v>10</v>
-      </c>
-      <c r="S9" s="7">
+      <c r="R9" s="9">
+        <v>10</v>
+      </c>
+      <c r="S9" s="10">
         <v>-10</v>
       </c>
-      <c r="T9" s="7">
-        <v>10</v>
-      </c>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="4">
+      <c r="T9" s="10">
+        <v>10</v>
+      </c>
+      <c r="U9" s="10">
+        <v>-10</v>
+      </c>
+      <c r="V9" s="1">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1221,22 +1432,27 @@
       <c r="Q10" s="2">
         <v>15</v>
       </c>
-      <c r="R10" s="6">
-        <v>10</v>
-      </c>
-      <c r="S10" s="7">
+      <c r="R10" s="9">
+        <v>10</v>
+      </c>
+      <c r="S10" s="10">
         <v>-10</v>
       </c>
-      <c r="T10" s="7">
-        <v>10</v>
-      </c>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="T10" s="10">
+        <v>10</v>
+      </c>
+      <c r="U10" s="10">
+        <v>15</v>
+      </c>
+      <c r="V10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1282,87 +1498,97 @@
         <v>10</v>
       </c>
       <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0</v>
+      </c>
+      <c r="S11" s="10">
+        <v>0</v>
+      </c>
+      <c r="T11" s="10">
+        <v>0</v>
+      </c>
+      <c r="U11" s="10">
+        <v>15</v>
+      </c>
+      <c r="V11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="2">
+        <v>15</v>
+      </c>
+      <c r="P12" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>15</v>
+      </c>
+      <c r="R12" s="9">
+        <v>10</v>
+      </c>
+      <c r="S12" s="10">
+        <v>15</v>
+      </c>
+      <c r="T12" s="10">
+        <v>10</v>
+      </c>
+      <c r="U12" s="10">
         <v>-10</v>
       </c>
-      <c r="R11" s="6">
-        <v>-15</v>
-      </c>
-      <c r="S11" s="7">
-        <v>-10</v>
-      </c>
-      <c r="T11" s="7">
-        <v>-15</v>
-      </c>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="2">
-        <v>15</v>
-      </c>
-      <c r="P12" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>15</v>
-      </c>
-      <c r="R12" s="6">
-        <v>10</v>
-      </c>
-      <c r="S12" s="7">
-        <v>15</v>
-      </c>
-      <c r="T12" s="7">
-        <v>10</v>
-      </c>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="4">
+      <c r="V12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1410,22 +1636,27 @@
       <c r="Q13" s="2">
         <v>15</v>
       </c>
-      <c r="R13" s="6">
-        <v>10</v>
-      </c>
-      <c r="S13" s="7">
+      <c r="R13" s="9">
+        <v>10</v>
+      </c>
+      <c r="S13" s="10">
         <v>-10</v>
       </c>
-      <c r="T13" s="7">
-        <v>10</v>
-      </c>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="4">
+      <c r="T13" s="10">
+        <v>10</v>
+      </c>
+      <c r="U13" s="10">
+        <v>-10</v>
+      </c>
+      <c r="V13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1473,22 +1704,27 @@
       <c r="Q14" s="2">
         <v>15</v>
       </c>
-      <c r="R14" s="6">
-        <v>10</v>
-      </c>
-      <c r="S14" s="7">
-        <v>15</v>
-      </c>
-      <c r="T14" s="7">
-        <v>10</v>
-      </c>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="4">
+      <c r="R14" s="9">
+        <v>10</v>
+      </c>
+      <c r="S14" s="10">
+        <v>15</v>
+      </c>
+      <c r="T14" s="10">
+        <v>10</v>
+      </c>
+      <c r="U14" s="10">
+        <v>-10</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1536,22 +1772,27 @@
       <c r="Q15" s="2">
         <v>15</v>
       </c>
-      <c r="R15" s="6">
-        <v>10</v>
-      </c>
-      <c r="S15" s="7">
-        <v>15</v>
-      </c>
-      <c r="T15" s="7">
-        <v>10</v>
-      </c>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="4">
+      <c r="R15" s="9">
+        <v>10</v>
+      </c>
+      <c r="S15" s="10">
+        <v>15</v>
+      </c>
+      <c r="T15" s="10">
+        <v>10</v>
+      </c>
+      <c r="U15" s="10">
+        <v>15</v>
+      </c>
+      <c r="V15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8">
         <v>6</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1599,69 +1840,153 @@
       <c r="Q16" s="2">
         <v>15</v>
       </c>
-      <c r="R16" s="6">
-        <v>10</v>
-      </c>
-      <c r="S16" s="7">
-        <v>15</v>
-      </c>
-      <c r="T16" s="7">
-        <v>10</v>
-      </c>
-      <c r="U16" s="7"/>
+      <c r="R16" s="9">
+        <v>10</v>
+      </c>
+      <c r="S16" s="10">
+        <v>15</v>
+      </c>
+      <c r="T16" s="10">
+        <v>10</v>
+      </c>
+      <c r="U16" s="10">
+        <v>15</v>
+      </c>
+      <c r="V16" s="1">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:R15">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:R15">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>"+"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:R15">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
-      <formula>"#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:S16">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:S16">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"+"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:S16">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{002D00C4-0032-4C4B-9254-00CD00AF00D4}">
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:R15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{005B00A3-00C3-4CE0-897D-009300DF00C8}">
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:R15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{00960055-0054-4D41-9BC9-000F005A005B}">
+            <xm:f>"#"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:R15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00A4006D-008A-410C-A983-005200980037}">
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C16:S16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{009E0062-00BC-40A5-8C09-001200890090}">
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C16:S16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0071000F-0078-47B1-B64F-0028000F0098}">
+            <xm:f>"#"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C16:S16</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="37.28515625" bestFit="1"/>
-    <col min="3" max="18" width="9.140625" style="1"/>
+    <col bestFit="1" min="1" max="1" width="2.85546875"/>
+    <col bestFit="1" min="2" max="2" width="37.28515625"/>
+    <col min="3" max="18" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15">
+    <row r="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1692,18 +2017,18 @@
       <c r="J1" s="2">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="4">
+    <row r="2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
@@ -1714,17 +2039,17 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7">
-        <f>SUM(C2:K2)</f>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10">
+        <f t="shared" ref="L2:L16" si="0">SUM(C2:K2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="4">
+    <row r="3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2">
@@ -1737,17 +2062,17 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7">
-        <f t="shared" ref="L3:L16" si="0">SUM(C3:K3)</f>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2">
@@ -1762,17 +2087,17 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7">
+      <c r="K4" s="9"/>
+      <c r="L4" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2">
@@ -1785,40 +2110,42 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7">
+      <c r="K5" s="9"/>
+      <c r="L5" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="4">
+    <row r="6">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2">
         <v>10</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7">
+      <c r="K6" s="9"/>
+      <c r="L6" s="10">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2">
@@ -1833,17 +2160,17 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7">
+      <c r="K7" s="9"/>
+      <c r="L7" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="4">
+    <row r="8">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2"/>
@@ -1854,17 +2181,17 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="7">
+      <c r="K8" s="9"/>
+      <c r="L8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="4">
+    <row r="9">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2"/>
@@ -1875,65 +2202,73 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7">
+      <c r="K9" s="9"/>
+      <c r="L9" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="4">
+    <row r="10">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="7">
+      <c r="K10" s="9"/>
+      <c r="L10" s="10">
         <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>9</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="7">
+      <c r="K11" s="9"/>
+      <c r="L11" s="10">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2">
@@ -1948,17 +2283,17 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="7">
+      <c r="K12" s="9"/>
+      <c r="L12" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="4">
+    <row r="13">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2">
@@ -1973,21 +2308,23 @@
       <c r="F13" s="2">
         <v>10</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <v>10</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="7">
+      <c r="K13" s="9"/>
+      <c r="L13" s="10">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2">
@@ -2002,17 +2339,17 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="7">
+      <c r="K14" s="9"/>
+      <c r="L14" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="4">
+    <row r="15">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2">
@@ -2024,26 +2361,30 @@
       <c r="E15" s="2">
         <v>10</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="7">
+      <c r="K15" s="9"/>
+      <c r="L15" s="10">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8">
         <v>6</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
       <c r="E16" s="2">
         <v>5</v>
       </c>
@@ -2052,38 +2393,38 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="7">
+      <c r="K16" s="9"/>
+      <c r="L16" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S16" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="31.28515625" bestFit="1"/>
-    <col min="3" max="19" width="9.140625" style="1"/>
+    <col bestFit="1" min="1" max="1" width="2.85546875"/>
+    <col bestFit="1" min="2" max="2" width="31.28515625"/>
+    <col min="3" max="19" style="1" width="9.140625"/>
+    <col min="20" max="24" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15">
+    <row r="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2123,7 +2464,7 @@
       <c r="M1" s="3">
         <v>44972</v>
       </c>
-      <c r="N1" s="5">
+      <c r="N1" s="4">
         <v>44974</v>
       </c>
       <c r="O1" s="3">
@@ -2141,15 +2482,21 @@
       <c r="S1" s="3">
         <v>45000</v>
       </c>
-      <c r="T1" s="10">
+      <c r="T1" s="11">
         <v>45002</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="4">
+      <c r="U1" s="11">
+        <v>45008</v>
+      </c>
+      <c r="V1" s="7">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2203,15 +2550,21 @@
       <c r="S2" s="2">
         <v>15</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="1">
         <v>-15</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="4">
+      <c r="U2" s="1">
+        <v>15</v>
+      </c>
+      <c r="V2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2265,15 +2618,21 @@
       <c r="S3" s="2">
         <v>15</v>
       </c>
-      <c r="T3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="T3" s="1">
+        <v>10</v>
+      </c>
+      <c r="U3" s="1">
+        <v>15</v>
+      </c>
+      <c r="V3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2327,15 +2686,21 @@
       <c r="S4" s="2">
         <v>15</v>
       </c>
-      <c r="T4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="T4" s="1">
+        <v>10</v>
+      </c>
+      <c r="U4" s="1">
+        <v>15</v>
+      </c>
+      <c r="V4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2389,15 +2754,21 @@
       <c r="S5" s="2">
         <v>-10</v>
       </c>
-      <c r="T5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="4">
+      <c r="T5" s="1">
+        <v>10</v>
+      </c>
+      <c r="U5" s="1">
+        <v>15</v>
+      </c>
+      <c r="V5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2451,15 +2822,21 @@
       <c r="S6" s="2">
         <v>-10</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="1">
         <v>-15</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="4">
+      <c r="U6" s="1">
+        <v>-10</v>
+      </c>
+      <c r="V6" s="1">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2513,15 +2890,21 @@
       <c r="S7" s="2">
         <v>-10</v>
       </c>
-      <c r="T7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="4">
+      <c r="T7" s="1">
+        <v>10</v>
+      </c>
+      <c r="U7" s="1">
+        <v>15</v>
+      </c>
+      <c r="V7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2575,15 +2958,21 @@
       <c r="S8" s="2">
         <v>15</v>
       </c>
-      <c r="T8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="4">
+      <c r="T8" s="1">
+        <v>10</v>
+      </c>
+      <c r="U8" s="1">
+        <v>-10</v>
+      </c>
+      <c r="V8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2637,15 +3026,21 @@
       <c r="S9" s="2">
         <v>15</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="1">
         <v>-15</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="4">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="U9" s="1">
+        <v>15</v>
+      </c>
+      <c r="V9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2699,15 +3094,21 @@
       <c r="S10" s="2">
         <v>-10</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="1">
         <v>-15</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="4">
+      <c r="U10" s="1">
+        <v>15</v>
+      </c>
+      <c r="V10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2761,15 +3162,21 @@
       <c r="S11" s="2">
         <v>15</v>
       </c>
-      <c r="T11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="4">
+      <c r="T11" s="1">
+        <v>10</v>
+      </c>
+      <c r="U11" s="1">
+        <v>15</v>
+      </c>
+      <c r="V11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2823,15 +3230,21 @@
       <c r="S12" s="2">
         <v>15</v>
       </c>
-      <c r="T12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="4">
+      <c r="T12" s="1">
+        <v>10</v>
+      </c>
+      <c r="U12" s="1">
+        <v>-10</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2885,15 +3298,21 @@
       <c r="S13" s="2">
         <v>15</v>
       </c>
-      <c r="T13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="4">
+      <c r="T13" s="1">
+        <v>10</v>
+      </c>
+      <c r="U13" s="1">
+        <v>15</v>
+      </c>
+      <c r="V13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8">
         <v>14</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2947,47 +3366,96 @@
       <c r="S14" s="2">
         <v>15</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="1">
+        <v>10</v>
+      </c>
+      <c r="U14" s="1">
+        <v>15</v>
+      </c>
+      <c r="V14" s="1">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:S14">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:S14">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"+"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:S14">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"#"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{005E0036-00FD-439B-A55E-0013007F0008}">
+            <xm:f>"-"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:S14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{007B00F8-00BF-4212-A0CF-00740024009E}">
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:S14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0031005F-00E7-4F89-8B51-009000BB0099}">
+            <xm:f>"#"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C2:S14</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1"/>
-    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="19" width="9.140625" style="1"/>
+    <col bestFit="1" min="1" max="1" width="2.85546875"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="33"/>
+    <col min="3" max="19" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15">
+    <row r="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3018,18 +3486,18 @@
       <c r="J1" s="2">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="4">
+    <row r="2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="2"/>
@@ -3040,17 +3508,17 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7">
-        <f>SUM(C2:K2)</f>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10">
+        <f t="shared" ref="L2:L9" si="1">SUM(C2:K2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="4">
+    <row r="3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="2">
@@ -3067,17 +3535,17 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7">
-        <f t="shared" ref="L3:L6" si="0">SUM(C3:K3)</f>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="2">
@@ -3089,22 +3557,24 @@
       <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="K4" s="9"/>
+      <c r="L4" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="2">
@@ -3117,17 +3587,17 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="4">
+      <c r="K5" s="9"/>
+      <c r="L5" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="2"/>
@@ -3138,17 +3608,17 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7">
-        <f t="shared" si="0"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="4">
+    <row r="7">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="2"/>
@@ -3159,17 +3629,17 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7">
-        <f>SUM(C7:K7)</f>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="4">
+    <row r="8">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="2">
@@ -3184,86 +3654,94 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="7">
-        <f>SUM(C8:K8)</f>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="4">
+    <row r="9">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7">
-        <f>SUM(C9:K9)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="4">
+      <c r="K9" s="9"/>
+      <c r="L9" s="10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="2">
         <v>10</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="7">
-        <f>SUM(C10:K10)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="K10" s="9"/>
+      <c r="L10" s="10">
+        <f t="shared" ref="L10:L14" si="2">SUM(C10:K10)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="7">
-        <f>SUM(C11:K11)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="4">
+      <c r="K11" s="9"/>
+      <c r="L11" s="10">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="2">
@@ -3280,17 +3758,17 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="7">
-        <f>SUM(C12:K12)</f>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="4">
+    <row r="13">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="2">
@@ -3305,17 +3783,17 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="7">
-        <f>SUM(C13:K13)</f>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="4">
+    <row r="14">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="2">
@@ -3328,14 +3806,16 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="7">
-        <f>SUM(C14:K14)</f>
+      <c r="K14" s="9"/>
+      <c r="L14" s="10">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Успеваемость_СО-ИП-21-2.xlsx
+++ b/Успеваемость_СО-ИП-21-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" state="visible" r:id="rId1"/>
@@ -239,14 +239,14 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -835,12 +835,15 @@
       <c r="V1" s="7">
         <v>45009</v>
       </c>
+      <c r="W1" s="8">
+        <v>45014</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -888,27 +891,30 @@
       <c r="Q2" s="2">
         <v>-10</v>
       </c>
-      <c r="R2" s="9">
-        <v>10</v>
-      </c>
-      <c r="S2" s="10">
-        <v>-10</v>
-      </c>
-      <c r="T2" s="10">
-        <v>10</v>
-      </c>
-      <c r="U2" s="10">
+      <c r="R2" s="10">
+        <v>10</v>
+      </c>
+      <c r="S2" s="11">
+        <v>-10</v>
+      </c>
+      <c r="T2" s="11">
+        <v>10</v>
+      </c>
+      <c r="U2" s="11">
         <v>-10</v>
       </c>
       <c r="V2" s="1">
         <v>-15</v>
       </c>
+      <c r="W2" s="1">
+        <v>-10</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -956,27 +962,30 @@
       <c r="Q3" s="2">
         <v>0</v>
       </c>
-      <c r="R3" s="9">
-        <v>10</v>
-      </c>
-      <c r="S3" s="10">
-        <v>15</v>
-      </c>
-      <c r="T3" s="10">
-        <v>10</v>
-      </c>
-      <c r="U3" s="10">
+      <c r="R3" s="10">
+        <v>10</v>
+      </c>
+      <c r="S3" s="11">
+        <v>15</v>
+      </c>
+      <c r="T3" s="11">
+        <v>10</v>
+      </c>
+      <c r="U3" s="11">
         <v>15</v>
       </c>
       <c r="V3" s="1">
         <v>-15</v>
       </c>
+      <c r="W3" s="1">
+        <v>-10</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1024,27 +1033,30 @@
       <c r="Q4" s="2">
         <v>15</v>
       </c>
-      <c r="R4" s="9">
-        <v>10</v>
-      </c>
-      <c r="S4" s="10">
-        <v>15</v>
-      </c>
-      <c r="T4" s="10">
-        <v>10</v>
-      </c>
-      <c r="U4" s="10">
+      <c r="R4" s="10">
+        <v>10</v>
+      </c>
+      <c r="S4" s="11">
+        <v>15</v>
+      </c>
+      <c r="T4" s="11">
+        <v>10</v>
+      </c>
+      <c r="U4" s="11">
         <v>15</v>
       </c>
       <c r="V4" s="1">
         <v>10</v>
       </c>
+      <c r="W4" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1092,27 +1104,30 @@
       <c r="Q5" s="2">
         <v>-10</v>
       </c>
-      <c r="R5" s="9">
-        <v>10</v>
-      </c>
-      <c r="S5" s="10">
-        <v>15</v>
-      </c>
-      <c r="T5" s="10">
+      <c r="R5" s="10">
+        <v>10</v>
+      </c>
+      <c r="S5" s="11">
+        <v>15</v>
+      </c>
+      <c r="T5" s="11">
         <v>-15</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="11">
         <v>-10</v>
       </c>
       <c r="V5" s="1">
         <v>-15</v>
       </c>
+      <c r="W5" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1160,27 +1175,30 @@
       <c r="Q6" s="2">
         <v>15</v>
       </c>
-      <c r="R6" s="9">
-        <v>10</v>
-      </c>
-      <c r="S6" s="10">
-        <v>15</v>
-      </c>
-      <c r="T6" s="10">
-        <v>10</v>
-      </c>
-      <c r="U6" s="10">
+      <c r="R6" s="10">
+        <v>10</v>
+      </c>
+      <c r="S6" s="11">
+        <v>15</v>
+      </c>
+      <c r="T6" s="11">
+        <v>10</v>
+      </c>
+      <c r="U6" s="11">
         <v>-10</v>
       </c>
       <c r="V6" s="1">
         <v>10</v>
       </c>
+      <c r="W6" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1228,27 +1246,30 @@
       <c r="Q7" s="2">
         <v>-10</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="10">
         <v>-15</v>
       </c>
-      <c r="S7" s="10">
-        <v>15</v>
-      </c>
-      <c r="T7" s="10">
-        <v>10</v>
-      </c>
-      <c r="U7" s="10">
+      <c r="S7" s="11">
+        <v>15</v>
+      </c>
+      <c r="T7" s="11">
+        <v>10</v>
+      </c>
+      <c r="U7" s="11">
         <v>15</v>
       </c>
       <c r="V7" s="1">
         <v>10</v>
       </c>
+      <c r="W7" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1296,27 +1317,30 @@
       <c r="Q8" s="2">
         <v>-10</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="10">
         <v>-15</v>
       </c>
-      <c r="S8" s="10">
-        <v>-10</v>
-      </c>
-      <c r="T8" s="10">
-        <v>10</v>
-      </c>
-      <c r="U8" s="10">
+      <c r="S8" s="11">
+        <v>-10</v>
+      </c>
+      <c r="T8" s="11">
+        <v>10</v>
+      </c>
+      <c r="U8" s="11">
         <v>-10</v>
       </c>
       <c r="V8" s="1">
         <v>-15</v>
       </c>
+      <c r="W8" s="1">
+        <v>-10</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1364,27 +1388,30 @@
       <c r="Q9" s="2">
         <v>-10</v>
       </c>
-      <c r="R9" s="9">
-        <v>10</v>
-      </c>
-      <c r="S9" s="10">
-        <v>-10</v>
-      </c>
-      <c r="T9" s="10">
-        <v>10</v>
-      </c>
-      <c r="U9" s="10">
+      <c r="R9" s="10">
+        <v>10</v>
+      </c>
+      <c r="S9" s="11">
+        <v>-10</v>
+      </c>
+      <c r="T9" s="11">
+        <v>10</v>
+      </c>
+      <c r="U9" s="11">
         <v>-10</v>
       </c>
       <c r="V9" s="1">
         <v>-15</v>
       </c>
+      <c r="W9" s="1">
+        <v>-10</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1432,27 +1459,30 @@
       <c r="Q10" s="2">
         <v>15</v>
       </c>
-      <c r="R10" s="9">
-        <v>10</v>
-      </c>
-      <c r="S10" s="10">
-        <v>-10</v>
-      </c>
-      <c r="T10" s="10">
-        <v>10</v>
-      </c>
-      <c r="U10" s="10">
+      <c r="R10" s="10">
+        <v>10</v>
+      </c>
+      <c r="S10" s="11">
+        <v>-10</v>
+      </c>
+      <c r="T10" s="11">
+        <v>10</v>
+      </c>
+      <c r="U10" s="11">
         <v>15</v>
       </c>
       <c r="V10" s="1">
         <v>10</v>
       </c>
+      <c r="W10" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1500,27 +1530,30 @@
       <c r="Q11" s="2">
         <v>0</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="10">
         <v>0</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S11" s="11">
         <v>0</v>
       </c>
-      <c r="T11" s="10">
+      <c r="T11" s="11">
         <v>0</v>
       </c>
-      <c r="U11" s="10">
+      <c r="U11" s="11">
         <v>15</v>
       </c>
       <c r="V11" s="1">
         <v>10</v>
       </c>
+      <c r="W11" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1568,27 +1601,30 @@
       <c r="Q12" s="2">
         <v>15</v>
       </c>
-      <c r="R12" s="9">
-        <v>10</v>
-      </c>
-      <c r="S12" s="10">
-        <v>15</v>
-      </c>
-      <c r="T12" s="10">
-        <v>10</v>
-      </c>
-      <c r="U12" s="10">
+      <c r="R12" s="10">
+        <v>10</v>
+      </c>
+      <c r="S12" s="11">
+        <v>15</v>
+      </c>
+      <c r="T12" s="11">
+        <v>10</v>
+      </c>
+      <c r="U12" s="11">
         <v>-10</v>
       </c>
       <c r="V12" s="1">
         <v>10</v>
       </c>
+      <c r="W12" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="8">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1636,27 +1672,30 @@
       <c r="Q13" s="2">
         <v>15</v>
       </c>
-      <c r="R13" s="9">
-        <v>10</v>
-      </c>
-      <c r="S13" s="10">
-        <v>-10</v>
-      </c>
-      <c r="T13" s="10">
-        <v>10</v>
-      </c>
-      <c r="U13" s="10">
+      <c r="R13" s="10">
+        <v>10</v>
+      </c>
+      <c r="S13" s="11">
+        <v>-10</v>
+      </c>
+      <c r="T13" s="11">
+        <v>10</v>
+      </c>
+      <c r="U13" s="11">
         <v>-10</v>
       </c>
       <c r="V13" s="1">
         <v>10</v>
       </c>
+      <c r="W13" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="8">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1704,27 +1743,30 @@
       <c r="Q14" s="2">
         <v>15</v>
       </c>
-      <c r="R14" s="9">
-        <v>10</v>
-      </c>
-      <c r="S14" s="10">
-        <v>15</v>
-      </c>
-      <c r="T14" s="10">
-        <v>10</v>
-      </c>
-      <c r="U14" s="10">
+      <c r="R14" s="10">
+        <v>10</v>
+      </c>
+      <c r="S14" s="11">
+        <v>15</v>
+      </c>
+      <c r="T14" s="11">
+        <v>10</v>
+      </c>
+      <c r="U14" s="11">
         <v>-10</v>
       </c>
       <c r="V14" s="1">
         <v>0</v>
       </c>
+      <c r="W14" s="1">
+        <v>-10</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1772,27 +1814,30 @@
       <c r="Q15" s="2">
         <v>15</v>
       </c>
-      <c r="R15" s="9">
-        <v>10</v>
-      </c>
-      <c r="S15" s="10">
-        <v>15</v>
-      </c>
-      <c r="T15" s="10">
-        <v>10</v>
-      </c>
-      <c r="U15" s="10">
+      <c r="R15" s="10">
+        <v>10</v>
+      </c>
+      <c r="S15" s="11">
+        <v>15</v>
+      </c>
+      <c r="T15" s="11">
+        <v>10</v>
+      </c>
+      <c r="U15" s="11">
         <v>15</v>
       </c>
       <c r="V15" s="1">
         <v>10</v>
       </c>
+      <c r="W15" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="8">
+      <c r="A16" s="9">
         <v>6</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1840,20 +1885,23 @@
       <c r="Q16" s="2">
         <v>15</v>
       </c>
-      <c r="R16" s="9">
-        <v>10</v>
-      </c>
-      <c r="S16" s="10">
-        <v>15</v>
-      </c>
-      <c r="T16" s="10">
-        <v>10</v>
-      </c>
-      <c r="U16" s="10">
+      <c r="R16" s="10">
+        <v>10</v>
+      </c>
+      <c r="S16" s="11">
+        <v>15</v>
+      </c>
+      <c r="T16" s="11">
+        <v>10</v>
+      </c>
+      <c r="U16" s="11">
         <v>15</v>
       </c>
       <c r="V16" s="1">
         <v>10</v>
+      </c>
+      <c r="W16" s="1">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1865,7 +1913,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{002D00C4-0032-4C4B-9254-00CD00AF00D4}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{0033009C-001E-4921-920C-00E200090020}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1882,7 +1930,7 @@
           <xm:sqref>C2:R15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{005B00A3-00C3-4CE0-897D-009300DF00C8}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{00C1003A-00EC-4A78-B274-00A1005300E7}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1899,7 +1947,7 @@
           <xm:sqref>C2:R15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{00960055-0054-4D41-9BC9-000F005A005B}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{00370001-00BD-47E4-A6B1-00D0001F0085}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -1916,7 +1964,7 @@
           <xm:sqref>C2:R15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00A4006D-008A-410C-A983-005200980037}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{003000E9-0016-4910-B1B4-00F400150041}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1933,7 +1981,7 @@
           <xm:sqref>C16:S16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{009E0062-00BC-40A5-8C09-001200890090}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00FD00AB-008C-4448-A6E5-001400B300C5}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1950,7 +1998,7 @@
           <xm:sqref>C16:S16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0071000F-0078-47B1-B64F-0028000F0098}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00220047-004A-48FE-869D-003E00CA00A3}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -2017,18 +2065,18 @@
       <c r="J1" s="2">
         <v>8</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
@@ -2039,17 +2087,17 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10">
+      <c r="K2" s="10"/>
+      <c r="L2" s="11">
         <f t="shared" ref="L2:L16" si="0">SUM(C2:K2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2">
@@ -2062,17 +2110,17 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10">
+      <c r="K3" s="10"/>
+      <c r="L3" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2">
@@ -2087,17 +2135,17 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10">
+      <c r="K4" s="10"/>
+      <c r="L4" s="11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2">
@@ -2110,17 +2158,17 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10">
+      <c r="K5" s="10"/>
+      <c r="L5" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2">
@@ -2135,17 +2183,17 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10">
+      <c r="K6" s="10"/>
+      <c r="L6" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2">
@@ -2160,17 +2208,17 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10">
+      <c r="K7" s="10"/>
+      <c r="L7" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2"/>
@@ -2181,17 +2229,17 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10">
+      <c r="K8" s="10"/>
+      <c r="L8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2"/>
@@ -2202,17 +2250,17 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10">
+      <c r="K9" s="10"/>
+      <c r="L9" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2">
@@ -2229,17 +2277,17 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10">
+      <c r="K10" s="10"/>
+      <c r="L10" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2">
@@ -2258,17 +2306,17 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10">
+      <c r="K11" s="10"/>
+      <c r="L11" s="11">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2">
@@ -2283,17 +2331,17 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10">
+      <c r="K12" s="10"/>
+      <c r="L12" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2">
@@ -2314,17 +2362,17 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10">
+      <c r="K13" s="10"/>
+      <c r="L13" s="11">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2">
@@ -2339,17 +2387,17 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="10">
+      <c r="K14" s="10"/>
+      <c r="L14" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2">
@@ -2368,17 +2416,17 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10">
+      <c r="K15" s="10"/>
+      <c r="L15" s="11">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8">
+      <c r="A16" s="9">
         <v>6</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2"/>
@@ -2393,8 +2441,8 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="10">
+      <c r="K16" s="10"/>
+      <c r="L16" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -2420,8 +2468,7 @@
   <cols>
     <col bestFit="1" min="1" max="1" width="2.85546875"/>
     <col bestFit="1" min="2" max="2" width="31.28515625"/>
-    <col min="3" max="19" style="1" width="9.140625"/>
-    <col min="20" max="24" style="1" width="9.140625"/>
+    <col min="3" max="24" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="15">
@@ -2482,21 +2529,24 @@
       <c r="S1" s="3">
         <v>45000</v>
       </c>
-      <c r="T1" s="11">
+      <c r="T1" s="7">
         <v>45002</v>
       </c>
-      <c r="U1" s="11">
+      <c r="U1" s="7">
         <v>45008</v>
       </c>
       <c r="V1" s="7">
         <v>45009</v>
       </c>
+      <c r="W1" s="8">
+        <v>45014</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2559,12 +2609,15 @@
       <c r="V2" s="1">
         <v>10</v>
       </c>
+      <c r="W2" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2627,12 +2680,15 @@
       <c r="V3" s="1">
         <v>10</v>
       </c>
+      <c r="W3" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2695,12 +2751,15 @@
       <c r="V4" s="1">
         <v>10</v>
       </c>
+      <c r="W4" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2763,12 +2822,15 @@
       <c r="V5" s="1">
         <v>10</v>
       </c>
+      <c r="W5" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2831,12 +2893,15 @@
       <c r="V6" s="1">
         <v>-15</v>
       </c>
+      <c r="W6" s="1">
+        <v>-10</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>7</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2899,12 +2964,15 @@
       <c r="V7" s="1">
         <v>10</v>
       </c>
+      <c r="W7" s="1">
+        <v>-10</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>8</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2967,12 +3035,15 @@
       <c r="V8" s="1">
         <v>10</v>
       </c>
+      <c r="W8" s="1">
+        <v>-10</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>9</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3035,12 +3106,15 @@
       <c r="V9" s="1">
         <v>10</v>
       </c>
+      <c r="W9" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="8">
-        <v>10</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="9">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3103,12 +3177,15 @@
       <c r="V10" s="1">
         <v>10</v>
       </c>
+      <c r="W10" s="1">
+        <v>-10</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>11</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3171,12 +3248,15 @@
       <c r="V11" s="1">
         <v>10</v>
       </c>
+      <c r="W11" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>12</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3239,12 +3319,15 @@
       <c r="V12" s="1">
         <v>0</v>
       </c>
+      <c r="W12" s="1">
+        <v>-10</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="8">
+      <c r="A13" s="9">
         <v>13</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3307,12 +3390,15 @@
       <c r="V13" s="1">
         <v>10</v>
       </c>
+      <c r="W13" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="8">
+      <c r="A14" s="9">
         <v>14</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3374,6 +3460,9 @@
       </c>
       <c r="V14" s="1">
         <v>10</v>
+      </c>
+      <c r="W14" s="1">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3385,7 +3474,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{005E0036-00FD-439B-A55E-0013007F0008}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00D7007E-0091-4A49-AAAC-000200FF00CE}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -3402,7 +3491,7 @@
           <xm:sqref>C2:S14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{007B00F8-00BF-4212-A0CF-00740024009E}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00880059-0033-4961-82D0-00F4004A001D}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -3419,7 +3508,7 @@
           <xm:sqref>C2:S14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0031005F-00E7-4F89-8B51-009000BB0099}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{005500A0-0017-4025-A142-002F007A00CC}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -3486,18 +3575,18 @@
       <c r="J1" s="2">
         <v>8</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="2"/>
@@ -3508,17 +3597,17 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10">
+      <c r="K2" s="10"/>
+      <c r="L2" s="11">
         <f t="shared" ref="L2:L9" si="1">SUM(C2:K2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="2">
@@ -3535,17 +3624,17 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10">
+      <c r="K3" s="10"/>
+      <c r="L3" s="11">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="2">
@@ -3564,17 +3653,17 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10">
+      <c r="K4" s="10"/>
+      <c r="L4" s="11">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="2">
@@ -3587,17 +3676,17 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10">
+      <c r="K5" s="10"/>
+      <c r="L5" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="2"/>
@@ -3608,17 +3697,17 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10">
+      <c r="K6" s="10"/>
+      <c r="L6" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="2"/>
@@ -3629,17 +3718,17 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10">
+      <c r="K7" s="10"/>
+      <c r="L7" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="2">
@@ -3654,17 +3743,17 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10">
+      <c r="K8" s="10"/>
+      <c r="L8" s="11">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="2">
@@ -3679,17 +3768,17 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10">
+      <c r="K9" s="10"/>
+      <c r="L9" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="2">
@@ -3706,17 +3795,17 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10">
+      <c r="K10" s="10"/>
+      <c r="L10" s="11">
         <f t="shared" ref="L10:L14" si="2">SUM(C10:K10)</f>
         <v>30</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="2">
@@ -3731,17 +3820,17 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10">
+      <c r="K11" s="10"/>
+      <c r="L11" s="11">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="2">
@@ -3758,17 +3847,17 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10">
+      <c r="K12" s="10"/>
+      <c r="L12" s="11">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="2">
@@ -3783,17 +3872,17 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10">
+      <c r="K13" s="10"/>
+      <c r="L13" s="11">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="2">
@@ -3806,8 +3895,8 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="10">
+      <c r="K14" s="10"/>
+      <c r="L14" s="11">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>

--- a/Успеваемость_СО-ИП-21-2.xlsx
+++ b/Успеваемость_СО-ИП-21-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>№</t>
   </si>
@@ -24,6 +24,9 @@
     <t>Студент</t>
   </si>
   <si>
+    <t>Рейтинг</t>
+  </si>
+  <si>
     <t xml:space="preserve">Борисов Василий Николаевич</t>
   </si>
   <si>
@@ -88,6 +91,15 @@
   </si>
   <si>
     <t>Decor</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>Regex</t>
+  </si>
+  <si>
+    <t>UML</t>
   </si>
   <si>
     <t>Тест</t>
@@ -161,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -212,11 +224,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,17 +261,27 @@
     <xf fontId="0" fillId="0" borderId="3" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -826,17 +861,23 @@
       <c r="S1" s="6">
         <v>45000</v>
       </c>
-      <c r="T1" s="6">
+      <c r="T1" s="7">
         <v>45002</v>
       </c>
-      <c r="U1" s="6">
+      <c r="U1" s="3">
         <v>45008</v>
       </c>
-      <c r="V1" s="7">
+      <c r="V1" s="3">
         <v>45009</v>
       </c>
-      <c r="W1" s="8">
+      <c r="W1" s="3">
         <v>45014</v>
+      </c>
+      <c r="X1" s="8">
+        <v>45016</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -844,43 +885,43 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O2" s="2">
         <v>-10</v>
@@ -897,17 +938,24 @@
       <c r="S2" s="11">
         <v>-10</v>
       </c>
-      <c r="T2" s="11">
-        <v>10</v>
-      </c>
-      <c r="U2" s="11">
-        <v>-10</v>
-      </c>
-      <c r="V2" s="1">
+      <c r="T2" s="12">
+        <v>10</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-10</v>
+      </c>
+      <c r="V2" s="2">
         <v>-15</v>
       </c>
-      <c r="W2" s="1">
-        <v>-10</v>
+      <c r="W2" s="2">
+        <v>-10</v>
+      </c>
+      <c r="X2" s="9">
+        <v>-15</v>
+      </c>
+      <c r="Y2" s="9">
+        <f>SUM(O2:X2)</f>
+        <v>-75</v>
       </c>
     </row>
     <row r="3">
@@ -915,43 +963,43 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O3" s="2">
         <v>15</v>
@@ -968,17 +1016,24 @@
       <c r="S3" s="11">
         <v>15</v>
       </c>
-      <c r="T3" s="11">
-        <v>10</v>
-      </c>
-      <c r="U3" s="11">
-        <v>15</v>
-      </c>
-      <c r="V3" s="1">
+      <c r="T3" s="12">
+        <v>10</v>
+      </c>
+      <c r="U3" s="2">
+        <v>15</v>
+      </c>
+      <c r="V3" s="2">
         <v>-15</v>
       </c>
-      <c r="W3" s="1">
-        <v>-10</v>
+      <c r="W3" s="2">
+        <v>-10</v>
+      </c>
+      <c r="X3" s="9">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="9">
+        <f>SUM(O3:X3)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -986,43 +1041,43 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O4" s="2">
         <v>15</v>
@@ -1039,17 +1094,24 @@
       <c r="S4" s="11">
         <v>15</v>
       </c>
-      <c r="T4" s="11">
-        <v>10</v>
-      </c>
-      <c r="U4" s="11">
-        <v>15</v>
-      </c>
-      <c r="V4" s="1">
-        <v>10</v>
-      </c>
-      <c r="W4" s="1">
-        <v>15</v>
+      <c r="T4" s="12">
+        <v>10</v>
+      </c>
+      <c r="U4" s="2">
+        <v>15</v>
+      </c>
+      <c r="V4" s="2">
+        <v>10</v>
+      </c>
+      <c r="W4" s="2">
+        <v>15</v>
+      </c>
+      <c r="X4" s="9">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="9">
+        <f>SUM(O4:X4)</f>
+        <v>125</v>
       </c>
     </row>
     <row r="5">
@@ -1057,43 +1119,43 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O5" s="2">
         <v>15</v>
@@ -1110,17 +1172,24 @@
       <c r="S5" s="11">
         <v>15</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="12">
         <v>-15</v>
       </c>
-      <c r="U5" s="11">
-        <v>-10</v>
-      </c>
-      <c r="V5" s="1">
+      <c r="U5" s="2">
+        <v>-10</v>
+      </c>
+      <c r="V5" s="2">
         <v>-15</v>
       </c>
-      <c r="W5" s="1">
-        <v>15</v>
+      <c r="W5" s="2">
+        <v>15</v>
+      </c>
+      <c r="X5" s="9">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="9">
+        <f>SUM(O5:X5)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -1128,43 +1197,43 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O6" s="2">
         <v>15</v>
@@ -1181,17 +1250,24 @@
       <c r="S6" s="11">
         <v>15</v>
       </c>
-      <c r="T6" s="11">
-        <v>10</v>
-      </c>
-      <c r="U6" s="11">
-        <v>-10</v>
-      </c>
-      <c r="V6" s="1">
-        <v>10</v>
-      </c>
-      <c r="W6" s="1">
-        <v>15</v>
+      <c r="T6" s="12">
+        <v>10</v>
+      </c>
+      <c r="U6" s="2">
+        <v>-10</v>
+      </c>
+      <c r="V6" s="2">
+        <v>10</v>
+      </c>
+      <c r="W6" s="2">
+        <v>15</v>
+      </c>
+      <c r="X6" s="9">
+        <v>-15</v>
+      </c>
+      <c r="Y6" s="9">
+        <f>SUM(O6:X6)</f>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1199,43 +1275,43 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7" s="2">
         <v>-10</v>
@@ -1252,17 +1328,24 @@
       <c r="S7" s="11">
         <v>15</v>
       </c>
-      <c r="T7" s="11">
-        <v>10</v>
-      </c>
-      <c r="U7" s="11">
-        <v>15</v>
-      </c>
-      <c r="V7" s="1">
-        <v>10</v>
-      </c>
-      <c r="W7" s="1">
-        <v>15</v>
+      <c r="T7" s="12">
+        <v>10</v>
+      </c>
+      <c r="U7" s="2">
+        <v>15</v>
+      </c>
+      <c r="V7" s="2">
+        <v>10</v>
+      </c>
+      <c r="W7" s="2">
+        <v>15</v>
+      </c>
+      <c r="X7" s="9">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="9">
+        <f>SUM(O7:X7)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -1270,43 +1353,43 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O8" s="2">
         <v>-10</v>
@@ -1323,17 +1406,24 @@
       <c r="S8" s="11">
         <v>-10</v>
       </c>
-      <c r="T8" s="11">
-        <v>10</v>
-      </c>
-      <c r="U8" s="11">
-        <v>-10</v>
-      </c>
-      <c r="V8" s="1">
+      <c r="T8" s="12">
+        <v>10</v>
+      </c>
+      <c r="U8" s="2">
+        <v>-10</v>
+      </c>
+      <c r="V8" s="2">
         <v>-15</v>
       </c>
-      <c r="W8" s="1">
-        <v>-10</v>
+      <c r="W8" s="2">
+        <v>-10</v>
+      </c>
+      <c r="X8" s="9">
+        <v>-15</v>
+      </c>
+      <c r="Y8" s="9">
+        <f>SUM(O8:X8)</f>
+        <v>-100</v>
       </c>
     </row>
     <row r="9">
@@ -1341,43 +1431,43 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O9" s="2">
         <v>-10</v>
@@ -1394,17 +1484,24 @@
       <c r="S9" s="11">
         <v>-10</v>
       </c>
-      <c r="T9" s="11">
-        <v>10</v>
-      </c>
-      <c r="U9" s="11">
-        <v>-10</v>
-      </c>
-      <c r="V9" s="1">
+      <c r="T9" s="12">
+        <v>10</v>
+      </c>
+      <c r="U9" s="2">
+        <v>-10</v>
+      </c>
+      <c r="V9" s="2">
         <v>-15</v>
       </c>
-      <c r="W9" s="1">
-        <v>-10</v>
+      <c r="W9" s="2">
+        <v>-10</v>
+      </c>
+      <c r="X9" s="9">
+        <v>-15</v>
+      </c>
+      <c r="Y9" s="9">
+        <f>SUM(O9:X9)</f>
+        <v>-75</v>
       </c>
     </row>
     <row r="10">
@@ -1412,43 +1509,43 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O10" s="2">
         <v>15</v>
@@ -1465,17 +1562,24 @@
       <c r="S10" s="11">
         <v>-10</v>
       </c>
-      <c r="T10" s="11">
-        <v>10</v>
-      </c>
-      <c r="U10" s="11">
-        <v>15</v>
-      </c>
-      <c r="V10" s="1">
-        <v>10</v>
-      </c>
-      <c r="W10" s="1">
-        <v>15</v>
+      <c r="T10" s="12">
+        <v>10</v>
+      </c>
+      <c r="U10" s="2">
+        <v>15</v>
+      </c>
+      <c r="V10" s="2">
+        <v>10</v>
+      </c>
+      <c r="W10" s="2">
+        <v>15</v>
+      </c>
+      <c r="X10" s="9">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="9">
+        <f>SUM(O10:X10)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -1483,43 +1587,43 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O11" s="2">
         <v>15</v>
@@ -1536,17 +1640,24 @@
       <c r="S11" s="11">
         <v>0</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="12">
         <v>0</v>
       </c>
-      <c r="U11" s="11">
-        <v>15</v>
-      </c>
-      <c r="V11" s="1">
-        <v>10</v>
-      </c>
-      <c r="W11" s="1">
-        <v>15</v>
+      <c r="U11" s="2">
+        <v>15</v>
+      </c>
+      <c r="V11" s="2">
+        <v>10</v>
+      </c>
+      <c r="W11" s="2">
+        <v>15</v>
+      </c>
+      <c r="X11" s="9">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="9">
+        <f>SUM(O11:X11)</f>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
@@ -1554,43 +1665,43 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O12" s="2">
         <v>15</v>
@@ -1607,17 +1718,24 @@
       <c r="S12" s="11">
         <v>15</v>
       </c>
-      <c r="T12" s="11">
-        <v>10</v>
-      </c>
-      <c r="U12" s="11">
-        <v>-10</v>
-      </c>
-      <c r="V12" s="1">
-        <v>10</v>
-      </c>
-      <c r="W12" s="1">
-        <v>15</v>
+      <c r="T12" s="12">
+        <v>10</v>
+      </c>
+      <c r="U12" s="2">
+        <v>-10</v>
+      </c>
+      <c r="V12" s="2">
+        <v>10</v>
+      </c>
+      <c r="W12" s="2">
+        <v>15</v>
+      </c>
+      <c r="X12" s="9">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="9">
+        <f>SUM(O12:X12)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -1625,43 +1743,43 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O13" s="2">
         <v>15</v>
@@ -1678,17 +1796,24 @@
       <c r="S13" s="11">
         <v>-10</v>
       </c>
-      <c r="T13" s="11">
-        <v>10</v>
-      </c>
-      <c r="U13" s="11">
-        <v>-10</v>
-      </c>
-      <c r="V13" s="1">
-        <v>10</v>
-      </c>
-      <c r="W13" s="1">
-        <v>15</v>
+      <c r="T13" s="12">
+        <v>10</v>
+      </c>
+      <c r="U13" s="2">
+        <v>-10</v>
+      </c>
+      <c r="V13" s="2">
+        <v>10</v>
+      </c>
+      <c r="W13" s="2">
+        <v>15</v>
+      </c>
+      <c r="X13" s="9">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="9">
+        <f>SUM(O13:X13)</f>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -1696,43 +1821,43 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O14" s="2">
         <v>15</v>
@@ -1749,17 +1874,24 @@
       <c r="S14" s="11">
         <v>15</v>
       </c>
-      <c r="T14" s="11">
-        <v>10</v>
-      </c>
-      <c r="U14" s="11">
-        <v>-10</v>
-      </c>
-      <c r="V14" s="1">
+      <c r="T14" s="12">
+        <v>10</v>
+      </c>
+      <c r="U14" s="2">
+        <v>-10</v>
+      </c>
+      <c r="V14" s="2">
         <v>0</v>
       </c>
-      <c r="W14" s="1">
-        <v>-10</v>
+      <c r="W14" s="2">
+        <v>-10</v>
+      </c>
+      <c r="X14" s="9">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="9">
+        <f>SUM(O14:X14)</f>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -1767,43 +1899,43 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O15" s="2">
         <v>15</v>
@@ -1820,17 +1952,24 @@
       <c r="S15" s="11">
         <v>15</v>
       </c>
-      <c r="T15" s="11">
-        <v>10</v>
-      </c>
-      <c r="U15" s="11">
-        <v>15</v>
-      </c>
-      <c r="V15" s="1">
-        <v>10</v>
-      </c>
-      <c r="W15" s="1">
-        <v>15</v>
+      <c r="T15" s="12">
+        <v>10</v>
+      </c>
+      <c r="U15" s="2">
+        <v>15</v>
+      </c>
+      <c r="V15" s="2">
+        <v>10</v>
+      </c>
+      <c r="W15" s="2">
+        <v>15</v>
+      </c>
+      <c r="X15" s="9">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="9">
+        <f>SUM(O15:X15)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -1838,43 +1977,43 @@
         <v>6</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O16" s="2">
         <v>15</v>
@@ -1891,17 +2030,24 @@
       <c r="S16" s="11">
         <v>15</v>
       </c>
-      <c r="T16" s="11">
-        <v>10</v>
-      </c>
-      <c r="U16" s="11">
-        <v>15</v>
-      </c>
-      <c r="V16" s="1">
-        <v>10</v>
-      </c>
-      <c r="W16" s="1">
-        <v>15</v>
+      <c r="T16" s="12">
+        <v>10</v>
+      </c>
+      <c r="U16" s="2">
+        <v>15</v>
+      </c>
+      <c r="V16" s="2">
+        <v>10</v>
+      </c>
+      <c r="W16" s="2">
+        <v>15</v>
+      </c>
+      <c r="X16" s="9">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="9">
+        <f>SUM(O16:X16)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1913,7 +2059,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{0033009C-001E-4921-920C-00E200090020}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{00C30036-0064-4201-9F63-00CB00200088}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1930,7 +2076,7 @@
           <xm:sqref>C2:R15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{00C1003A-00EC-4A78-B274-00A1005300E7}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{004400D2-0018-4C4D-AE48-00AB00D5003E}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1947,7 +2093,7 @@
           <xm:sqref>C2:R15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{00370001-00BD-47E4-A6B1-00D0001F0085}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{00C0009B-0059-4F36-8309-005700CD003E}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -1964,7 +2110,7 @@
           <xm:sqref>C2:R15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{003000E9-0016-4910-B1B4-00F400150041}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{0026006E-00B4-4862-8A9B-00AA00E900BF}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -1981,7 +2127,7 @@
           <xm:sqref>C16:S16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00FD00AB-008C-4448-A6E5-001400B300C5}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00B60008-0067-473D-BC03-002200800078}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -1998,7 +2144,7 @@
           <xm:sqref>C16:S16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00220047-004A-48FE-869D-003E00CA00A3}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00860090-00E8-4B75-98DE-005F00DB0026}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -2031,7 +2177,9 @@
   <cols>
     <col bestFit="1" min="1" max="1" width="2.85546875"/>
     <col bestFit="1" min="2" max="2" width="37.28515625"/>
-    <col min="3" max="18" style="1" width="9.140625"/>
+    <col min="3" max="10" style="1" width="9.140625"/>
+    <col bestFit="1" min="11" max="11" style="1" width="9.8515625"/>
+    <col min="12" max="18" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="15">
@@ -2042,34 +2190,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="2">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2">
-        <v>8</v>
-      </c>
-      <c r="K1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>25</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -2077,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2086,19 +2231,19 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11">
-        <f t="shared" ref="L2:L16" si="0">SUM(C2:K2)</f>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11">
+        <f>SUM(C2:J2)</f>
         <v>0</v>
       </c>
+      <c r="L2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -2109,19 +2254,19 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11">
+        <f>SUM(C3:J3)</f>
+        <v>5</v>
+      </c>
+      <c r="L3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
         <v>10</v>
@@ -2134,19 +2279,19 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11">
-        <f t="shared" si="0"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11">
+        <f>SUM(C4:J4)</f>
         <v>20</v>
       </c>
+      <c r="L4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
         <v>5</v>
@@ -2157,19 +2302,19 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11">
+        <f>SUM(C5:J5)</f>
+        <v>5</v>
+      </c>
+      <c r="L5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>10</v>
@@ -2182,19 +2327,19 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11">
+        <f>SUM(C6:J6)</f>
+        <v>15</v>
+      </c>
+      <c r="L6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
@@ -2207,19 +2352,19 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11">
+        <f>SUM(C7:J7)</f>
+        <v>15</v>
+      </c>
+      <c r="L7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2228,19 +2373,19 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11">
-        <f t="shared" si="0"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11">
+        <f>SUM(C8:J8)</f>
         <v>0</v>
       </c>
+      <c r="L8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2249,46 +2394,46 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11">
-        <f t="shared" si="0"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11">
+        <f>SUM(C9:J9)</f>
         <v>0</v>
       </c>
+      <c r="L9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2">
         <v>5</v>
       </c>
       <c r="E10" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11">
+        <f>SUM(C10:J10)</f>
+        <v>25</v>
+      </c>
+      <c r="L10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
@@ -2305,19 +2450,19 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11">
-        <f t="shared" si="0"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11">
+        <f>SUM(C11:J11)</f>
         <v>34</v>
       </c>
+      <c r="L11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2">
         <v>10</v>
@@ -2330,19 +2475,19 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11">
+        <f>SUM(C12:J12)</f>
+        <v>15</v>
+      </c>
+      <c r="L12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
@@ -2359,21 +2504,23 @@
       <c r="G13" s="2">
         <v>10</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>10</v>
+      </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11">
+        <f>SUM(C13:J13)</f>
+        <v>60</v>
+      </c>
+      <c r="L13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2">
         <v>10</v>
@@ -2386,19 +2533,19 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11">
+        <f>SUM(C14:J14)</f>
+        <v>15</v>
+      </c>
+      <c r="L14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2">
         <v>10</v>
@@ -2410,42 +2557,44 @@
         <v>10</v>
       </c>
       <c r="F15" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11">
+        <f>SUM(C15:J15)</f>
+        <v>40</v>
+      </c>
+      <c r="L15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="9">
         <v>6</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10</v>
+      </c>
       <c r="D16" s="2">
         <v>5</v>
       </c>
       <c r="E16" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="11">
+        <f>SUM(C16:J16)</f>
+        <v>25</v>
+      </c>
+      <c r="L16" s="1"/>
       <c r="S16" s="1"/>
     </row>
   </sheetData>
@@ -2529,17 +2678,23 @@
       <c r="S1" s="3">
         <v>45000</v>
       </c>
-      <c r="T1" s="7">
+      <c r="T1" s="14">
         <v>45002</v>
       </c>
-      <c r="U1" s="7">
+      <c r="U1" s="14">
         <v>45008</v>
       </c>
-      <c r="V1" s="7">
+      <c r="V1" s="14">
         <v>45009</v>
       </c>
-      <c r="W1" s="8">
+      <c r="W1" s="14">
         <v>45014</v>
+      </c>
+      <c r="X1" s="15">
+        <v>45016</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -2547,43 +2702,43 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O2" s="2">
         <v>-10</v>
@@ -2611,6 +2766,13 @@
       </c>
       <c r="W2" s="1">
         <v>15</v>
+      </c>
+      <c r="X2" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y2">
+        <f>SUM(O2:X2)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -2618,43 +2780,43 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O3" s="2">
         <v>15</v>
@@ -2682,6 +2844,13 @@
       </c>
       <c r="W3" s="1">
         <v>15</v>
+      </c>
+      <c r="X3" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <f>SUM(O3:X3)</f>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
@@ -2689,43 +2858,43 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O4" s="2">
         <v>15</v>
@@ -2753,6 +2922,13 @@
       </c>
       <c r="W4" s="1">
         <v>15</v>
+      </c>
+      <c r="X4" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <f>SUM(O4:X4)</f>
+        <v>125</v>
       </c>
     </row>
     <row r="5">
@@ -2760,43 +2936,43 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O5" s="2">
         <v>15</v>
@@ -2824,6 +3000,13 @@
       </c>
       <c r="W5" s="1">
         <v>15</v>
+      </c>
+      <c r="X5" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y5">
+        <f>SUM(O5:X5)</f>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -2831,43 +3014,43 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O6" s="2">
         <v>-10</v>
@@ -2895,6 +3078,13 @@
       </c>
       <c r="W6" s="1">
         <v>-10</v>
+      </c>
+      <c r="X6" s="1">
+        <v>-15</v>
+      </c>
+      <c r="Y6">
+        <f>SUM(O6:X6)</f>
+        <v>-125</v>
       </c>
     </row>
     <row r="7">
@@ -2902,43 +3092,43 @@
         <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7" s="2">
         <v>-10</v>
@@ -2966,6 +3156,13 @@
       </c>
       <c r="W7" s="1">
         <v>-10</v>
+      </c>
+      <c r="X7" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y7">
+        <f>SUM(O7:X7)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -2973,43 +3170,43 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O8" s="2">
         <v>-10</v>
@@ -3037,6 +3234,13 @@
       </c>
       <c r="W8" s="1">
         <v>-10</v>
+      </c>
+      <c r="X8" s="1">
+        <v>-15</v>
+      </c>
+      <c r="Y8">
+        <f>SUM(O8:X8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3044,43 +3248,43 @@
         <v>9</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O9" s="2">
         <v>15</v>
@@ -3109,49 +3313,56 @@
       <c r="W9" s="1">
         <v>15</v>
       </c>
+      <c r="X9" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y9">
+        <f>SUM(O9:X9)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="9">
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O10" s="2">
         <v>-10</v>
@@ -3179,6 +3390,13 @@
       </c>
       <c r="W10" s="1">
         <v>-10</v>
+      </c>
+      <c r="X10" s="1">
+        <v>-15</v>
+      </c>
+      <c r="Y10">
+        <f>SUM(O10:X10)</f>
+        <v>-50</v>
       </c>
     </row>
     <row r="11">
@@ -3186,43 +3404,43 @@
         <v>11</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O11" s="2">
         <v>15</v>
@@ -3250,6 +3468,13 @@
       </c>
       <c r="W11" s="1">
         <v>15</v>
+      </c>
+      <c r="X11" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y11">
+        <f>SUM(O11:X11)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -3257,43 +3482,43 @@
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
@@ -3321,6 +3546,13 @@
       </c>
       <c r="W12" s="1">
         <v>-10</v>
+      </c>
+      <c r="X12" s="1">
+        <v>-15</v>
+      </c>
+      <c r="Y12">
+        <f>SUM(O12:X12)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -3328,43 +3560,43 @@
         <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O13" s="2">
         <v>15</v>
@@ -3392,6 +3624,13 @@
       </c>
       <c r="W13" s="1">
         <v>15</v>
+      </c>
+      <c r="X13" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y13">
+        <f>SUM(O13:X13)</f>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
@@ -3399,43 +3638,43 @@
         <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O14" s="2">
         <v>15</v>
@@ -3463,6 +3702,13 @@
       </c>
       <c r="W14" s="1">
         <v>15</v>
+      </c>
+      <c r="X14" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y14">
+        <f>SUM(O14:X14)</f>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3474,7 +3720,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00D7007E-0091-4A49-AAAC-000200FF00CE}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{00FE000A-005E-437C-BDDA-00A800B9000A}">
             <xm:f>"-"</xm:f>
             <x14:dxf>
               <font>
@@ -3491,7 +3737,7 @@
           <xm:sqref>C2:S14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{00880059-0033-4961-82D0-00F4004A001D}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{005B00E5-0025-4B09-833A-006600CC0068}">
             <xm:f>"+"</xm:f>
             <x14:dxf>
               <font>
@@ -3508,7 +3754,7 @@
           <xm:sqref>C2:S14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{005500A0-0017-4025-A142-002F007A00CC}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{0030006E-004F-4997-AD57-00A6003A0009}">
             <xm:f>"#"</xm:f>
             <x14:dxf>
               <font>
@@ -3552,16 +3798,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2">
         <v>5</v>
@@ -3572,14 +3818,12 @@
       <c r="I1" s="2">
         <v>7</v>
       </c>
-      <c r="J1" s="2">
-        <v>8</v>
-      </c>
+      <c r="J1" s="2"/>
       <c r="K1" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -3587,7 +3831,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3599,7 +3843,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11">
-        <f t="shared" ref="L2:L9" si="1">SUM(C2:K2)</f>
+        <f t="shared" ref="L2:L9" si="0">SUM(C2:K2)</f>
         <v>0</v>
       </c>
     </row>
@@ -3608,7 +3852,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2">
         <v>10</v>
@@ -3619,15 +3863,17 @@
       <c r="E3" s="2">
         <v>5</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="10"/>
       <c r="L3" s="11">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -3635,7 +3881,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2">
         <v>10</v>
@@ -3655,7 +3901,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="10"/>
       <c r="L4" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -3664,7 +3910,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
@@ -3678,7 +3924,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="10"/>
       <c r="L5" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -3687,7 +3933,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3699,7 +3945,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="10"/>
       <c r="L6" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3708,7 +3954,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3720,7 +3966,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="10"/>
       <c r="L7" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3729,7 +3975,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2">
         <v>10</v>
@@ -3745,7 +3991,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="10"/>
       <c r="L8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -3754,7 +4000,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -3770,7 +4016,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="10"/>
       <c r="L9" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -3779,7 +4025,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2">
         <v>10</v>
@@ -3797,7 +4043,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="10"/>
       <c r="L10" s="11">
-        <f t="shared" ref="L10:L14" si="2">SUM(C10:K10)</f>
+        <f t="shared" ref="L10:L14" si="1">SUM(C10:K10)</f>
         <v>30</v>
       </c>
     </row>
@@ -3806,7 +4052,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
@@ -3822,7 +4068,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="10"/>
       <c r="L11" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -3831,7 +4077,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2">
         <v>10</v>
@@ -3849,7 +4095,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="10"/>
       <c r="L12" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
@@ -3858,7 +4104,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
@@ -3874,7 +4120,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="10"/>
       <c r="L13" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -3883,7 +4129,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
@@ -3897,7 +4143,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="10"/>
       <c r="L14" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>

--- a/Успеваемость_СО-ИП-21-2.xlsx
+++ b/Успеваемость_СО-ИП-21-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/fundamentals-of-algorithmization-and-programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657D189C-3856-8944-8469-D82E1D956275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5F81AC-B16C-2449-92D5-973FA287FE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -350,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -421,6 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1648,11 +1649,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC16"/>
+  <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="175" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA10" sqref="AA10"/>
+      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1664,7 +1665,7 @@
     <col min="30" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1749,11 +1750,17 @@
       <c r="AB1" s="33">
         <v>45030</v>
       </c>
-      <c r="AC1" s="32" t="s">
+      <c r="AC1" s="38">
+        <v>45036</v>
+      </c>
+      <c r="AD1" s="38">
+        <v>45037</v>
+      </c>
+      <c r="AE1" s="32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1838,12 +1845,18 @@
       <c r="AB2" s="31">
         <v>-15</v>
       </c>
-      <c r="AC2" s="32">
-        <f>SUM(O2:AB2)</f>
-        <v>-125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="42">
+        <v>-10</v>
+      </c>
+      <c r="AD2" s="32">
+        <v>-15</v>
+      </c>
+      <c r="AE2" s="32">
+        <f t="shared" ref="AE2:AE16" si="0">SUM(O2:AD2)</f>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1928,12 +1941,18 @@
       <c r="AB3" s="31">
         <v>10</v>
       </c>
-      <c r="AC3" s="32">
-        <f t="shared" ref="AC3:AC16" si="0">SUM(O3:AB3)</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC3" s="42">
+        <v>15</v>
+      </c>
+      <c r="AD3" s="32">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="32">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -2018,12 +2037,18 @@
       <c r="AB4" s="31">
         <v>10</v>
       </c>
-      <c r="AC4" s="32">
+      <c r="AC4" s="42">
+        <v>15</v>
+      </c>
+      <c r="AD4" s="32">
+        <v>10</v>
+      </c>
+      <c r="AE4" s="32">
         <f t="shared" si="0"/>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -2108,999 +2133,1071 @@
       <c r="AB5" s="31">
         <v>10</v>
       </c>
-      <c r="AC5" s="32">
+      <c r="AC5" s="42">
+        <v>15</v>
+      </c>
+      <c r="AD5" s="32">
+        <v>10</v>
+      </c>
+      <c r="AE5" s="32">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="11">
+        <v>15</v>
+      </c>
+      <c r="P6" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>15</v>
+      </c>
+      <c r="R6" s="11">
+        <v>10</v>
+      </c>
+      <c r="S6" s="11">
+        <v>15</v>
+      </c>
+      <c r="T6" s="11">
+        <v>10</v>
+      </c>
+      <c r="U6" s="11">
+        <v>-10</v>
+      </c>
+      <c r="V6" s="11">
+        <v>10</v>
+      </c>
+      <c r="W6" s="11">
+        <v>15</v>
+      </c>
+      <c r="X6" s="12">
+        <v>-15</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="31">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="42">
+        <v>-10</v>
+      </c>
+      <c r="AD6" s="32">
+        <v>10</v>
+      </c>
+      <c r="AE6" s="32">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="11">
+        <v>-10</v>
+      </c>
+      <c r="P7" s="11">
+        <v>-15</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>-10</v>
+      </c>
+      <c r="R7" s="11">
+        <v>-15</v>
+      </c>
+      <c r="S7" s="11">
+        <v>15</v>
+      </c>
+      <c r="T7" s="11">
+        <v>10</v>
+      </c>
+      <c r="U7" s="11">
+        <v>15</v>
+      </c>
+      <c r="V7" s="11">
+        <v>10</v>
+      </c>
+      <c r="W7" s="11">
+        <v>15</v>
+      </c>
+      <c r="X7" s="12">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>15</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>15</v>
+      </c>
+      <c r="AB7" s="31">
+        <v>10</v>
+      </c>
+      <c r="AC7" s="42">
+        <v>15</v>
+      </c>
+      <c r="AD7" s="32">
+        <v>10</v>
+      </c>
+      <c r="AE7" s="32">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="11">
+        <v>-10</v>
+      </c>
+      <c r="P8" s="11">
+        <v>-15</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>-10</v>
+      </c>
+      <c r="R8" s="11">
+        <v>-15</v>
+      </c>
+      <c r="S8" s="11">
+        <v>-10</v>
+      </c>
+      <c r="T8" s="11">
+        <v>10</v>
+      </c>
+      <c r="U8" s="11">
+        <v>-10</v>
+      </c>
+      <c r="V8" s="11">
+        <v>-15</v>
+      </c>
+      <c r="W8" s="11">
+        <v>-10</v>
+      </c>
+      <c r="X8" s="12">
+        <v>-15</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>-10</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>-15</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>-10</v>
+      </c>
+      <c r="AB8" s="31">
+        <v>10</v>
+      </c>
+      <c r="AC8" s="42">
+        <v>15</v>
+      </c>
+      <c r="AD8" s="32">
+        <v>-15</v>
+      </c>
+      <c r="AE8" s="32">
+        <f t="shared" si="0"/>
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="11">
+        <v>-10</v>
+      </c>
+      <c r="P9" s="11">
+        <v>-15</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>-10</v>
+      </c>
+      <c r="R9" s="11">
+        <v>10</v>
+      </c>
+      <c r="S9" s="11">
+        <v>-10</v>
+      </c>
+      <c r="T9" s="11">
+        <v>10</v>
+      </c>
+      <c r="U9" s="11">
+        <v>-10</v>
+      </c>
+      <c r="V9" s="11">
+        <v>-15</v>
+      </c>
+      <c r="W9" s="11">
+        <v>-10</v>
+      </c>
+      <c r="X9" s="12">
+        <v>-15</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>-10</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>-15</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>-10</v>
+      </c>
+      <c r="AB9" s="31">
+        <v>-15</v>
+      </c>
+      <c r="AC9" s="42">
+        <v>-10</v>
+      </c>
+      <c r="AD9" s="32">
+        <v>-15</v>
+      </c>
+      <c r="AE9" s="32">
+        <f t="shared" si="0"/>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="11">
+        <v>15</v>
+      </c>
+      <c r="P10" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>15</v>
+      </c>
+      <c r="R10" s="11">
+        <v>10</v>
+      </c>
+      <c r="S10" s="11">
+        <v>-10</v>
+      </c>
+      <c r="T10" s="11">
+        <v>10</v>
+      </c>
+      <c r="U10" s="11">
+        <v>15</v>
+      </c>
+      <c r="V10" s="11">
+        <v>10</v>
+      </c>
+      <c r="W10" s="11">
+        <v>15</v>
+      </c>
+      <c r="X10" s="12">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>-10</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>-15</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>15</v>
+      </c>
+      <c r="AB10" s="31">
+        <v>10</v>
+      </c>
+      <c r="AC10" s="42">
+        <v>-10</v>
+      </c>
+      <c r="AD10" s="32">
+        <v>-15</v>
+      </c>
+      <c r="AE10" s="32">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="11">
-        <v>15</v>
-      </c>
-      <c r="P6" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>15</v>
-      </c>
-      <c r="R6" s="11">
-        <v>10</v>
-      </c>
-      <c r="S6" s="11">
-        <v>15</v>
-      </c>
-      <c r="T6" s="11">
-        <v>10</v>
-      </c>
-      <c r="U6" s="11">
-        <v>-10</v>
-      </c>
-      <c r="V6" s="11">
-        <v>10</v>
-      </c>
-      <c r="W6" s="11">
-        <v>15</v>
-      </c>
-      <c r="X6" s="12">
+    <row r="11" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="11">
+        <v>15</v>
+      </c>
+      <c r="P11" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>0</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="11">
+        <v>0</v>
+      </c>
+      <c r="T11" s="11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="11">
+        <v>15</v>
+      </c>
+      <c r="V11" s="11">
+        <v>10</v>
+      </c>
+      <c r="W11" s="11">
+        <v>15</v>
+      </c>
+      <c r="X11" s="12">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>15</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>10</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>15</v>
+      </c>
+      <c r="AB11" s="31">
+        <v>10</v>
+      </c>
+      <c r="AC11" s="42">
+        <v>15</v>
+      </c>
+      <c r="AD11" s="32">
+        <v>10</v>
+      </c>
+      <c r="AE11" s="32">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="11">
+        <v>15</v>
+      </c>
+      <c r="P12" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>15</v>
+      </c>
+      <c r="R12" s="11">
+        <v>10</v>
+      </c>
+      <c r="S12" s="11">
+        <v>15</v>
+      </c>
+      <c r="T12" s="11">
+        <v>10</v>
+      </c>
+      <c r="U12" s="11">
+        <v>-10</v>
+      </c>
+      <c r="V12" s="11">
+        <v>10</v>
+      </c>
+      <c r="W12" s="11">
+        <v>15</v>
+      </c>
+      <c r="X12" s="12">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>15</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>-10</v>
+      </c>
+      <c r="AB12" s="31">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="42">
+        <v>15</v>
+      </c>
+      <c r="AD12" s="32">
+        <v>10</v>
+      </c>
+      <c r="AE12" s="32">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="11">
+        <v>15</v>
+      </c>
+      <c r="P13" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>15</v>
+      </c>
+      <c r="R13" s="11">
+        <v>10</v>
+      </c>
+      <c r="S13" s="11">
+        <v>-10</v>
+      </c>
+      <c r="T13" s="11">
+        <v>10</v>
+      </c>
+      <c r="U13" s="11">
+        <v>-10</v>
+      </c>
+      <c r="V13" s="11">
+        <v>10</v>
+      </c>
+      <c r="W13" s="11">
+        <v>15</v>
+      </c>
+      <c r="X13" s="12">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>-10</v>
+      </c>
+      <c r="Z13" s="7">
         <v>-15</v>
       </c>
-      <c r="Y6" s="12">
-        <v>15</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>10</v>
-      </c>
-      <c r="AA6" s="7">
-        <v>15</v>
-      </c>
-      <c r="AB6" s="31">
-        <v>10</v>
-      </c>
-      <c r="AC6" s="32">
+      <c r="AA13" s="7">
+        <v>15</v>
+      </c>
+      <c r="AB13" s="31">
+        <v>10</v>
+      </c>
+      <c r="AC13" s="42">
+        <v>-10</v>
+      </c>
+      <c r="AD13" s="32">
+        <v>-15</v>
+      </c>
+      <c r="AE13" s="32">
         <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="11">
-        <v>-10</v>
-      </c>
-      <c r="P7" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="11">
+        <v>15</v>
+      </c>
+      <c r="P14" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>15</v>
+      </c>
+      <c r="R14" s="11">
+        <v>10</v>
+      </c>
+      <c r="S14" s="11">
+        <v>15</v>
+      </c>
+      <c r="T14" s="11">
+        <v>10</v>
+      </c>
+      <c r="U14" s="11">
+        <v>-10</v>
+      </c>
+      <c r="V14" s="11">
+        <v>0</v>
+      </c>
+      <c r="W14" s="11">
+        <v>-10</v>
+      </c>
+      <c r="X14" s="12">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>15</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="31">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="42">
+        <v>-10</v>
+      </c>
+      <c r="AD14" s="32">
+        <v>10</v>
+      </c>
+      <c r="AE14" s="32">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="11">
+        <v>15</v>
+      </c>
+      <c r="P15" s="11">
         <v>-15</v>
       </c>
-      <c r="Q7" s="11">
-        <v>-10</v>
-      </c>
-      <c r="R7" s="11">
+      <c r="Q15" s="11">
+        <v>15</v>
+      </c>
+      <c r="R15" s="11">
+        <v>10</v>
+      </c>
+      <c r="S15" s="11">
+        <v>15</v>
+      </c>
+      <c r="T15" s="11">
+        <v>10</v>
+      </c>
+      <c r="U15" s="11">
+        <v>15</v>
+      </c>
+      <c r="V15" s="11">
+        <v>10</v>
+      </c>
+      <c r="W15" s="11">
+        <v>15</v>
+      </c>
+      <c r="X15" s="12">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>-10</v>
+      </c>
+      <c r="Z15" s="7">
         <v>-15</v>
       </c>
-      <c r="S7" s="11">
-        <v>15</v>
-      </c>
-      <c r="T7" s="11">
-        <v>10</v>
-      </c>
-      <c r="U7" s="11">
-        <v>15</v>
-      </c>
-      <c r="V7" s="11">
-        <v>10</v>
-      </c>
-      <c r="W7" s="11">
-        <v>15</v>
-      </c>
-      <c r="X7" s="12">
-        <v>10</v>
-      </c>
-      <c r="Y7" s="12">
-        <v>15</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>10</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>15</v>
-      </c>
-      <c r="AB7" s="31">
-        <v>10</v>
-      </c>
-      <c r="AC7" s="32">
+      <c r="AA15" s="7">
+        <v>15</v>
+      </c>
+      <c r="AB15" s="31">
+        <v>10</v>
+      </c>
+      <c r="AC15" s="42">
+        <v>-10</v>
+      </c>
+      <c r="AD15" s="32">
+        <v>-15</v>
+      </c>
+      <c r="AE15" s="32">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="11">
-        <v>-10</v>
-      </c>
-      <c r="P8" s="11">
+    <row r="16" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>6</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="11">
+        <v>15</v>
+      </c>
+      <c r="P16" s="11">
         <v>-15</v>
       </c>
-      <c r="Q8" s="11">
-        <v>-10</v>
-      </c>
-      <c r="R8" s="11">
+      <c r="Q16" s="11">
+        <v>15</v>
+      </c>
+      <c r="R16" s="11">
+        <v>10</v>
+      </c>
+      <c r="S16" s="11">
+        <v>15</v>
+      </c>
+      <c r="T16" s="11">
+        <v>10</v>
+      </c>
+      <c r="U16" s="11">
+        <v>15</v>
+      </c>
+      <c r="V16" s="11">
+        <v>10</v>
+      </c>
+      <c r="W16" s="11">
+        <v>15</v>
+      </c>
+      <c r="X16" s="12">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="12">
+        <v>-10</v>
+      </c>
+      <c r="Z16" s="7">
         <v>-15</v>
       </c>
-      <c r="S8" s="11">
-        <v>-10</v>
-      </c>
-      <c r="T8" s="11">
-        <v>10</v>
-      </c>
-      <c r="U8" s="11">
-        <v>-10</v>
-      </c>
-      <c r="V8" s="11">
+      <c r="AA16" s="7">
+        <v>15</v>
+      </c>
+      <c r="AB16" s="31">
+        <v>10</v>
+      </c>
+      <c r="AC16" s="42">
+        <v>-10</v>
+      </c>
+      <c r="AD16" s="32">
         <v>-15</v>
       </c>
-      <c r="W8" s="11">
-        <v>-10</v>
-      </c>
-      <c r="X8" s="12">
-        <v>-15</v>
-      </c>
-      <c r="Y8" s="12">
-        <v>-10</v>
-      </c>
-      <c r="Z8" s="7">
-        <v>-15</v>
-      </c>
-      <c r="AA8" s="7">
-        <v>-10</v>
-      </c>
-      <c r="AB8" s="31">
-        <v>10</v>
-      </c>
-      <c r="AC8" s="32">
-        <f t="shared" si="0"/>
-        <v>-125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="11">
-        <v>-10</v>
-      </c>
-      <c r="P9" s="11">
-        <v>-15</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>-10</v>
-      </c>
-      <c r="R9" s="11">
-        <v>10</v>
-      </c>
-      <c r="S9" s="11">
-        <v>-10</v>
-      </c>
-      <c r="T9" s="11">
-        <v>10</v>
-      </c>
-      <c r="U9" s="11">
-        <v>-10</v>
-      </c>
-      <c r="V9" s="11">
-        <v>-15</v>
-      </c>
-      <c r="W9" s="11">
-        <v>-10</v>
-      </c>
-      <c r="X9" s="12">
-        <v>-15</v>
-      </c>
-      <c r="Y9" s="12">
-        <v>-10</v>
-      </c>
-      <c r="Z9" s="7">
-        <v>-15</v>
-      </c>
-      <c r="AA9" s="7">
-        <v>-10</v>
-      </c>
-      <c r="AB9" s="31">
-        <v>-15</v>
-      </c>
-      <c r="AC9" s="32">
-        <f t="shared" si="0"/>
-        <v>-125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="11">
-        <v>15</v>
-      </c>
-      <c r="P10" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>15</v>
-      </c>
-      <c r="R10" s="11">
-        <v>10</v>
-      </c>
-      <c r="S10" s="11">
-        <v>-10</v>
-      </c>
-      <c r="T10" s="11">
-        <v>10</v>
-      </c>
-      <c r="U10" s="11">
-        <v>15</v>
-      </c>
-      <c r="V10" s="11">
-        <v>10</v>
-      </c>
-      <c r="W10" s="11">
-        <v>15</v>
-      </c>
-      <c r="X10" s="12">
-        <v>10</v>
-      </c>
-      <c r="Y10" s="12">
-        <v>-10</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>-15</v>
-      </c>
-      <c r="AA10" s="7">
-        <v>15</v>
-      </c>
-      <c r="AB10" s="31">
-        <v>10</v>
-      </c>
-      <c r="AC10" s="32">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="11">
-        <v>15</v>
-      </c>
-      <c r="P11" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>0</v>
-      </c>
-      <c r="R11" s="11">
-        <v>0</v>
-      </c>
-      <c r="S11" s="11">
-        <v>0</v>
-      </c>
-      <c r="T11" s="11">
-        <v>0</v>
-      </c>
-      <c r="U11" s="11">
-        <v>15</v>
-      </c>
-      <c r="V11" s="11">
-        <v>10</v>
-      </c>
-      <c r="W11" s="11">
-        <v>15</v>
-      </c>
-      <c r="X11" s="12">
-        <v>10</v>
-      </c>
-      <c r="Y11" s="12">
-        <v>15</v>
-      </c>
-      <c r="Z11" s="7">
-        <v>10</v>
-      </c>
-      <c r="AA11" s="7">
-        <v>15</v>
-      </c>
-      <c r="AB11" s="31">
-        <v>10</v>
-      </c>
-      <c r="AC11" s="32">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="11">
-        <v>15</v>
-      </c>
-      <c r="P12" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>15</v>
-      </c>
-      <c r="R12" s="11">
-        <v>10</v>
-      </c>
-      <c r="S12" s="11">
-        <v>15</v>
-      </c>
-      <c r="T12" s="11">
-        <v>10</v>
-      </c>
-      <c r="U12" s="11">
-        <v>-10</v>
-      </c>
-      <c r="V12" s="11">
-        <v>10</v>
-      </c>
-      <c r="W12" s="11">
-        <v>15</v>
-      </c>
-      <c r="X12" s="12">
-        <v>10</v>
-      </c>
-      <c r="Y12" s="12">
-        <v>15</v>
-      </c>
-      <c r="Z12" s="7">
-        <v>10</v>
-      </c>
-      <c r="AA12" s="7">
-        <v>-10</v>
-      </c>
-      <c r="AB12" s="31">
-        <v>10</v>
-      </c>
-      <c r="AC12" s="32">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O13" s="11">
-        <v>15</v>
-      </c>
-      <c r="P13" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>15</v>
-      </c>
-      <c r="R13" s="11">
-        <v>10</v>
-      </c>
-      <c r="S13" s="11">
-        <v>-10</v>
-      </c>
-      <c r="T13" s="11">
-        <v>10</v>
-      </c>
-      <c r="U13" s="11">
-        <v>-10</v>
-      </c>
-      <c r="V13" s="11">
-        <v>10</v>
-      </c>
-      <c r="W13" s="11">
-        <v>15</v>
-      </c>
-      <c r="X13" s="12">
-        <v>10</v>
-      </c>
-      <c r="Y13" s="12">
-        <v>-10</v>
-      </c>
-      <c r="Z13" s="7">
-        <v>-15</v>
-      </c>
-      <c r="AA13" s="7">
-        <v>15</v>
-      </c>
-      <c r="AB13" s="31">
-        <v>10</v>
-      </c>
-      <c r="AC13" s="32">
+      <c r="AE16" s="32">
         <f t="shared" si="0"/>
         <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="11">
-        <v>15</v>
-      </c>
-      <c r="P14" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="11">
-        <v>15</v>
-      </c>
-      <c r="R14" s="11">
-        <v>10</v>
-      </c>
-      <c r="S14" s="11">
-        <v>15</v>
-      </c>
-      <c r="T14" s="11">
-        <v>10</v>
-      </c>
-      <c r="U14" s="11">
-        <v>-10</v>
-      </c>
-      <c r="V14" s="11">
-        <v>0</v>
-      </c>
-      <c r="W14" s="11">
-        <v>-10</v>
-      </c>
-      <c r="X14" s="12">
-        <v>10</v>
-      </c>
-      <c r="Y14" s="12">
-        <v>15</v>
-      </c>
-      <c r="Z14" s="7">
-        <v>10</v>
-      </c>
-      <c r="AA14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="31">
-        <v>10</v>
-      </c>
-      <c r="AC14" s="32">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="11">
-        <v>15</v>
-      </c>
-      <c r="P15" s="11">
-        <v>-15</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>15</v>
-      </c>
-      <c r="R15" s="11">
-        <v>10</v>
-      </c>
-      <c r="S15" s="11">
-        <v>15</v>
-      </c>
-      <c r="T15" s="11">
-        <v>10</v>
-      </c>
-      <c r="U15" s="11">
-        <v>15</v>
-      </c>
-      <c r="V15" s="11">
-        <v>10</v>
-      </c>
-      <c r="W15" s="11">
-        <v>15</v>
-      </c>
-      <c r="X15" s="12">
-        <v>10</v>
-      </c>
-      <c r="Y15" s="12">
-        <v>-10</v>
-      </c>
-      <c r="Z15" s="7">
-        <v>-15</v>
-      </c>
-      <c r="AA15" s="7">
-        <v>15</v>
-      </c>
-      <c r="AB15" s="31">
-        <v>10</v>
-      </c>
-      <c r="AC15" s="32">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <v>6</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O16" s="11">
-        <v>15</v>
-      </c>
-      <c r="P16" s="11">
-        <v>-15</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>15</v>
-      </c>
-      <c r="R16" s="11">
-        <v>10</v>
-      </c>
-      <c r="S16" s="11">
-        <v>15</v>
-      </c>
-      <c r="T16" s="11">
-        <v>10</v>
-      </c>
-      <c r="U16" s="11">
-        <v>15</v>
-      </c>
-      <c r="V16" s="11">
-        <v>10</v>
-      </c>
-      <c r="W16" s="11">
-        <v>15</v>
-      </c>
-      <c r="X16" s="12">
-        <v>10</v>
-      </c>
-      <c r="Y16" s="12">
-        <v>-10</v>
-      </c>
-      <c r="Z16" s="7">
-        <v>-15</v>
-      </c>
-      <c r="AA16" s="7">
-        <v>15</v>
-      </c>
-      <c r="AB16" s="31">
-        <v>10</v>
-      </c>
-      <c r="AC16" s="32">
-        <f t="shared" si="0"/>
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3128,7 +3225,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3257,14 +3354,22 @@
         <v>10</v>
       </c>
       <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="F4" s="23">
+        <v>10</v>
+      </c>
+      <c r="G4" s="23">
+        <v>12</v>
+      </c>
+      <c r="H4" s="23">
+        <v>13</v>
+      </c>
+      <c r="I4" s="23">
+        <v>15</v>
+      </c>
       <c r="J4" s="23"/>
       <c r="K4" s="24">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="L4" s="22"/>
       <c r="M4" s="14"/>
@@ -3321,14 +3426,16 @@
       <c r="E6" s="23">
         <v>7</v>
       </c>
-      <c r="F6" s="23"/>
+      <c r="F6" s="23">
+        <v>10</v>
+      </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
       <c r="K6" s="24">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="L6" s="22"/>
       <c r="M6" s="14"/>
@@ -3355,14 +3462,16 @@
       <c r="E7" s="23">
         <v>10</v>
       </c>
-      <c r="F7" s="23"/>
+      <c r="F7" s="23">
+        <v>10</v>
+      </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
       <c r="K7" s="24">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L7" s="22"/>
       <c r="M7" s="14"/>
@@ -3380,17 +3489,33 @@
       <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
+      <c r="C8" s="23">
+        <v>10</v>
+      </c>
+      <c r="D8" s="23">
+        <v>10</v>
+      </c>
+      <c r="E8" s="23">
+        <v>10</v>
+      </c>
+      <c r="F8" s="23">
+        <v>10</v>
+      </c>
+      <c r="G8" s="23">
+        <v>12</v>
+      </c>
+      <c r="H8" s="23">
+        <v>13</v>
+      </c>
+      <c r="I8" s="23">
+        <v>15</v>
+      </c>
+      <c r="J8" s="23">
+        <v>20</v>
+      </c>
       <c r="K8" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="22"/>
       <c r="M8" s="14"/>
@@ -3514,15 +3639,19 @@
       <c r="D12" s="24">
         <v>5</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="E12" s="23">
+        <v>10</v>
+      </c>
+      <c r="F12" s="23">
+        <v>10</v>
+      </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="24">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L12" s="22"/>
       <c r="M12" s="14"/>
@@ -3588,7 +3717,9 @@
       <c r="D14" s="24">
         <v>5</v>
       </c>
-      <c r="E14" s="23"/>
+      <c r="E14" s="23">
+        <v>10</v>
+      </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
@@ -3596,7 +3727,7 @@
       <c r="J14" s="23"/>
       <c r="K14" s="24">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L14" s="22"/>
       <c r="M14" s="14"/>
@@ -3700,11 +3831,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AB14"/>
+  <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD8" sqref="AD8"/>
+    <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3716,7 +3847,7 @@
     <col min="27" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3798,11 +3929,18 @@
       <c r="AA1" s="40">
         <v>45030</v>
       </c>
-      <c r="AB1" s="41" t="s">
+      <c r="AB1" s="38">
+        <v>45036</v>
+      </c>
+      <c r="AC1" s="38">
+        <v>45037</v>
+      </c>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -3884,12 +4022,19 @@
       <c r="AA2" s="41">
         <v>10</v>
       </c>
-      <c r="AB2" s="41">
-        <f>SUM(O2:AA2)</f>
+      <c r="AB2" s="39">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="32">
+        <v>-15</v>
+      </c>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="41">
+        <f t="shared" ref="AE2:AE14" si="0">SUM(O2:AC2)</f>
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -3971,12 +4116,19 @@
       <c r="AA3" s="41">
         <v>-15</v>
       </c>
-      <c r="AB3" s="41">
-        <f t="shared" ref="AB3:AB14" si="0">SUM(O3:AA3)</f>
+      <c r="AB3" s="39">
+        <v>-10</v>
+      </c>
+      <c r="AC3" s="32">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="41">
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -4058,621 +4210,677 @@
       <c r="AA4" s="41">
         <v>10</v>
       </c>
-      <c r="AB4" s="41">
+      <c r="AB4" s="39">
+        <v>15</v>
+      </c>
+      <c r="AC4" s="32">
+        <v>10</v>
+      </c>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="41">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="11">
+        <v>15</v>
+      </c>
+      <c r="P5" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>-10</v>
+      </c>
+      <c r="R5" s="11">
+        <v>10</v>
+      </c>
+      <c r="S5" s="11">
+        <v>-10</v>
+      </c>
+      <c r="T5" s="20">
+        <v>10</v>
+      </c>
+      <c r="U5" s="21">
+        <v>15</v>
+      </c>
+      <c r="V5" s="21">
+        <v>10</v>
+      </c>
+      <c r="W5" s="35">
+        <v>15</v>
+      </c>
+      <c r="X5" s="39">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="32">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="39">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="41">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="39">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="32">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="41">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="11">
+        <v>-10</v>
+      </c>
+      <c r="P6" s="11">
+        <v>-15</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>-10</v>
+      </c>
+      <c r="R6" s="11">
+        <v>-15</v>
+      </c>
+      <c r="S6" s="11">
+        <v>-10</v>
+      </c>
+      <c r="T6" s="20">
+        <v>-15</v>
+      </c>
+      <c r="U6" s="21">
+        <v>-10</v>
+      </c>
+      <c r="V6" s="21">
+        <v>-15</v>
+      </c>
+      <c r="W6" s="35">
+        <v>-10</v>
+      </c>
+      <c r="X6" s="39">
+        <v>-15</v>
+      </c>
+      <c r="Y6" s="32">
+        <v>-10</v>
+      </c>
+      <c r="Z6" s="39">
+        <v>-10</v>
+      </c>
+      <c r="AA6" s="41">
+        <v>-15</v>
+      </c>
+      <c r="AB6" s="39">
+        <v>-10</v>
+      </c>
+      <c r="AC6" s="32">
+        <v>-15</v>
+      </c>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="41">
+        <f t="shared" si="0"/>
+        <v>-185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>7</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="11">
+        <v>-10</v>
+      </c>
+      <c r="P7" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>-10</v>
+      </c>
+      <c r="R7" s="11">
+        <v>10</v>
+      </c>
+      <c r="S7" s="11">
+        <v>-10</v>
+      </c>
+      <c r="T7" s="20">
+        <v>10</v>
+      </c>
+      <c r="U7" s="21">
+        <v>15</v>
+      </c>
+      <c r="V7" s="21">
+        <v>10</v>
+      </c>
+      <c r="W7" s="35">
+        <v>-10</v>
+      </c>
+      <c r="X7" s="39">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="32">
+        <v>-10</v>
+      </c>
+      <c r="Z7" s="39">
+        <v>-10</v>
+      </c>
+      <c r="AA7" s="41">
+        <v>-15</v>
+      </c>
+      <c r="AB7" s="39">
+        <v>15</v>
+      </c>
+      <c r="AC7" s="32">
+        <v>10</v>
+      </c>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="41">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="11">
+        <v>-10</v>
+      </c>
+      <c r="P8" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>-10</v>
+      </c>
+      <c r="R8" s="11">
+        <v>10</v>
+      </c>
+      <c r="S8" s="11">
+        <v>15</v>
+      </c>
+      <c r="T8" s="20">
+        <v>10</v>
+      </c>
+      <c r="U8" s="21">
+        <v>-10</v>
+      </c>
+      <c r="V8" s="21">
+        <v>10</v>
+      </c>
+      <c r="W8" s="35">
+        <v>-10</v>
+      </c>
+      <c r="X8" s="39">
+        <v>-15</v>
+      </c>
+      <c r="Y8" s="32">
+        <v>-10</v>
+      </c>
+      <c r="Z8" s="39">
+        <v>15</v>
+      </c>
+      <c r="AA8" s="41">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="39">
+        <v>-10</v>
+      </c>
+      <c r="AC8" s="32">
+        <v>10</v>
+      </c>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="41">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="11">
+        <v>15</v>
+      </c>
+      <c r="P9" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>15</v>
+      </c>
+      <c r="R9" s="11">
+        <v>10</v>
+      </c>
+      <c r="S9" s="11">
+        <v>15</v>
+      </c>
+      <c r="T9" s="20">
+        <v>-15</v>
+      </c>
+      <c r="U9" s="21">
+        <v>15</v>
+      </c>
+      <c r="V9" s="21">
+        <v>10</v>
+      </c>
+      <c r="W9" s="35">
+        <v>15</v>
+      </c>
+      <c r="X9" s="39">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="32">
+        <v>15</v>
+      </c>
+      <c r="Z9" s="39">
+        <v>-10</v>
+      </c>
+      <c r="AA9" s="41">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="39">
+        <v>15</v>
+      </c>
+      <c r="AC9" s="32">
+        <v>10</v>
+      </c>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="41">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="11">
+        <v>-10</v>
+      </c>
+      <c r="P10" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>-10</v>
+      </c>
+      <c r="R10" s="11">
+        <v>-15</v>
+      </c>
+      <c r="S10" s="11">
+        <v>-10</v>
+      </c>
+      <c r="T10" s="20">
+        <v>0</v>
+      </c>
+      <c r="U10" s="21">
+        <v>15</v>
+      </c>
+      <c r="V10" s="21">
+        <v>10</v>
+      </c>
+      <c r="W10" s="35">
+        <v>-10</v>
+      </c>
+      <c r="X10" s="39">
+        <v>-15</v>
+      </c>
+      <c r="Y10" s="32">
+        <v>-10</v>
+      </c>
+      <c r="Z10" s="39">
+        <v>15</v>
+      </c>
+      <c r="AA10" s="41">
+        <v>10</v>
+      </c>
+      <c r="AB10" s="39">
+        <v>15</v>
+      </c>
+      <c r="AC10" s="32">
+        <v>10</v>
+      </c>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="41">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="11">
+        <v>15</v>
+      </c>
+      <c r="P11" s="11">
+        <v>-15</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>15</v>
+      </c>
+      <c r="R11" s="11">
+        <v>10</v>
+      </c>
+      <c r="S11" s="11">
+        <v>15</v>
+      </c>
+      <c r="T11" s="20">
+        <v>10</v>
+      </c>
+      <c r="U11" s="21">
+        <v>15</v>
+      </c>
+      <c r="V11" s="21">
+        <v>10</v>
+      </c>
+      <c r="W11" s="35">
+        <v>15</v>
+      </c>
+      <c r="X11" s="39">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="32">
+        <v>15</v>
+      </c>
+      <c r="Z11" s="39">
+        <v>15</v>
+      </c>
+      <c r="AA11" s="41">
+        <v>10</v>
+      </c>
+      <c r="AB11" s="39">
+        <v>15</v>
+      </c>
+      <c r="AC11" s="32">
+        <v>10</v>
+      </c>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="41">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="11">
-        <v>15</v>
-      </c>
-      <c r="P5" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>-10</v>
-      </c>
-      <c r="R5" s="11">
-        <v>10</v>
-      </c>
-      <c r="S5" s="11">
-        <v>-10</v>
-      </c>
-      <c r="T5" s="20">
-        <v>10</v>
-      </c>
-      <c r="U5" s="21">
-        <v>15</v>
-      </c>
-      <c r="V5" s="21">
-        <v>10</v>
-      </c>
-      <c r="W5" s="35">
-        <v>15</v>
-      </c>
-      <c r="X5" s="39">
-        <v>10</v>
-      </c>
-      <c r="Y5" s="32">
-        <v>15</v>
-      </c>
-      <c r="Z5" s="39">
-        <v>15</v>
-      </c>
-      <c r="AA5" s="41">
-        <v>10</v>
-      </c>
-      <c r="AB5" s="41">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="11">
-        <v>-10</v>
-      </c>
-      <c r="P6" s="11">
-        <v>-15</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>-10</v>
-      </c>
-      <c r="R6" s="11">
-        <v>-15</v>
-      </c>
-      <c r="S6" s="11">
-        <v>-10</v>
-      </c>
-      <c r="T6" s="20">
-        <v>-15</v>
-      </c>
-      <c r="U6" s="21">
-        <v>-10</v>
-      </c>
-      <c r="V6" s="21">
-        <v>-15</v>
-      </c>
-      <c r="W6" s="35">
-        <v>-10</v>
-      </c>
-      <c r="X6" s="39">
-        <v>-15</v>
-      </c>
-      <c r="Y6" s="32">
-        <v>-10</v>
-      </c>
-      <c r="Z6" s="39">
-        <v>-10</v>
-      </c>
-      <c r="AA6" s="41">
-        <v>-15</v>
-      </c>
-      <c r="AB6" s="41">
-        <f t="shared" si="0"/>
-        <v>-160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>7</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="11">
-        <v>-10</v>
-      </c>
-      <c r="P7" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>-10</v>
-      </c>
-      <c r="R7" s="11">
-        <v>10</v>
-      </c>
-      <c r="S7" s="11">
-        <v>-10</v>
-      </c>
-      <c r="T7" s="20">
-        <v>10</v>
-      </c>
-      <c r="U7" s="21">
-        <v>15</v>
-      </c>
-      <c r="V7" s="21">
-        <v>10</v>
-      </c>
-      <c r="W7" s="35">
-        <v>-10</v>
-      </c>
-      <c r="X7" s="39">
-        <v>10</v>
-      </c>
-      <c r="Y7" s="32">
-        <v>-10</v>
-      </c>
-      <c r="Z7" s="39">
-        <v>-10</v>
-      </c>
-      <c r="AA7" s="41">
-        <v>-15</v>
-      </c>
-      <c r="AB7" s="41">
-        <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>8</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="11">
-        <v>-10</v>
-      </c>
-      <c r="P8" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>-10</v>
-      </c>
-      <c r="R8" s="11">
-        <v>10</v>
-      </c>
-      <c r="S8" s="11">
-        <v>15</v>
-      </c>
-      <c r="T8" s="20">
-        <v>10</v>
-      </c>
-      <c r="U8" s="21">
-        <v>-10</v>
-      </c>
-      <c r="V8" s="21">
-        <v>10</v>
-      </c>
-      <c r="W8" s="35">
-        <v>-10</v>
-      </c>
-      <c r="X8" s="39">
-        <v>-15</v>
-      </c>
-      <c r="Y8" s="32">
-        <v>-10</v>
-      </c>
-      <c r="Z8" s="39">
-        <v>15</v>
-      </c>
-      <c r="AA8" s="41">
-        <v>10</v>
-      </c>
-      <c r="AB8" s="41">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>9</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="11">
-        <v>15</v>
-      </c>
-      <c r="P9" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>15</v>
-      </c>
-      <c r="R9" s="11">
-        <v>10</v>
-      </c>
-      <c r="S9" s="11">
-        <v>15</v>
-      </c>
-      <c r="T9" s="20">
-        <v>-15</v>
-      </c>
-      <c r="U9" s="21">
-        <v>15</v>
-      </c>
-      <c r="V9" s="21">
-        <v>10</v>
-      </c>
-      <c r="W9" s="35">
-        <v>15</v>
-      </c>
-      <c r="X9" s="39">
-        <v>10</v>
-      </c>
-      <c r="Y9" s="32">
-        <v>15</v>
-      </c>
-      <c r="Z9" s="39">
-        <v>-10</v>
-      </c>
-      <c r="AA9" s="41">
-        <v>10</v>
-      </c>
-      <c r="AB9" s="41">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>10</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="11">
-        <v>-10</v>
-      </c>
-      <c r="P10" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>-10</v>
-      </c>
-      <c r="R10" s="11">
-        <v>-15</v>
-      </c>
-      <c r="S10" s="11">
-        <v>-10</v>
-      </c>
-      <c r="T10" s="20">
-        <v>-15</v>
-      </c>
-      <c r="U10" s="21">
-        <v>15</v>
-      </c>
-      <c r="V10" s="21">
-        <v>10</v>
-      </c>
-      <c r="W10" s="35">
-        <v>-10</v>
-      </c>
-      <c r="X10" s="39">
-        <v>-15</v>
-      </c>
-      <c r="Y10" s="32">
-        <v>-10</v>
-      </c>
-      <c r="Z10" s="39">
-        <v>15</v>
-      </c>
-      <c r="AA10" s="41">
-        <v>10</v>
-      </c>
-      <c r="AB10" s="41">
-        <f t="shared" si="0"/>
-        <v>-35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>11</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="11">
-        <v>15</v>
-      </c>
-      <c r="P11" s="11">
-        <v>-15</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>15</v>
-      </c>
-      <c r="R11" s="11">
-        <v>10</v>
-      </c>
-      <c r="S11" s="11">
-        <v>15</v>
-      </c>
-      <c r="T11" s="20">
-        <v>10</v>
-      </c>
-      <c r="U11" s="21">
-        <v>15</v>
-      </c>
-      <c r="V11" s="21">
-        <v>10</v>
-      </c>
-      <c r="W11" s="35">
-        <v>15</v>
-      </c>
-      <c r="X11" s="39">
-        <v>10</v>
-      </c>
-      <c r="Y11" s="32">
-        <v>15</v>
-      </c>
-      <c r="Z11" s="39">
-        <v>15</v>
-      </c>
-      <c r="AA11" s="41">
-        <v>10</v>
-      </c>
-      <c r="AB11" s="41">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>12</v>
       </c>
@@ -4754,12 +4962,19 @@
       <c r="AA12" s="41">
         <v>10</v>
       </c>
-      <c r="AB12" s="41">
+      <c r="AB12" s="39">
+        <v>-10</v>
+      </c>
+      <c r="AC12" s="32">
+        <v>-15</v>
+      </c>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="41">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>13</v>
       </c>
@@ -4841,96 +5056,110 @@
       <c r="AA13" s="41">
         <v>10</v>
       </c>
-      <c r="AB13" s="41">
+      <c r="AB13" s="39">
+        <v>15</v>
+      </c>
+      <c r="AC13" s="32">
+        <v>10</v>
+      </c>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="41">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>14</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="11">
+        <v>15</v>
+      </c>
+      <c r="P14" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>15</v>
+      </c>
+      <c r="R14" s="11">
+        <v>10</v>
+      </c>
+      <c r="S14" s="11">
+        <v>15</v>
+      </c>
+      <c r="T14" s="20">
+        <v>10</v>
+      </c>
+      <c r="U14" s="21">
+        <v>15</v>
+      </c>
+      <c r="V14" s="21">
+        <v>10</v>
+      </c>
+      <c r="W14" s="35">
+        <v>15</v>
+      </c>
+      <c r="X14" s="39">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="32">
+        <v>15</v>
+      </c>
+      <c r="Z14" s="39">
+        <v>15</v>
+      </c>
+      <c r="AA14" s="41">
+        <v>-15</v>
+      </c>
+      <c r="AB14" s="39">
+        <v>15</v>
+      </c>
+      <c r="AC14" s="32">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="41">
         <f t="shared" si="0"/>
         <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>14</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="11">
-        <v>15</v>
-      </c>
-      <c r="P14" s="11">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="11">
-        <v>15</v>
-      </c>
-      <c r="R14" s="11">
-        <v>10</v>
-      </c>
-      <c r="S14" s="11">
-        <v>15</v>
-      </c>
-      <c r="T14" s="20">
-        <v>10</v>
-      </c>
-      <c r="U14" s="21">
-        <v>15</v>
-      </c>
-      <c r="V14" s="21">
-        <v>10</v>
-      </c>
-      <c r="W14" s="35">
-        <v>15</v>
-      </c>
-      <c r="X14" s="39">
-        <v>10</v>
-      </c>
-      <c r="Y14" s="32">
-        <v>15</v>
-      </c>
-      <c r="Z14" s="39">
-        <v>15</v>
-      </c>
-      <c r="AA14" s="41">
-        <v>-15</v>
-      </c>
-      <c r="AB14" s="41">
-        <f t="shared" si="0"/>
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4957,8 +5186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5053,11 +5282,13 @@
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="I3" s="23">
+        <v>15</v>
+      </c>
       <c r="J3" s="23"/>
       <c r="K3" s="24">
         <f t="shared" ref="K3:K14" si="0">SUM(C3:J3)</f>
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5163,15 +5394,19 @@
       <c r="D8" s="24">
         <v>7</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="E8" s="23">
+        <v>10</v>
+      </c>
+      <c r="F8" s="23">
+        <v>10</v>
+      </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
       <c r="K8" s="24">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5217,13 +5452,15 @@
       <c r="F10" s="23">
         <v>10</v>
       </c>
-      <c r="G10" s="23"/>
+      <c r="G10" s="23">
+        <v>12</v>
+      </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
       <c r="K10" s="24">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5294,14 +5531,16 @@
       <c r="E13" s="23">
         <v>7</v>
       </c>
-      <c r="F13" s="23"/>
+      <c r="F13" s="23">
+        <v>5</v>
+      </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
       <c r="K13" s="24">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/Успеваемость_СО-ИП-21-2.xlsx
+++ b/Успеваемость_СО-ИП-21-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/fundamentals-of-algorithmization-and-programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5F81AC-B16C-2449-92D5-973FA287FE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74423EF2-65CA-E048-A24C-9D9E8A80C5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1649,11 +1649,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE16"/>
+  <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="175" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD17" sqref="AD17"/>
+      <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1665,7 +1665,7 @@
     <col min="30" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1756,11 +1756,14 @@
       <c r="AD1" s="38">
         <v>45037</v>
       </c>
-      <c r="AE1" s="32" t="s">
+      <c r="AE1" s="38">
+        <v>45042</v>
+      </c>
+      <c r="AF1" s="32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1834,10 +1837,10 @@
         <v>-15</v>
       </c>
       <c r="Y2" s="12">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="7">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="7">
         <v>-10</v>
@@ -1846,17 +1849,20 @@
         <v>-15</v>
       </c>
       <c r="AC2" s="42">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="32">
-        <v>-15</v>
-      </c>
-      <c r="AE2" s="32">
-        <f t="shared" ref="AE2:AE16" si="0">SUM(O2:AD2)</f>
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="42">
+        <v>-10</v>
+      </c>
+      <c r="AF2" s="32">
+        <f>SUM(O2:AE2)</f>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1947,12 +1953,15 @@
       <c r="AD3" s="32">
         <v>10</v>
       </c>
-      <c r="AE3" s="32">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE3" s="42">
+        <v>15</v>
+      </c>
+      <c r="AF3" s="32">
+        <f>SUM(O3:AE3)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -2043,12 +2052,15 @@
       <c r="AD4" s="32">
         <v>10</v>
       </c>
-      <c r="AE4" s="32">
-        <f t="shared" si="0"/>
+      <c r="AE4" s="42">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="32">
+        <f>SUM(O4:AE4)</f>
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -2139,12 +2151,15 @@
       <c r="AD5" s="32">
         <v>10</v>
       </c>
-      <c r="AE5" s="32">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE5" s="42">
+        <v>15</v>
+      </c>
+      <c r="AF5" s="32">
+        <f>SUM(O5:AE5)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -2235,12 +2250,15 @@
       <c r="AD6" s="32">
         <v>10</v>
       </c>
-      <c r="AE6" s="32">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE6" s="42">
+        <v>15</v>
+      </c>
+      <c r="AF6" s="32">
+        <f>SUM(O6:AE6)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -2331,12 +2349,15 @@
       <c r="AD7" s="32">
         <v>10</v>
       </c>
-      <c r="AE7" s="32">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE7" s="42">
+        <v>15</v>
+      </c>
+      <c r="AF7" s="32">
+        <f>SUM(O7:AE7)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -2427,12 +2448,15 @@
       <c r="AD8" s="32">
         <v>-15</v>
       </c>
-      <c r="AE8" s="32">
-        <f t="shared" si="0"/>
+      <c r="AE8" s="42">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="32">
+        <f>SUM(O8:AE8)</f>
         <v>-125</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -2506,10 +2530,10 @@
         <v>-15</v>
       </c>
       <c r="Y9" s="12">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="7">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="7">
         <v>-10</v>
@@ -2518,17 +2542,20 @@
         <v>-15</v>
       </c>
       <c r="AC9" s="42">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="32">
-        <v>-15</v>
-      </c>
-      <c r="AE9" s="32">
-        <f t="shared" si="0"/>
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="42">
+        <v>-10</v>
+      </c>
+      <c r="AF9" s="32">
+        <f>SUM(O9:AE9)</f>
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -2602,10 +2629,10 @@
         <v>10</v>
       </c>
       <c r="Y10" s="12">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="7">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="7">
         <v>15</v>
@@ -2614,17 +2641,20 @@
         <v>10</v>
       </c>
       <c r="AC10" s="42">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="32">
-        <v>-15</v>
-      </c>
-      <c r="AE10" s="32">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="42">
+        <v>15</v>
+      </c>
+      <c r="AF10" s="32">
+        <f>SUM(O10:AE10)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -2715,12 +2745,15 @@
       <c r="AD11" s="32">
         <v>10</v>
       </c>
-      <c r="AE11" s="32">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE11" s="42">
+        <v>-10</v>
+      </c>
+      <c r="AF11" s="32">
+        <f>SUM(O11:AE11)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -2811,12 +2844,15 @@
       <c r="AD12" s="32">
         <v>10</v>
       </c>
-      <c r="AE12" s="32">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE12" s="42">
+        <v>-10</v>
+      </c>
+      <c r="AF12" s="32">
+        <f>SUM(O12:AE12)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -2890,10 +2926,10 @@
         <v>10</v>
       </c>
       <c r="Y13" s="12">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="7">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="7">
         <v>15</v>
@@ -2902,17 +2938,20 @@
         <v>10</v>
       </c>
       <c r="AC13" s="42">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="32">
-        <v>-15</v>
-      </c>
-      <c r="AE13" s="32">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="42">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="32">
+        <f>SUM(O13:AE13)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -3003,12 +3042,15 @@
       <c r="AD14" s="32">
         <v>10</v>
       </c>
-      <c r="AE14" s="32">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE14" s="42">
+        <v>15</v>
+      </c>
+      <c r="AF14" s="32">
+        <f>SUM(O14:AE14)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -3082,10 +3124,10 @@
         <v>10</v>
       </c>
       <c r="Y15" s="12">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="7">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="7">
         <v>15</v>
@@ -3094,17 +3136,20 @@
         <v>10</v>
       </c>
       <c r="AC15" s="42">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="32">
-        <v>-15</v>
-      </c>
-      <c r="AE15" s="32">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="42">
+        <v>-10</v>
+      </c>
+      <c r="AF15" s="32">
+        <f>SUM(O15:AE15)</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>6</v>
       </c>
@@ -3178,10 +3223,10 @@
         <v>10</v>
       </c>
       <c r="Y16" s="12">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="7">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="7">
         <v>15</v>
@@ -3190,14 +3235,17 @@
         <v>10</v>
       </c>
       <c r="AC16" s="42">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="32">
-        <v>-15</v>
-      </c>
-      <c r="AE16" s="32">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="42">
+        <v>15</v>
+      </c>
+      <c r="AF16" s="32">
+        <f>SUM(O16:AE16)</f>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3225,7 +3273,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3429,13 +3477,19 @@
       <c r="F6" s="23">
         <v>10</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>6</v>
+      </c>
+      <c r="H6" s="23">
+        <v>5</v>
+      </c>
+      <c r="I6" s="23">
+        <v>5</v>
+      </c>
       <c r="J6" s="23"/>
       <c r="K6" s="24">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="L6" s="22"/>
       <c r="M6" s="14"/>
@@ -3834,8 +3888,8 @@
   <dimension ref="A1:AE14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC7" sqref="AC7"/>
+      <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3935,7 +3989,9 @@
       <c r="AC1" s="38">
         <v>45037</v>
       </c>
-      <c r="AD1" s="32"/>
+      <c r="AD1" s="38">
+        <v>45042</v>
+      </c>
       <c r="AE1" s="41" t="s">
         <v>42</v>
       </c>
@@ -4028,10 +4084,12 @@
       <c r="AC2" s="32">
         <v>-15</v>
       </c>
-      <c r="AD2" s="32"/>
+      <c r="AD2" s="32">
+        <v>-10</v>
+      </c>
       <c r="AE2" s="41">
-        <f t="shared" ref="AE2:AE14" si="0">SUM(O2:AC2)</f>
-        <v>65</v>
+        <f>SUM(O2:AD2)</f>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4122,10 +4180,12 @@
       <c r="AC3" s="32">
         <v>10</v>
       </c>
-      <c r="AD3" s="32"/>
+      <c r="AD3" s="32">
+        <v>-10</v>
+      </c>
       <c r="AE3" s="41">
-        <f t="shared" si="0"/>
-        <v>115</v>
+        <f t="shared" ref="AE3:AE14" si="0">SUM(O3:AD3)</f>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4216,10 +4276,12 @@
       <c r="AC4" s="32">
         <v>10</v>
       </c>
-      <c r="AD4" s="32"/>
+      <c r="AD4" s="32">
+        <v>15</v>
+      </c>
       <c r="AE4" s="41">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4310,10 +4372,12 @@
       <c r="AC5" s="32">
         <v>10</v>
       </c>
-      <c r="AD5" s="32"/>
+      <c r="AD5" s="32">
+        <v>15</v>
+      </c>
       <c r="AE5" s="41">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4404,10 +4468,12 @@
       <c r="AC6" s="32">
         <v>-15</v>
       </c>
-      <c r="AD6" s="32"/>
+      <c r="AD6" s="32">
+        <v>-10</v>
+      </c>
       <c r="AE6" s="41">
         <f t="shared" si="0"/>
-        <v>-185</v>
+        <v>-195</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4498,10 +4564,12 @@
       <c r="AC7" s="32">
         <v>10</v>
       </c>
-      <c r="AD7" s="32"/>
+      <c r="AD7" s="32">
+        <v>-10</v>
+      </c>
       <c r="AE7" s="41">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4592,10 +4660,12 @@
       <c r="AC8" s="32">
         <v>10</v>
       </c>
-      <c r="AD8" s="32"/>
+      <c r="AD8" s="32">
+        <v>-10</v>
+      </c>
       <c r="AE8" s="41">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4686,10 +4756,12 @@
       <c r="AC9" s="32">
         <v>10</v>
       </c>
-      <c r="AD9" s="32"/>
+      <c r="AD9" s="32">
+        <v>-10</v>
+      </c>
       <c r="AE9" s="41">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4780,10 +4852,12 @@
       <c r="AC10" s="32">
         <v>10</v>
       </c>
-      <c r="AD10" s="32"/>
+      <c r="AD10" s="32">
+        <v>-10</v>
+      </c>
       <c r="AE10" s="41">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4874,10 +4948,12 @@
       <c r="AC11" s="32">
         <v>10</v>
       </c>
-      <c r="AD11" s="32"/>
+      <c r="AD11" s="32">
+        <v>15</v>
+      </c>
       <c r="AE11" s="41">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4968,10 +5044,12 @@
       <c r="AC12" s="32">
         <v>-15</v>
       </c>
-      <c r="AD12" s="32"/>
+      <c r="AD12" s="32">
+        <v>-10</v>
+      </c>
       <c r="AE12" s="41">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5062,10 +5140,12 @@
       <c r="AC13" s="32">
         <v>10</v>
       </c>
-      <c r="AD13" s="32"/>
+      <c r="AD13" s="32">
+        <v>15</v>
+      </c>
       <c r="AE13" s="41">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5156,10 +5236,12 @@
       <c r="AC14" s="32">
         <v>10</v>
       </c>
-      <c r="AD14" s="32"/>
+      <c r="AD14" s="32">
+        <v>15</v>
+      </c>
       <c r="AE14" s="41">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5187,7 +5269,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5477,14 +5559,16 @@
         <v>5</v>
       </c>
       <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="F11" s="23">
+        <v>10</v>
+      </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
       <c r="K11" s="24">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5532,7 +5616,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
@@ -5540,7 +5624,7 @@
       <c r="J13" s="23"/>
       <c r="K13" s="24">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/Успеваемость_СО-ИП-21-2.xlsx
+++ b/Успеваемость_СО-ИП-21-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/fundamentals-of-algorithmization-and-programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25315A2-6E2C-2C4D-A4C8-587606FE5603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83CB87B-ED83-5249-94B9-3811FC79275C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость (подгруппа 1)" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="49">
   <si>
     <t>№</t>
   </si>
@@ -194,9 +194,6 @@
     <t>Воронов Михаил Алексеевич</t>
   </si>
   <si>
-    <t>Григорьев Никита Станиславович</t>
-  </si>
-  <si>
     <t>Косицын Валерий Евгеньевич</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
   </si>
   <si>
     <t>Исмаилов Руслан</t>
-  </si>
-  <si>
-    <t>Тест (20)</t>
   </si>
   <si>
     <t>Base (10)</t>
@@ -248,7 +242,28 @@
     <t>Рейтинг</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Балл</t>
+  </si>
+  <si>
+    <t>Экзамен</t>
+  </si>
+  <si>
+    <t>Экзамен (20)</t>
+  </si>
+  <si>
+    <t>Оценка</t>
+  </si>
+  <si>
+    <t>Хорошо</t>
+  </si>
+  <si>
+    <t>Удовлетворительно</t>
+  </si>
+  <si>
+    <t>Отлично</t>
+  </si>
+  <si>
+    <t>Не аттестован</t>
   </si>
 </sst>
 </file>
@@ -326,7 +341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -446,11 +461,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -478,9 +504,6 @@
     <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -538,6 +561,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1767,11 +1806,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH16"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="175" workbookViewId="0">
       <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB19" sqref="AB19"/>
+      <selection pane="topRight" activeCell="AI15" sqref="AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1783,7 +1822,7 @@
     <col min="30" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1826,65 +1865,71 @@
       <c r="N1" s="4">
         <v>44974</v>
       </c>
-      <c r="O1" s="37">
+      <c r="O1" s="36">
         <v>44986</v>
       </c>
-      <c r="P1" s="37">
+      <c r="P1" s="36">
         <v>44988</v>
       </c>
-      <c r="Q1" s="37">
+      <c r="Q1" s="36">
         <v>44994</v>
       </c>
-      <c r="R1" s="37">
+      <c r="R1" s="36">
         <v>44995</v>
       </c>
-      <c r="S1" s="37">
+      <c r="S1" s="36">
         <v>45000</v>
       </c>
-      <c r="T1" s="37">
+      <c r="T1" s="36">
         <v>45002</v>
       </c>
-      <c r="U1" s="37">
+      <c r="U1" s="36">
         <v>45008</v>
       </c>
-      <c r="V1" s="37">
+      <c r="V1" s="36">
         <v>45009</v>
       </c>
-      <c r="W1" s="37">
+      <c r="W1" s="36">
         <v>45014</v>
       </c>
-      <c r="X1" s="38">
+      <c r="X1" s="37">
         <v>45016</v>
       </c>
-      <c r="Y1" s="39">
+      <c r="Y1" s="38">
         <v>45022</v>
       </c>
-      <c r="Z1" s="38">
+      <c r="Z1" s="37">
         <v>45023</v>
       </c>
-      <c r="AA1" s="38">
+      <c r="AA1" s="37">
         <v>45028</v>
       </c>
-      <c r="AB1" s="40">
+      <c r="AB1" s="39">
         <v>45030</v>
       </c>
-      <c r="AC1" s="35">
+      <c r="AC1" s="34">
         <v>45036</v>
       </c>
-      <c r="AD1" s="35">
+      <c r="AD1" s="34">
         <v>45037</v>
       </c>
-      <c r="AE1" s="35">
+      <c r="AE1" s="34">
         <v>45042</v>
       </c>
-      <c r="AF1" s="35">
+      <c r="AF1" s="34">
         <v>45044</v>
       </c>
-      <c r="AG1" s="36" t="s">
+      <c r="AG1" s="44" t="s">
         <v>42</v>
       </c>
+      <c r="AH1" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI1" s="44" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1927,66 +1972,68 @@
       <c r="N2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="21">
-        <v>-10</v>
-      </c>
-      <c r="P2" s="21">
+      <c r="O2" s="20">
+        <v>-10</v>
+      </c>
+      <c r="P2" s="20">
         <v>-15</v>
       </c>
-      <c r="Q2" s="21">
-        <v>-10</v>
-      </c>
-      <c r="R2" s="21">
-        <v>10</v>
-      </c>
-      <c r="S2" s="21">
-        <v>-10</v>
-      </c>
-      <c r="T2" s="21">
-        <v>10</v>
-      </c>
-      <c r="U2" s="21">
-        <v>-10</v>
-      </c>
-      <c r="V2" s="21">
+      <c r="Q2" s="20">
+        <v>-10</v>
+      </c>
+      <c r="R2" s="20">
+        <v>10</v>
+      </c>
+      <c r="S2" s="20">
+        <v>-10</v>
+      </c>
+      <c r="T2" s="20">
+        <v>10</v>
+      </c>
+      <c r="U2" s="20">
+        <v>-10</v>
+      </c>
+      <c r="V2" s="20">
         <v>-15</v>
       </c>
-      <c r="W2" s="21">
-        <v>-10</v>
-      </c>
-      <c r="X2" s="41">
+      <c r="W2" s="20">
+        <v>-10</v>
+      </c>
+      <c r="X2" s="40">
         <v>-15</v>
       </c>
-      <c r="Y2" s="41">
+      <c r="Y2" s="40">
         <v>0</v>
       </c>
-      <c r="Z2" s="42">
+      <c r="Z2" s="41">
         <v>0</v>
       </c>
-      <c r="AA2" s="42">
-        <v>-10</v>
-      </c>
-      <c r="AB2" s="43">
+      <c r="AA2" s="41">
+        <v>-10</v>
+      </c>
+      <c r="AB2" s="42">
         <v>-15</v>
       </c>
-      <c r="AC2" s="44">
+      <c r="AC2" s="43">
         <v>0</v>
       </c>
-      <c r="AD2" s="36">
+      <c r="AD2" s="35">
         <v>0</v>
       </c>
-      <c r="AE2" s="44">
-        <v>-10</v>
-      </c>
-      <c r="AF2" s="36">
+      <c r="AE2" s="43">
+        <v>-10</v>
+      </c>
+      <c r="AF2" s="35">
         <v>-15</v>
       </c>
-      <c r="AG2" s="36">
-        <f t="shared" ref="AG2:AG16" si="0">SUM(O2:AF2)</f>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="35">
+        <f>SUM(O2:AG2)</f>
         <v>-125</v>
       </c>
+      <c r="AI2" s="27"/>
     </row>
-    <row r="3" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2029,1393 +2076,1448 @@
       <c r="N3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="21">
-        <v>15</v>
-      </c>
-      <c r="P3" s="21">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="21">
+      <c r="O3" s="20">
+        <v>15</v>
+      </c>
+      <c r="P3" s="20">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="20">
         <v>0</v>
       </c>
-      <c r="R3" s="21">
-        <v>10</v>
-      </c>
-      <c r="S3" s="21">
-        <v>15</v>
-      </c>
-      <c r="T3" s="21">
-        <v>10</v>
-      </c>
-      <c r="U3" s="21">
-        <v>15</v>
-      </c>
-      <c r="V3" s="21">
+      <c r="R3" s="20">
+        <v>10</v>
+      </c>
+      <c r="S3" s="20">
+        <v>15</v>
+      </c>
+      <c r="T3" s="20">
+        <v>10</v>
+      </c>
+      <c r="U3" s="20">
+        <v>15</v>
+      </c>
+      <c r="V3" s="20">
         <v>-15</v>
       </c>
-      <c r="W3" s="21">
-        <v>-10</v>
-      </c>
-      <c r="X3" s="41">
-        <v>10</v>
-      </c>
-      <c r="Y3" s="41">
-        <v>15</v>
-      </c>
-      <c r="Z3" s="42">
-        <v>10</v>
-      </c>
-      <c r="AA3" s="42">
-        <v>15</v>
-      </c>
-      <c r="AB3" s="43">
-        <v>10</v>
-      </c>
-      <c r="AC3" s="44">
-        <v>15</v>
-      </c>
-      <c r="AD3" s="36">
-        <v>10</v>
-      </c>
-      <c r="AE3" s="44">
-        <v>15</v>
-      </c>
-      <c r="AF3" s="36">
+      <c r="W3" s="20">
+        <v>-10</v>
+      </c>
+      <c r="X3" s="40">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="40">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="41">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="41">
+        <v>15</v>
+      </c>
+      <c r="AB3" s="42">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="43">
+        <v>15</v>
+      </c>
+      <c r="AD3" s="35">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="43">
+        <v>15</v>
+      </c>
+      <c r="AF3" s="35">
         <v>-15</v>
       </c>
-      <c r="AG3" s="36">
+      <c r="AG3" s="27">
+        <v>10</v>
+      </c>
+      <c r="AH3" s="35">
+        <f t="shared" ref="AH3:AH16" si="0">SUM(O3:AG3)</f>
+        <v>145</v>
+      </c>
+      <c r="AI3" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="20">
+        <v>15</v>
+      </c>
+      <c r="P4" s="20">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>15</v>
+      </c>
+      <c r="R4" s="20">
+        <v>10</v>
+      </c>
+      <c r="S4" s="20">
+        <v>15</v>
+      </c>
+      <c r="T4" s="20">
+        <v>10</v>
+      </c>
+      <c r="U4" s="20">
+        <v>15</v>
+      </c>
+      <c r="V4" s="20">
+        <v>10</v>
+      </c>
+      <c r="W4" s="20">
+        <v>15</v>
+      </c>
+      <c r="X4" s="40">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="40">
+        <v>15</v>
+      </c>
+      <c r="Z4" s="41">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="41">
+        <v>15</v>
+      </c>
+      <c r="AB4" s="42">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="43">
+        <v>15</v>
+      </c>
+      <c r="AD4" s="35">
+        <v>10</v>
+      </c>
+      <c r="AE4" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="35">
+        <v>10</v>
+      </c>
+      <c r="AG4" s="27">
+        <v>10</v>
+      </c>
+      <c r="AH4" s="35">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="AI4" s="27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="20">
+        <v>15</v>
+      </c>
+      <c r="P5" s="20">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>-10</v>
+      </c>
+      <c r="R5" s="20">
+        <v>10</v>
+      </c>
+      <c r="S5" s="20">
+        <v>15</v>
+      </c>
+      <c r="T5" s="20">
+        <v>-15</v>
+      </c>
+      <c r="U5" s="20">
+        <v>-10</v>
+      </c>
+      <c r="V5" s="20">
+        <v>-15</v>
+      </c>
+      <c r="W5" s="20">
+        <v>15</v>
+      </c>
+      <c r="X5" s="40">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="40">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="41">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="41">
+        <v>15</v>
+      </c>
+      <c r="AB5" s="42">
+        <v>10</v>
+      </c>
+      <c r="AC5" s="43">
+        <v>15</v>
+      </c>
+      <c r="AD5" s="35">
+        <v>10</v>
+      </c>
+      <c r="AE5" s="43">
+        <v>15</v>
+      </c>
+      <c r="AF5" s="35">
+        <v>10</v>
+      </c>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="35">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="AI5" s="27"/>
+    </row>
+    <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="20">
+        <v>15</v>
+      </c>
+      <c r="P6" s="20">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>15</v>
+      </c>
+      <c r="R6" s="20">
+        <v>10</v>
+      </c>
+      <c r="S6" s="20">
+        <v>15</v>
+      </c>
+      <c r="T6" s="20">
+        <v>10</v>
+      </c>
+      <c r="U6" s="20">
+        <v>-10</v>
+      </c>
+      <c r="V6" s="20">
+        <v>10</v>
+      </c>
+      <c r="W6" s="20">
+        <v>15</v>
+      </c>
+      <c r="X6" s="40">
+        <v>-15</v>
+      </c>
+      <c r="Y6" s="40">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="41">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="41">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="42">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="43">
+        <v>-10</v>
+      </c>
+      <c r="AD6" s="35">
+        <v>10</v>
+      </c>
+      <c r="AE6" s="43">
+        <v>15</v>
+      </c>
+      <c r="AF6" s="35">
+        <v>10</v>
+      </c>
+      <c r="AG6" s="27">
+        <v>10</v>
+      </c>
+      <c r="AH6" s="35">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="AI6" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="20">
+        <v>-10</v>
+      </c>
+      <c r="P7" s="20">
+        <v>-15</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>-10</v>
+      </c>
+      <c r="R7" s="20">
+        <v>-15</v>
+      </c>
+      <c r="S7" s="20">
+        <v>15</v>
+      </c>
+      <c r="T7" s="20">
+        <v>10</v>
+      </c>
+      <c r="U7" s="20">
+        <v>15</v>
+      </c>
+      <c r="V7" s="20">
+        <v>10</v>
+      </c>
+      <c r="W7" s="20">
+        <v>15</v>
+      </c>
+      <c r="X7" s="40">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="40">
+        <v>15</v>
+      </c>
+      <c r="Z7" s="41">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="41">
+        <v>15</v>
+      </c>
+      <c r="AB7" s="42">
+        <v>10</v>
+      </c>
+      <c r="AC7" s="43">
+        <v>15</v>
+      </c>
+      <c r="AD7" s="35">
+        <v>10</v>
+      </c>
+      <c r="AE7" s="43">
+        <v>15</v>
+      </c>
+      <c r="AF7" s="35">
+        <v>10</v>
+      </c>
+      <c r="AG7" s="27">
+        <v>10</v>
+      </c>
+      <c r="AH7" s="35">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
+      <c r="AI7" s="27">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="21">
-        <v>15</v>
-      </c>
-      <c r="P4" s="21">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="21">
-        <v>15</v>
-      </c>
-      <c r="R4" s="21">
-        <v>10</v>
-      </c>
-      <c r="S4" s="21">
-        <v>15</v>
-      </c>
-      <c r="T4" s="21">
-        <v>10</v>
-      </c>
-      <c r="U4" s="21">
-        <v>15</v>
-      </c>
-      <c r="V4" s="21">
-        <v>10</v>
-      </c>
-      <c r="W4" s="21">
-        <v>15</v>
-      </c>
-      <c r="X4" s="41">
-        <v>10</v>
-      </c>
-      <c r="Y4" s="41">
-        <v>15</v>
-      </c>
-      <c r="Z4" s="42">
-        <v>10</v>
-      </c>
-      <c r="AA4" s="42">
-        <v>15</v>
-      </c>
-      <c r="AB4" s="43">
-        <v>10</v>
-      </c>
-      <c r="AC4" s="44">
-        <v>15</v>
-      </c>
-      <c r="AD4" s="36">
-        <v>10</v>
-      </c>
-      <c r="AE4" s="44">
+    <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="20">
+        <v>-10</v>
+      </c>
+      <c r="P8" s="20">
+        <v>-15</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>-10</v>
+      </c>
+      <c r="R8" s="20">
+        <v>-15</v>
+      </c>
+      <c r="S8" s="20">
+        <v>-10</v>
+      </c>
+      <c r="T8" s="20">
+        <v>10</v>
+      </c>
+      <c r="U8" s="20">
+        <v>-10</v>
+      </c>
+      <c r="V8" s="20">
+        <v>-15</v>
+      </c>
+      <c r="W8" s="20">
+        <v>-10</v>
+      </c>
+      <c r="X8" s="40">
+        <v>-15</v>
+      </c>
+      <c r="Y8" s="40">
+        <v>-10</v>
+      </c>
+      <c r="Z8" s="41">
+        <v>-15</v>
+      </c>
+      <c r="AA8" s="41">
+        <v>-10</v>
+      </c>
+      <c r="AB8" s="42">
+        <v>10</v>
+      </c>
+      <c r="AC8" s="43">
+        <v>15</v>
+      </c>
+      <c r="AD8" s="35">
+        <v>-15</v>
+      </c>
+      <c r="AE8" s="43">
         <v>0</v>
       </c>
-      <c r="AF4" s="36">
-        <v>10</v>
-      </c>
-      <c r="AG4" s="36">
+      <c r="AF8" s="35">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="35">
         <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
+        <v>-125</v>
+      </c>
+      <c r="AI8" s="27"/>
     </row>
-    <row r="5" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="20">
+        <v>-10</v>
+      </c>
+      <c r="P9" s="20">
+        <v>-15</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>-10</v>
+      </c>
+      <c r="R9" s="20">
+        <v>10</v>
+      </c>
+      <c r="S9" s="20">
+        <v>-10</v>
+      </c>
+      <c r="T9" s="20">
+        <v>10</v>
+      </c>
+      <c r="U9" s="20">
+        <v>-10</v>
+      </c>
+      <c r="V9" s="20">
+        <v>-15</v>
+      </c>
+      <c r="W9" s="20">
+        <v>-10</v>
+      </c>
+      <c r="X9" s="40">
+        <v>-15</v>
+      </c>
+      <c r="Y9" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="41">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="41">
+        <v>-10</v>
+      </c>
+      <c r="AB9" s="42">
+        <v>-15</v>
+      </c>
+      <c r="AC9" s="43">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="43">
+        <v>-10</v>
+      </c>
+      <c r="AF9" s="35">
+        <v>-15</v>
+      </c>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="35">
+        <f t="shared" si="0"/>
+        <v>-125</v>
+      </c>
+      <c r="AI9" s="27"/>
+    </row>
+    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="20">
+        <v>15</v>
+      </c>
+      <c r="P10" s="20">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>15</v>
+      </c>
+      <c r="R10" s="20">
+        <v>10</v>
+      </c>
+      <c r="S10" s="20">
+        <v>-10</v>
+      </c>
+      <c r="T10" s="20">
+        <v>10</v>
+      </c>
+      <c r="U10" s="20">
+        <v>15</v>
+      </c>
+      <c r="V10" s="20">
+        <v>10</v>
+      </c>
+      <c r="W10" s="20">
+        <v>15</v>
+      </c>
+      <c r="X10" s="40">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="41">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="41">
+        <v>15</v>
+      </c>
+      <c r="AB10" s="42">
+        <v>10</v>
+      </c>
+      <c r="AC10" s="43">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="43">
+        <v>15</v>
+      </c>
+      <c r="AF10" s="35">
+        <v>10</v>
+      </c>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="35">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="AI10" s="27"/>
+    </row>
+    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="20">
+        <v>15</v>
+      </c>
+      <c r="P11" s="20">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>0</v>
+      </c>
+      <c r="R11" s="20">
+        <v>0</v>
+      </c>
+      <c r="S11" s="20">
+        <v>0</v>
+      </c>
+      <c r="T11" s="20">
+        <v>0</v>
+      </c>
+      <c r="U11" s="20">
+        <v>15</v>
+      </c>
+      <c r="V11" s="20">
+        <v>10</v>
+      </c>
+      <c r="W11" s="20">
+        <v>15</v>
+      </c>
+      <c r="X11" s="40">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="40">
+        <v>15</v>
+      </c>
+      <c r="Z11" s="41">
+        <v>10</v>
+      </c>
+      <c r="AA11" s="41">
+        <v>15</v>
+      </c>
+      <c r="AB11" s="42">
+        <v>10</v>
+      </c>
+      <c r="AC11" s="43">
+        <v>15</v>
+      </c>
+      <c r="AD11" s="35">
+        <v>10</v>
+      </c>
+      <c r="AE11" s="43">
+        <v>-10</v>
+      </c>
+      <c r="AF11" s="35">
+        <v>10</v>
+      </c>
+      <c r="AG11" s="27">
+        <v>10</v>
+      </c>
+      <c r="AH11" s="35">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="AI11" s="43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="20">
+        <v>15</v>
+      </c>
+      <c r="P12" s="20">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>15</v>
+      </c>
+      <c r="R12" s="20">
+        <v>10</v>
+      </c>
+      <c r="S12" s="20">
+        <v>15</v>
+      </c>
+      <c r="T12" s="20">
+        <v>10</v>
+      </c>
+      <c r="U12" s="20">
+        <v>-10</v>
+      </c>
+      <c r="V12" s="20">
+        <v>10</v>
+      </c>
+      <c r="W12" s="20">
+        <v>15</v>
+      </c>
+      <c r="X12" s="40">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="40">
+        <v>15</v>
+      </c>
+      <c r="Z12" s="41">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="41">
+        <v>-10</v>
+      </c>
+      <c r="AB12" s="42">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="43">
+        <v>15</v>
+      </c>
+      <c r="AD12" s="35">
+        <v>10</v>
+      </c>
+      <c r="AE12" s="43">
+        <v>-10</v>
+      </c>
+      <c r="AF12" s="35">
+        <v>10</v>
+      </c>
+      <c r="AG12" s="27">
+        <v>10</v>
+      </c>
+      <c r="AH12" s="35">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="AI12" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="20">
+        <v>15</v>
+      </c>
+      <c r="P13" s="20">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>15</v>
+      </c>
+      <c r="R13" s="20">
+        <v>10</v>
+      </c>
+      <c r="S13" s="20">
+        <v>-10</v>
+      </c>
+      <c r="T13" s="20">
+        <v>10</v>
+      </c>
+      <c r="U13" s="20">
+        <v>-10</v>
+      </c>
+      <c r="V13" s="20">
+        <v>10</v>
+      </c>
+      <c r="W13" s="20">
+        <v>15</v>
+      </c>
+      <c r="X13" s="40">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="41">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="41">
+        <v>15</v>
+      </c>
+      <c r="AB13" s="42">
+        <v>10</v>
+      </c>
+      <c r="AC13" s="43">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="43">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="35">
+        <v>10</v>
+      </c>
+      <c r="AG13" s="27">
+        <v>10</v>
+      </c>
+      <c r="AH13" s="35">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="AI13" s="27"/>
+    </row>
+    <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="20">
+        <v>15</v>
+      </c>
+      <c r="P14" s="20">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>15</v>
+      </c>
+      <c r="R14" s="20">
+        <v>10</v>
+      </c>
+      <c r="S14" s="20">
+        <v>15</v>
+      </c>
+      <c r="T14" s="20">
+        <v>10</v>
+      </c>
+      <c r="U14" s="20">
+        <v>-10</v>
+      </c>
+      <c r="V14" s="20">
+        <v>0</v>
+      </c>
+      <c r="W14" s="20">
+        <v>-10</v>
+      </c>
+      <c r="X14" s="40">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="40">
+        <v>15</v>
+      </c>
+      <c r="Z14" s="41">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="41">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="42">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="43">
+        <v>-10</v>
+      </c>
+      <c r="AD14" s="35">
+        <v>10</v>
+      </c>
+      <c r="AE14" s="43">
+        <v>15</v>
+      </c>
+      <c r="AF14" s="35">
+        <v>10</v>
+      </c>
+      <c r="AG14" s="27">
+        <v>10</v>
+      </c>
+      <c r="AH14" s="35">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="AI14" s="27">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="21">
-        <v>15</v>
-      </c>
-      <c r="P5" s="21">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="21">
-        <v>-10</v>
-      </c>
-      <c r="R5" s="21">
-        <v>10</v>
-      </c>
-      <c r="S5" s="21">
-        <v>15</v>
-      </c>
-      <c r="T5" s="21">
+    </row>
+    <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="20">
+        <v>15</v>
+      </c>
+      <c r="P15" s="20">
         <v>-15</v>
       </c>
-      <c r="U5" s="21">
-        <v>-10</v>
-      </c>
-      <c r="V5" s="21">
-        <v>-15</v>
-      </c>
-      <c r="W5" s="21">
-        <v>15</v>
-      </c>
-      <c r="X5" s="41">
-        <v>10</v>
-      </c>
-      <c r="Y5" s="41">
-        <v>15</v>
-      </c>
-      <c r="Z5" s="42">
-        <v>10</v>
-      </c>
-      <c r="AA5" s="42">
-        <v>15</v>
-      </c>
-      <c r="AB5" s="43">
-        <v>10</v>
-      </c>
-      <c r="AC5" s="44">
-        <v>15</v>
-      </c>
-      <c r="AD5" s="36">
-        <v>10</v>
-      </c>
-      <c r="AE5" s="44">
-        <v>15</v>
-      </c>
-      <c r="AF5" s="36">
-        <v>10</v>
-      </c>
-      <c r="AG5" s="36">
+      <c r="Q15" s="20">
+        <v>15</v>
+      </c>
+      <c r="R15" s="20">
+        <v>10</v>
+      </c>
+      <c r="S15" s="20">
+        <v>15</v>
+      </c>
+      <c r="T15" s="20">
+        <v>10</v>
+      </c>
+      <c r="U15" s="20">
+        <v>15</v>
+      </c>
+      <c r="V15" s="20">
+        <v>10</v>
+      </c>
+      <c r="W15" s="20">
+        <v>15</v>
+      </c>
+      <c r="X15" s="40">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="41">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="41">
+        <v>15</v>
+      </c>
+      <c r="AB15" s="42">
+        <v>10</v>
+      </c>
+      <c r="AC15" s="43">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="43">
+        <v>-10</v>
+      </c>
+      <c r="AF15" s="35">
+        <v>10</v>
+      </c>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="35">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
+      <c r="AI15" s="27"/>
     </row>
-    <row r="6" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="21">
-        <v>15</v>
-      </c>
-      <c r="P6" s="21">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="21">
-        <v>15</v>
-      </c>
-      <c r="R6" s="21">
-        <v>10</v>
-      </c>
-      <c r="S6" s="21">
-        <v>15</v>
-      </c>
-      <c r="T6" s="21">
-        <v>10</v>
-      </c>
-      <c r="U6" s="21">
-        <v>-10</v>
-      </c>
-      <c r="V6" s="21">
-        <v>10</v>
-      </c>
-      <c r="W6" s="21">
-        <v>15</v>
-      </c>
-      <c r="X6" s="41">
+    <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>6</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="20">
+        <v>15</v>
+      </c>
+      <c r="P16" s="20">
         <v>-15</v>
       </c>
-      <c r="Y6" s="41">
-        <v>15</v>
-      </c>
-      <c r="Z6" s="42">
-        <v>10</v>
-      </c>
-      <c r="AA6" s="42">
-        <v>15</v>
-      </c>
-      <c r="AB6" s="43">
-        <v>10</v>
-      </c>
-      <c r="AC6" s="44">
-        <v>-10</v>
-      </c>
-      <c r="AD6" s="36">
-        <v>10</v>
-      </c>
-      <c r="AE6" s="44">
-        <v>15</v>
-      </c>
-      <c r="AF6" s="36">
-        <v>10</v>
-      </c>
-      <c r="AG6" s="36">
+      <c r="Q16" s="20">
+        <v>15</v>
+      </c>
+      <c r="R16" s="20">
+        <v>10</v>
+      </c>
+      <c r="S16" s="20">
+        <v>15</v>
+      </c>
+      <c r="T16" s="20">
+        <v>10</v>
+      </c>
+      <c r="U16" s="20">
+        <v>15</v>
+      </c>
+      <c r="V16" s="20">
+        <v>10</v>
+      </c>
+      <c r="W16" s="20">
+        <v>15</v>
+      </c>
+      <c r="X16" s="40">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="41">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="41">
+        <v>15</v>
+      </c>
+      <c r="AB16" s="42">
+        <v>10</v>
+      </c>
+      <c r="AC16" s="43">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="43">
+        <v>15</v>
+      </c>
+      <c r="AF16" s="35">
+        <v>10</v>
+      </c>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="35">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="21">
-        <v>-10</v>
-      </c>
-      <c r="P7" s="21">
-        <v>-15</v>
-      </c>
-      <c r="Q7" s="21">
-        <v>-10</v>
-      </c>
-      <c r="R7" s="21">
-        <v>-15</v>
-      </c>
-      <c r="S7" s="21">
-        <v>15</v>
-      </c>
-      <c r="T7" s="21">
-        <v>10</v>
-      </c>
-      <c r="U7" s="21">
-        <v>15</v>
-      </c>
-      <c r="V7" s="21">
-        <v>10</v>
-      </c>
-      <c r="W7" s="21">
-        <v>15</v>
-      </c>
-      <c r="X7" s="41">
-        <v>10</v>
-      </c>
-      <c r="Y7" s="41">
-        <v>15</v>
-      </c>
-      <c r="Z7" s="42">
-        <v>10</v>
-      </c>
-      <c r="AA7" s="42">
-        <v>15</v>
-      </c>
-      <c r="AB7" s="43">
-        <v>10</v>
-      </c>
-      <c r="AC7" s="44">
-        <v>15</v>
-      </c>
-      <c r="AD7" s="36">
-        <v>10</v>
-      </c>
-      <c r="AE7" s="44">
-        <v>15</v>
-      </c>
-      <c r="AF7" s="36">
-        <v>10</v>
-      </c>
-      <c r="AG7" s="36">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="21">
-        <v>-10</v>
-      </c>
-      <c r="P8" s="21">
-        <v>-15</v>
-      </c>
-      <c r="Q8" s="21">
-        <v>-10</v>
-      </c>
-      <c r="R8" s="21">
-        <v>-15</v>
-      </c>
-      <c r="S8" s="21">
-        <v>-10</v>
-      </c>
-      <c r="T8" s="21">
-        <v>10</v>
-      </c>
-      <c r="U8" s="21">
-        <v>-10</v>
-      </c>
-      <c r="V8" s="21">
-        <v>-15</v>
-      </c>
-      <c r="W8" s="21">
-        <v>-10</v>
-      </c>
-      <c r="X8" s="41">
-        <v>-15</v>
-      </c>
-      <c r="Y8" s="41">
-        <v>-10</v>
-      </c>
-      <c r="Z8" s="42">
-        <v>-15</v>
-      </c>
-      <c r="AA8" s="42">
-        <v>-10</v>
-      </c>
-      <c r="AB8" s="43">
-        <v>10</v>
-      </c>
-      <c r="AC8" s="44">
-        <v>15</v>
-      </c>
-      <c r="AD8" s="36">
-        <v>-15</v>
-      </c>
-      <c r="AE8" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="36">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="36">
-        <f t="shared" si="0"/>
-        <v>-125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="21">
-        <v>-10</v>
-      </c>
-      <c r="P9" s="21">
-        <v>-15</v>
-      </c>
-      <c r="Q9" s="21">
-        <v>-10</v>
-      </c>
-      <c r="R9" s="21">
-        <v>10</v>
-      </c>
-      <c r="S9" s="21">
-        <v>-10</v>
-      </c>
-      <c r="T9" s="21">
-        <v>10</v>
-      </c>
-      <c r="U9" s="21">
-        <v>-10</v>
-      </c>
-      <c r="V9" s="21">
-        <v>-15</v>
-      </c>
-      <c r="W9" s="21">
-        <v>-10</v>
-      </c>
-      <c r="X9" s="41">
-        <v>-15</v>
-      </c>
-      <c r="Y9" s="41">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="42">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="42">
-        <v>-10</v>
-      </c>
-      <c r="AB9" s="43">
-        <v>-15</v>
-      </c>
-      <c r="AC9" s="44">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="44">
-        <v>-10</v>
-      </c>
-      <c r="AF9" s="36">
-        <v>-15</v>
-      </c>
-      <c r="AG9" s="36">
-        <f t="shared" si="0"/>
-        <v>-125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="21">
-        <v>15</v>
-      </c>
-      <c r="P10" s="21">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="21">
-        <v>15</v>
-      </c>
-      <c r="R10" s="21">
-        <v>10</v>
-      </c>
-      <c r="S10" s="21">
-        <v>-10</v>
-      </c>
-      <c r="T10" s="21">
-        <v>10</v>
-      </c>
-      <c r="U10" s="21">
-        <v>15</v>
-      </c>
-      <c r="V10" s="21">
-        <v>10</v>
-      </c>
-      <c r="W10" s="21">
-        <v>15</v>
-      </c>
-      <c r="X10" s="41">
-        <v>10</v>
-      </c>
-      <c r="Y10" s="41">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="42">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="42">
-        <v>15</v>
-      </c>
-      <c r="AB10" s="43">
-        <v>10</v>
-      </c>
-      <c r="AC10" s="44">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="44">
-        <v>15</v>
-      </c>
-      <c r="AF10" s="36">
-        <v>10</v>
-      </c>
-      <c r="AG10" s="36">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" s="21">
-        <v>15</v>
-      </c>
-      <c r="P11" s="21">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="21">
-        <v>0</v>
-      </c>
-      <c r="R11" s="21">
-        <v>0</v>
-      </c>
-      <c r="S11" s="21">
-        <v>0</v>
-      </c>
-      <c r="T11" s="21">
-        <v>0</v>
-      </c>
-      <c r="U11" s="21">
-        <v>15</v>
-      </c>
-      <c r="V11" s="21">
-        <v>10</v>
-      </c>
-      <c r="W11" s="21">
-        <v>15</v>
-      </c>
-      <c r="X11" s="41">
-        <v>10</v>
-      </c>
-      <c r="Y11" s="41">
-        <v>15</v>
-      </c>
-      <c r="Z11" s="42">
-        <v>10</v>
-      </c>
-      <c r="AA11" s="42">
-        <v>15</v>
-      </c>
-      <c r="AB11" s="43">
-        <v>10</v>
-      </c>
-      <c r="AC11" s="44">
-        <v>15</v>
-      </c>
-      <c r="AD11" s="36">
-        <v>10</v>
-      </c>
-      <c r="AE11" s="44">
-        <v>-10</v>
-      </c>
-      <c r="AF11" s="36">
-        <v>10</v>
-      </c>
-      <c r="AG11" s="36">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="21">
-        <v>15</v>
-      </c>
-      <c r="P12" s="21">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="21">
-        <v>15</v>
-      </c>
-      <c r="R12" s="21">
-        <v>10</v>
-      </c>
-      <c r="S12" s="21">
-        <v>15</v>
-      </c>
-      <c r="T12" s="21">
-        <v>10</v>
-      </c>
-      <c r="U12" s="21">
-        <v>-10</v>
-      </c>
-      <c r="V12" s="21">
-        <v>10</v>
-      </c>
-      <c r="W12" s="21">
-        <v>15</v>
-      </c>
-      <c r="X12" s="41">
-        <v>10</v>
-      </c>
-      <c r="Y12" s="41">
-        <v>15</v>
-      </c>
-      <c r="Z12" s="42">
-        <v>10</v>
-      </c>
-      <c r="AA12" s="42">
-        <v>-10</v>
-      </c>
-      <c r="AB12" s="43">
-        <v>10</v>
-      </c>
-      <c r="AC12" s="44">
-        <v>15</v>
-      </c>
-      <c r="AD12" s="36">
-        <v>10</v>
-      </c>
-      <c r="AE12" s="44">
-        <v>-10</v>
-      </c>
-      <c r="AF12" s="36">
-        <v>10</v>
-      </c>
-      <c r="AG12" s="36">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O13" s="21">
-        <v>15</v>
-      </c>
-      <c r="P13" s="21">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="21">
-        <v>15</v>
-      </c>
-      <c r="R13" s="21">
-        <v>10</v>
-      </c>
-      <c r="S13" s="21">
-        <v>-10</v>
-      </c>
-      <c r="T13" s="21">
-        <v>10</v>
-      </c>
-      <c r="U13" s="21">
-        <v>-10</v>
-      </c>
-      <c r="V13" s="21">
-        <v>10</v>
-      </c>
-      <c r="W13" s="21">
-        <v>15</v>
-      </c>
-      <c r="X13" s="41">
-        <v>10</v>
-      </c>
-      <c r="Y13" s="41">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="42">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="42">
-        <v>15</v>
-      </c>
-      <c r="AB13" s="43">
-        <v>10</v>
-      </c>
-      <c r="AC13" s="44">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="44">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="36">
-        <v>10</v>
-      </c>
-      <c r="AG13" s="36">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="21">
-        <v>15</v>
-      </c>
-      <c r="P14" s="21">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="21">
-        <v>15</v>
-      </c>
-      <c r="R14" s="21">
-        <v>10</v>
-      </c>
-      <c r="S14" s="21">
-        <v>15</v>
-      </c>
-      <c r="T14" s="21">
-        <v>10</v>
-      </c>
-      <c r="U14" s="21">
-        <v>-10</v>
-      </c>
-      <c r="V14" s="21">
-        <v>0</v>
-      </c>
-      <c r="W14" s="21">
-        <v>-10</v>
-      </c>
-      <c r="X14" s="41">
-        <v>10</v>
-      </c>
-      <c r="Y14" s="41">
-        <v>15</v>
-      </c>
-      <c r="Z14" s="42">
-        <v>10</v>
-      </c>
-      <c r="AA14" s="42">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="43">
-        <v>10</v>
-      </c>
-      <c r="AC14" s="44">
-        <v>-10</v>
-      </c>
-      <c r="AD14" s="36">
-        <v>10</v>
-      </c>
-      <c r="AE14" s="44">
-        <v>15</v>
-      </c>
-      <c r="AF14" s="36">
-        <v>10</v>
-      </c>
-      <c r="AG14" s="36">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="21">
-        <v>15</v>
-      </c>
-      <c r="P15" s="21">
-        <v>-15</v>
-      </c>
-      <c r="Q15" s="21">
-        <v>15</v>
-      </c>
-      <c r="R15" s="21">
-        <v>10</v>
-      </c>
-      <c r="S15" s="21">
-        <v>15</v>
-      </c>
-      <c r="T15" s="21">
-        <v>10</v>
-      </c>
-      <c r="U15" s="21">
-        <v>15</v>
-      </c>
-      <c r="V15" s="21">
-        <v>10</v>
-      </c>
-      <c r="W15" s="21">
-        <v>15</v>
-      </c>
-      <c r="X15" s="41">
-        <v>10</v>
-      </c>
-      <c r="Y15" s="41">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="42">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="42">
-        <v>15</v>
-      </c>
-      <c r="AB15" s="43">
-        <v>10</v>
-      </c>
-      <c r="AC15" s="44">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="44">
-        <v>-10</v>
-      </c>
-      <c r="AF15" s="36">
-        <v>10</v>
-      </c>
-      <c r="AG15" s="36">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>6</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O16" s="21">
-        <v>15</v>
-      </c>
-      <c r="P16" s="21">
-        <v>-15</v>
-      </c>
-      <c r="Q16" s="21">
-        <v>15</v>
-      </c>
-      <c r="R16" s="21">
-        <v>10</v>
-      </c>
-      <c r="S16" s="21">
-        <v>15</v>
-      </c>
-      <c r="T16" s="21">
-        <v>10</v>
-      </c>
-      <c r="U16" s="21">
-        <v>15</v>
-      </c>
-      <c r="V16" s="21">
-        <v>10</v>
-      </c>
-      <c r="W16" s="21">
-        <v>15</v>
-      </c>
-      <c r="X16" s="41">
-        <v>10</v>
-      </c>
-      <c r="Y16" s="41">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="42">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="42">
-        <v>15</v>
-      </c>
-      <c r="AB16" s="43">
-        <v>10</v>
-      </c>
-      <c r="AC16" s="44">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="44">
-        <v>15</v>
-      </c>
-      <c r="AF16" s="36">
-        <v>10</v>
-      </c>
-      <c r="AG16" s="36">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
+      <c r="AI16" s="27"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:R16 S16">
@@ -3442,16 +3544,18 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="187" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" style="1" customWidth="1"/>
-    <col min="3" max="10" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="9" width="9.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.83203125" style="1" customWidth="1"/>
-    <col min="12" max="18" width="9.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="9.1640625" style="1" customWidth="1"/>
     <col min="19" max="20" width="8.83203125" style="1" customWidth="1"/>
     <col min="21" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -3463,34 +3567,36 @@
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="G1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="24" t="s">
+      <c r="J1" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="19"/>
+      <c r="L1" s="48" t="s">
+        <v>44</v>
+      </c>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
@@ -3506,19 +3612,37 @@
       <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21">
+      <c r="C2" s="19">
+        <v>10</v>
+      </c>
+      <c r="D2" s="19">
+        <v>10</v>
+      </c>
+      <c r="E2" s="19">
+        <v>10</v>
+      </c>
+      <c r="F2" s="19">
+        <v>10</v>
+      </c>
+      <c r="G2" s="19">
+        <v>12</v>
+      </c>
+      <c r="H2" s="19">
+        <v>13</v>
+      </c>
+      <c r="I2" s="19">
+        <v>15</v>
+      </c>
+      <c r="J2" s="19">
+        <v>20</v>
+      </c>
+      <c r="K2" s="20">
         <f>SUM(C2:J2)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="19"/>
+        <v>100</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
@@ -3534,21 +3658,33 @@
       <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <v>5</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21">
+      <c r="D3" s="19">
+        <v>10</v>
+      </c>
+      <c r="E3" s="19">
+        <v>10</v>
+      </c>
+      <c r="F3" s="19">
+        <v>10</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19">
+        <v>13</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19">
+        <v>18</v>
+      </c>
+      <c r="K3" s="20">
         <f t="shared" ref="K3:K16" si="0">SUM(C3:J3)</f>
-        <v>5</v>
-      </c>
-      <c r="L3" s="19"/>
+        <v>66</v>
+      </c>
+      <c r="L3" s="48" t="s">
+        <v>46</v>
+      </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -3564,31 +3700,34 @@
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="21">
-        <v>10</v>
-      </c>
-      <c r="D4" s="21">
-        <v>10</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20">
-        <v>10</v>
-      </c>
-      <c r="G4" s="20">
+      <c r="C4" s="20">
+        <v>10</v>
+      </c>
+      <c r="D4" s="20">
+        <v>10</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19">
+        <v>10</v>
+      </c>
+      <c r="G4" s="19">
         <v>12</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>13</v>
       </c>
-      <c r="I4" s="20">
-        <v>15</v>
-      </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="L4" s="19"/>
+      <c r="I4" s="19">
+        <v>15</v>
+      </c>
+      <c r="J4" s="19">
+        <v>20</v>
+      </c>
+      <c r="K4" s="20">
+        <v>100</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
@@ -3604,27 +3743,29 @@
       <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>5</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20">
-        <v>10</v>
-      </c>
-      <c r="F5" s="20">
-        <v>10</v>
-      </c>
-      <c r="G5" s="20">
-        <v>10</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19">
+        <v>10</v>
+      </c>
+      <c r="F5" s="19">
+        <v>10</v>
+      </c>
+      <c r="G5" s="19">
+        <v>10</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="L5" s="19"/>
+      <c r="L5" s="48" t="s">
+        <v>48</v>
+      </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
@@ -3640,33 +3781,36 @@
       <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="21">
-        <v>10</v>
-      </c>
-      <c r="D6" s="21">
+      <c r="C6" s="20">
+        <v>10</v>
+      </c>
+      <c r="D6" s="20">
         <v>5</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>7</v>
       </c>
-      <c r="F6" s="20">
-        <v>10</v>
-      </c>
-      <c r="G6" s="20">
+      <c r="F6" s="19">
+        <v>10</v>
+      </c>
+      <c r="G6" s="19">
         <v>6</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>5</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <v>5</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="L6" s="19"/>
+      <c r="J6" s="19">
+        <v>8</v>
+      </c>
+      <c r="K6" s="20">
+        <v>62</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>46</v>
+      </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
@@ -3682,29 +3826,32 @@
       <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="21">
-        <v>10</v>
-      </c>
-      <c r="D7" s="21">
-        <v>10</v>
-      </c>
-      <c r="E7" s="20">
-        <v>10</v>
-      </c>
-      <c r="F7" s="20">
-        <v>10</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20">
-        <v>15</v>
-      </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="L7" s="19"/>
+      <c r="C7" s="20">
+        <v>10</v>
+      </c>
+      <c r="D7" s="20">
+        <v>10</v>
+      </c>
+      <c r="E7" s="19">
+        <v>10</v>
+      </c>
+      <c r="F7" s="19">
+        <v>10</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19">
+        <v>15</v>
+      </c>
+      <c r="J7" s="19">
+        <v>20</v>
+      </c>
+      <c r="K7" s="20">
+        <v>83</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>45</v>
+      </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
@@ -3720,35 +3867,37 @@
       <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="20">
-        <v>10</v>
-      </c>
-      <c r="D8" s="20">
-        <v>10</v>
-      </c>
-      <c r="E8" s="20">
-        <v>10</v>
-      </c>
-      <c r="F8" s="20">
-        <v>10</v>
-      </c>
-      <c r="G8" s="20">
+      <c r="C8" s="19">
+        <v>10</v>
+      </c>
+      <c r="D8" s="19">
+        <v>10</v>
+      </c>
+      <c r="E8" s="19">
+        <v>10</v>
+      </c>
+      <c r="F8" s="19">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19">
         <v>12</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>13</v>
       </c>
-      <c r="I8" s="20">
-        <v>15</v>
-      </c>
-      <c r="J8" s="20">
+      <c r="I8" s="19">
+        <v>15</v>
+      </c>
+      <c r="J8" s="19">
         <v>20</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L8" s="19"/>
+      <c r="L8" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
@@ -3764,19 +3913,37 @@
       <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21">
+      <c r="C9" s="19">
+        <v>10</v>
+      </c>
+      <c r="D9" s="19">
+        <v>10</v>
+      </c>
+      <c r="E9" s="19">
+        <v>10</v>
+      </c>
+      <c r="F9" s="19">
+        <v>10</v>
+      </c>
+      <c r="G9" s="19">
+        <v>12</v>
+      </c>
+      <c r="H9" s="19">
+        <v>13</v>
+      </c>
+      <c r="I9" s="19">
+        <v>15</v>
+      </c>
+      <c r="J9" s="19">
+        <v>20</v>
+      </c>
+      <c r="K9" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="19"/>
+        <v>100</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
@@ -3792,27 +3959,32 @@
       <c r="B10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="21">
-        <v>10</v>
-      </c>
-      <c r="D10" s="21">
+      <c r="C10" s="20">
+        <v>10</v>
+      </c>
+      <c r="D10" s="20">
         <v>5</v>
       </c>
-      <c r="E10" s="21">
-        <v>10</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20">
+      <c r="E10" s="20">
+        <v>10</v>
+      </c>
+      <c r="F10" s="19">
+        <v>10</v>
+      </c>
+      <c r="G10" s="19">
         <v>12</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="L10" s="19"/>
+      <c r="H10" s="19">
+        <v>13</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20">
+        <v>61</v>
+      </c>
+      <c r="L10" s="48" t="s">
+        <v>46</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
@@ -3828,31 +4000,34 @@
       <c r="B11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="21">
-        <v>10</v>
-      </c>
-      <c r="D11" s="21">
-        <v>10</v>
-      </c>
-      <c r="E11" s="21">
+      <c r="C11" s="20">
+        <v>10</v>
+      </c>
+      <c r="D11" s="20">
+        <v>10</v>
+      </c>
+      <c r="E11" s="20">
         <v>5</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <v>9</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <v>5</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20">
-        <v>15</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="L11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19">
+        <v>15</v>
+      </c>
+      <c r="J11" s="19">
+        <v>10</v>
+      </c>
+      <c r="K11" s="20">
+        <v>76</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>45</v>
+      </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
@@ -3868,29 +4043,32 @@
       <c r="B12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="21">
-        <v>10</v>
-      </c>
-      <c r="D12" s="21">
+      <c r="C12" s="20">
+        <v>10</v>
+      </c>
+      <c r="D12" s="20">
         <v>5</v>
       </c>
-      <c r="E12" s="20">
-        <v>10</v>
-      </c>
-      <c r="F12" s="20">
-        <v>10</v>
-      </c>
-      <c r="G12" s="20">
+      <c r="E12" s="19">
+        <v>10</v>
+      </c>
+      <c r="F12" s="19">
+        <v>10</v>
+      </c>
+      <c r="G12" s="19">
         <v>5</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="L12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19">
+        <v>10</v>
+      </c>
+      <c r="K12" s="20">
+        <v>61</v>
+      </c>
+      <c r="L12" s="48" t="s">
+        <v>46</v>
+      </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
@@ -3906,33 +4084,36 @@
       <c r="B13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="21">
-        <v>10</v>
-      </c>
-      <c r="D13" s="21">
-        <v>10</v>
-      </c>
-      <c r="E13" s="21">
-        <v>10</v>
-      </c>
-      <c r="F13" s="21">
-        <v>10</v>
-      </c>
-      <c r="G13" s="21">
+      <c r="C13" s="20">
+        <v>10</v>
+      </c>
+      <c r="D13" s="20">
+        <v>10</v>
+      </c>
+      <c r="E13" s="20">
+        <v>10</v>
+      </c>
+      <c r="F13" s="20">
+        <v>10</v>
+      </c>
+      <c r="G13" s="20">
         <v>12</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <v>13</v>
       </c>
-      <c r="I13" s="20">
-        <v>15</v>
-      </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="L13" s="19"/>
+      <c r="I13" s="19">
+        <v>15</v>
+      </c>
+      <c r="J13" s="19">
+        <v>10</v>
+      </c>
+      <c r="K13" s="20">
+        <v>96</v>
+      </c>
+      <c r="L13" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
@@ -3948,27 +4129,32 @@
       <c r="B14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="21">
-        <v>10</v>
-      </c>
-      <c r="D14" s="21">
+      <c r="C14" s="20">
+        <v>10</v>
+      </c>
+      <c r="D14" s="20">
         <v>5</v>
       </c>
-      <c r="E14" s="20">
-        <v>10</v>
-      </c>
-      <c r="F14" s="20">
-        <v>10</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="L14" s="19"/>
+      <c r="E14" s="19">
+        <v>10</v>
+      </c>
+      <c r="F14" s="19">
+        <v>10</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19">
+        <v>13</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19">
+        <v>18</v>
+      </c>
+      <c r="K14" s="20">
+        <v>76</v>
+      </c>
+      <c r="L14" s="48" t="s">
+        <v>45</v>
+      </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -3984,31 +4170,34 @@
       <c r="B15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="21">
-        <v>10</v>
-      </c>
-      <c r="D15" s="21">
-        <v>10</v>
-      </c>
-      <c r="E15" s="21">
-        <v>10</v>
-      </c>
-      <c r="F15" s="21">
-        <v>10</v>
-      </c>
-      <c r="G15" s="20">
+      <c r="C15" s="20">
+        <v>10</v>
+      </c>
+      <c r="D15" s="20">
+        <v>10</v>
+      </c>
+      <c r="E15" s="20">
+        <v>10</v>
+      </c>
+      <c r="F15" s="20">
+        <v>10</v>
+      </c>
+      <c r="G15" s="19">
         <v>12</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20">
-        <v>15</v>
-      </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="21">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="L15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19">
+        <v>15</v>
+      </c>
+      <c r="J15" s="19">
+        <v>20</v>
+      </c>
+      <c r="K15" s="20">
+        <v>91</v>
+      </c>
+      <c r="L15" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
@@ -4024,27 +4213,32 @@
       <c r="B16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="21">
-        <v>10</v>
-      </c>
-      <c r="D16" s="21">
+      <c r="C16" s="20">
+        <v>10</v>
+      </c>
+      <c r="D16" s="20">
         <v>5</v>
       </c>
-      <c r="E16" s="21">
-        <v>10</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20">
+      <c r="E16" s="20">
+        <v>10</v>
+      </c>
+      <c r="F16" s="19">
+        <v>10</v>
+      </c>
+      <c r="G16" s="19">
         <v>12</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="L16" s="19"/>
+      <c r="H16" s="19">
+        <v>13</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20">
+        <v>61</v>
+      </c>
+      <c r="L16" s="48" t="s">
+        <v>46</v>
+      </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -4054,16 +4248,16 @@
       <c r="S16" s="14"/>
     </row>
     <row r="17" spans="3:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.70078700000000005" right="0.70078700000000005" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
@@ -4076,11 +4270,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AF14"/>
+  <dimension ref="A1:AH14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X12" sqref="X12"/>
+      <pane xSplit="2" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4092,7 +4286,7 @@
     <col min="27" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4159,38 +4353,44 @@
       <c r="V1" s="16">
         <v>45009</v>
       </c>
-      <c r="W1" s="29">
+      <c r="W1" s="28">
         <v>45014</v>
       </c>
-      <c r="X1" s="31">
+      <c r="X1" s="30">
         <v>45016</v>
       </c>
-      <c r="Y1" s="32">
+      <c r="Y1" s="31">
         <v>45022</v>
       </c>
-      <c r="Z1" s="33">
+      <c r="Z1" s="32">
         <v>45028</v>
       </c>
-      <c r="AA1" s="35">
+      <c r="AA1" s="34">
         <v>45030</v>
       </c>
-      <c r="AB1" s="33">
+      <c r="AB1" s="32">
         <v>45036</v>
       </c>
-      <c r="AC1" s="33">
+      <c r="AC1" s="32">
         <v>45037</v>
       </c>
-      <c r="AD1" s="33">
+      <c r="AD1" s="32">
         <v>45042</v>
       </c>
-      <c r="AE1" s="33">
+      <c r="AE1" s="32">
         <v>45044</v>
       </c>
-      <c r="AF1" s="36" t="s">
+      <c r="AF1" s="44" t="s">
         <v>42</v>
       </c>
+      <c r="AG1" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH1" s="44" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4257,39 +4457,45 @@
       <c r="V2" s="18">
         <v>10</v>
       </c>
-      <c r="W2" s="30">
-        <v>15</v>
-      </c>
-      <c r="X2" s="34">
-        <v>10</v>
-      </c>
-      <c r="Y2" s="28">
-        <v>15</v>
-      </c>
-      <c r="Z2" s="34">
-        <v>-10</v>
-      </c>
-      <c r="AA2" s="36">
-        <v>10</v>
-      </c>
-      <c r="AB2" s="34">
-        <v>15</v>
-      </c>
-      <c r="AC2" s="28">
+      <c r="W2" s="29">
+        <v>15</v>
+      </c>
+      <c r="X2" s="33">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="27">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="33">
+        <v>-10</v>
+      </c>
+      <c r="AA2" s="35">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="33">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="27">
         <v>-15</v>
       </c>
-      <c r="AD2" s="28">
-        <v>-10</v>
-      </c>
-      <c r="AE2" s="28">
-        <v>10</v>
-      </c>
-      <c r="AF2" s="36">
-        <f>SUM(O2:AE2)</f>
-        <v>65</v>
+      <c r="AD2" s="27">
+        <v>-10</v>
+      </c>
+      <c r="AE2" s="27">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="27">
+        <v>10</v>
+      </c>
+      <c r="AG2" s="35">
+        <f>SUM(O2:AF2)</f>
+        <v>75</v>
+      </c>
+      <c r="AH2" s="27">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4356,39 +4562,45 @@
       <c r="V3" s="18">
         <v>10</v>
       </c>
-      <c r="W3" s="30">
-        <v>15</v>
-      </c>
-      <c r="X3" s="34">
-        <v>10</v>
-      </c>
-      <c r="Y3" s="28">
-        <v>-10</v>
-      </c>
-      <c r="Z3" s="34">
-        <v>15</v>
-      </c>
-      <c r="AA3" s="36">
+      <c r="W3" s="29">
+        <v>15</v>
+      </c>
+      <c r="X3" s="33">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="27">
+        <v>-10</v>
+      </c>
+      <c r="Z3" s="33">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="35">
         <v>-15</v>
       </c>
-      <c r="AB3" s="34">
-        <v>-10</v>
-      </c>
-      <c r="AC3" s="28">
-        <v>10</v>
-      </c>
-      <c r="AD3" s="28">
-        <v>-10</v>
-      </c>
-      <c r="AE3" s="28">
-        <v>10</v>
-      </c>
-      <c r="AF3" s="36">
-        <f t="shared" ref="AF3:AF14" si="0">SUM(O3:AE3)</f>
+      <c r="AB3" s="33">
+        <v>-10</v>
+      </c>
+      <c r="AC3" s="27">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="27">
+        <v>-10</v>
+      </c>
+      <c r="AE3" s="27">
+        <v>10</v>
+      </c>
+      <c r="AF3" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="35">
+        <f t="shared" ref="AG3:AG14" si="0">SUM(O3:AF3)</f>
         <v>115</v>
       </c>
+      <c r="AH3" s="27">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4455,39 +4667,45 @@
       <c r="V4" s="18">
         <v>10</v>
       </c>
-      <c r="W4" s="30">
-        <v>15</v>
-      </c>
-      <c r="X4" s="34">
-        <v>10</v>
-      </c>
-      <c r="Y4" s="28">
-        <v>15</v>
-      </c>
-      <c r="Z4" s="34">
-        <v>15</v>
-      </c>
-      <c r="AA4" s="36">
-        <v>10</v>
-      </c>
-      <c r="AB4" s="34">
-        <v>15</v>
-      </c>
-      <c r="AC4" s="28">
-        <v>10</v>
-      </c>
-      <c r="AD4" s="28">
-        <v>15</v>
-      </c>
-      <c r="AE4" s="28">
-        <v>10</v>
-      </c>
-      <c r="AF4" s="36">
+      <c r="W4" s="29">
+        <v>15</v>
+      </c>
+      <c r="X4" s="33">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="27">
+        <v>15</v>
+      </c>
+      <c r="Z4" s="33">
+        <v>15</v>
+      </c>
+      <c r="AA4" s="35">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="33">
+        <v>15</v>
+      </c>
+      <c r="AC4" s="27">
+        <v>10</v>
+      </c>
+      <c r="AD4" s="27">
+        <v>15</v>
+      </c>
+      <c r="AE4" s="27">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="27">
+        <v>10</v>
+      </c>
+      <c r="AG4" s="35">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>225</v>
+      </c>
+      <c r="AH4" s="27">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4554,39 +4772,45 @@
       <c r="V5" s="18">
         <v>10</v>
       </c>
-      <c r="W5" s="30">
-        <v>15</v>
-      </c>
-      <c r="X5" s="34">
-        <v>10</v>
-      </c>
-      <c r="Y5" s="28">
-        <v>15</v>
-      </c>
-      <c r="Z5" s="34">
-        <v>15</v>
-      </c>
-      <c r="AA5" s="36">
-        <v>10</v>
-      </c>
-      <c r="AB5" s="34">
-        <v>15</v>
-      </c>
-      <c r="AC5" s="28">
-        <v>10</v>
-      </c>
-      <c r="AD5" s="28">
-        <v>15</v>
-      </c>
-      <c r="AE5" s="28">
-        <v>10</v>
-      </c>
-      <c r="AF5" s="36">
+      <c r="W5" s="29">
+        <v>15</v>
+      </c>
+      <c r="X5" s="33">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="27">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="33">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="35">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="33">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="27">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="27">
+        <v>15</v>
+      </c>
+      <c r="AE5" s="27">
+        <v>10</v>
+      </c>
+      <c r="AF5" s="27">
+        <v>10</v>
+      </c>
+      <c r="AG5" s="35">
         <f t="shared" si="0"/>
-        <v>165</v>
+        <v>175</v>
+      </c>
+      <c r="AH5" s="27">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
@@ -4609,23 +4833,28 @@
       <c r="T6" s="17"/>
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="36"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="27"/>
     </row>
-    <row r="7" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>3</v>
@@ -4687,44 +4916,50 @@
       <c r="V7" s="18">
         <v>10</v>
       </c>
-      <c r="W7" s="30">
-        <v>-10</v>
-      </c>
-      <c r="X7" s="34">
-        <v>10</v>
-      </c>
-      <c r="Y7" s="28">
-        <v>-10</v>
-      </c>
-      <c r="Z7" s="34">
-        <v>-10</v>
-      </c>
-      <c r="AA7" s="36">
+      <c r="W7" s="29">
+        <v>-10</v>
+      </c>
+      <c r="X7" s="33">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="27">
+        <v>-10</v>
+      </c>
+      <c r="Z7" s="33">
+        <v>-10</v>
+      </c>
+      <c r="AA7" s="35">
         <v>-15</v>
       </c>
-      <c r="AB7" s="34">
-        <v>15</v>
-      </c>
-      <c r="AC7" s="28">
-        <v>10</v>
-      </c>
-      <c r="AD7" s="28">
-        <v>-10</v>
-      </c>
-      <c r="AE7" s="28">
-        <v>10</v>
-      </c>
-      <c r="AF7" s="36">
+      <c r="AB7" s="33">
+        <v>15</v>
+      </c>
+      <c r="AC7" s="27">
+        <v>10</v>
+      </c>
+      <c r="AD7" s="27">
+        <v>-10</v>
+      </c>
+      <c r="AE7" s="27">
+        <v>10</v>
+      </c>
+      <c r="AF7" s="27">
+        <v>10</v>
+      </c>
+      <c r="AG7" s="35">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="AH7" s="27">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>3</v>
@@ -4786,44 +5021,50 @@
       <c r="V8" s="18">
         <v>10</v>
       </c>
-      <c r="W8" s="30">
-        <v>-10</v>
-      </c>
-      <c r="X8" s="34">
+      <c r="W8" s="29">
+        <v>-10</v>
+      </c>
+      <c r="X8" s="33">
         <v>-15</v>
       </c>
-      <c r="Y8" s="28">
-        <v>-10</v>
-      </c>
-      <c r="Z8" s="34">
-        <v>15</v>
-      </c>
-      <c r="AA8" s="36">
-        <v>10</v>
-      </c>
-      <c r="AB8" s="34">
-        <v>-10</v>
-      </c>
-      <c r="AC8" s="28">
-        <v>10</v>
-      </c>
-      <c r="AD8" s="28">
-        <v>-10</v>
-      </c>
-      <c r="AE8" s="28">
-        <v>10</v>
-      </c>
-      <c r="AF8" s="36">
+      <c r="Y8" s="27">
+        <v>-10</v>
+      </c>
+      <c r="Z8" s="33">
+        <v>15</v>
+      </c>
+      <c r="AA8" s="35">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="33">
+        <v>-10</v>
+      </c>
+      <c r="AC8" s="27">
+        <v>10</v>
+      </c>
+      <c r="AD8" s="27">
+        <v>-10</v>
+      </c>
+      <c r="AE8" s="27">
+        <v>10</v>
+      </c>
+      <c r="AF8" s="27">
+        <v>10</v>
+      </c>
+      <c r="AG8" s="35">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="AH8" s="27">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>3</v>
@@ -4885,44 +5126,50 @@
       <c r="V9" s="18">
         <v>10</v>
       </c>
-      <c r="W9" s="30">
-        <v>15</v>
-      </c>
-      <c r="X9" s="34">
-        <v>10</v>
-      </c>
-      <c r="Y9" s="28">
-        <v>15</v>
-      </c>
-      <c r="Z9" s="34">
-        <v>-10</v>
-      </c>
-      <c r="AA9" s="36">
-        <v>10</v>
-      </c>
-      <c r="AB9" s="34">
-        <v>15</v>
-      </c>
-      <c r="AC9" s="28">
-        <v>10</v>
-      </c>
-      <c r="AD9" s="28">
-        <v>-10</v>
-      </c>
-      <c r="AE9" s="28">
-        <v>10</v>
-      </c>
-      <c r="AF9" s="36">
+      <c r="W9" s="29">
+        <v>15</v>
+      </c>
+      <c r="X9" s="33">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="27">
+        <v>15</v>
+      </c>
+      <c r="Z9" s="33">
+        <v>-10</v>
+      </c>
+      <c r="AA9" s="35">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="33">
+        <v>15</v>
+      </c>
+      <c r="AC9" s="27">
+        <v>10</v>
+      </c>
+      <c r="AD9" s="27">
+        <v>-10</v>
+      </c>
+      <c r="AE9" s="27">
+        <v>10</v>
+      </c>
+      <c r="AF9" s="27">
+        <v>10</v>
+      </c>
+      <c r="AG9" s="35">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>150</v>
+      </c>
+      <c r="AH9" s="27">
+        <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>3</v>
@@ -4984,44 +5231,50 @@
       <c r="V10" s="18">
         <v>10</v>
       </c>
-      <c r="W10" s="30">
-        <v>-10</v>
-      </c>
-      <c r="X10" s="34">
+      <c r="W10" s="29">
+        <v>-10</v>
+      </c>
+      <c r="X10" s="33">
         <v>-15</v>
       </c>
-      <c r="Y10" s="28">
-        <v>-10</v>
-      </c>
-      <c r="Z10" s="34">
-        <v>15</v>
-      </c>
-      <c r="AA10" s="36">
-        <v>10</v>
-      </c>
-      <c r="AB10" s="34">
-        <v>15</v>
-      </c>
-      <c r="AC10" s="28">
-        <v>10</v>
-      </c>
-      <c r="AD10" s="28">
-        <v>-10</v>
-      </c>
-      <c r="AE10" s="28">
-        <v>10</v>
-      </c>
-      <c r="AF10" s="36">
+      <c r="Y10" s="27">
+        <v>-10</v>
+      </c>
+      <c r="Z10" s="33">
+        <v>15</v>
+      </c>
+      <c r="AA10" s="35">
+        <v>10</v>
+      </c>
+      <c r="AB10" s="33">
+        <v>15</v>
+      </c>
+      <c r="AC10" s="27">
+        <v>10</v>
+      </c>
+      <c r="AD10" s="27">
+        <v>-10</v>
+      </c>
+      <c r="AE10" s="27">
+        <v>10</v>
+      </c>
+      <c r="AF10" s="27">
+        <v>10</v>
+      </c>
+      <c r="AG10" s="35">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="AH10" s="27">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>3</v>
@@ -5083,44 +5336,50 @@
       <c r="V11" s="18">
         <v>10</v>
       </c>
-      <c r="W11" s="30">
-        <v>15</v>
-      </c>
-      <c r="X11" s="34">
-        <v>10</v>
-      </c>
-      <c r="Y11" s="28">
-        <v>15</v>
-      </c>
-      <c r="Z11" s="34">
-        <v>15</v>
-      </c>
-      <c r="AA11" s="36">
-        <v>10</v>
-      </c>
-      <c r="AB11" s="34">
-        <v>15</v>
-      </c>
-      <c r="AC11" s="28">
-        <v>10</v>
-      </c>
-      <c r="AD11" s="28">
-        <v>15</v>
-      </c>
-      <c r="AE11" s="28">
-        <v>10</v>
-      </c>
-      <c r="AF11" s="36">
+      <c r="W11" s="29">
+        <v>15</v>
+      </c>
+      <c r="X11" s="33">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="27">
+        <v>15</v>
+      </c>
+      <c r="Z11" s="33">
+        <v>15</v>
+      </c>
+      <c r="AA11" s="35">
+        <v>10</v>
+      </c>
+      <c r="AB11" s="33">
+        <v>15</v>
+      </c>
+      <c r="AC11" s="27">
+        <v>10</v>
+      </c>
+      <c r="AD11" s="27">
+        <v>15</v>
+      </c>
+      <c r="AE11" s="27">
+        <v>10</v>
+      </c>
+      <c r="AF11" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="35">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
+      <c r="AH11" s="27">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>3</v>
@@ -5182,44 +5441,50 @@
       <c r="V12" s="18">
         <v>0</v>
       </c>
-      <c r="W12" s="30">
-        <v>-10</v>
-      </c>
-      <c r="X12" s="34">
+      <c r="W12" s="29">
+        <v>-10</v>
+      </c>
+      <c r="X12" s="33">
         <v>-15</v>
       </c>
-      <c r="Y12" s="28">
-        <v>-10</v>
-      </c>
-      <c r="Z12" s="34">
-        <v>15</v>
-      </c>
-      <c r="AA12" s="36">
-        <v>10</v>
-      </c>
-      <c r="AB12" s="34">
-        <v>-10</v>
-      </c>
-      <c r="AC12" s="28">
+      <c r="Y12" s="27">
+        <v>-10</v>
+      </c>
+      <c r="Z12" s="33">
+        <v>15</v>
+      </c>
+      <c r="AA12" s="35">
+        <v>10</v>
+      </c>
+      <c r="AB12" s="33">
+        <v>-10</v>
+      </c>
+      <c r="AC12" s="27">
         <v>-15</v>
       </c>
-      <c r="AD12" s="28">
-        <v>-10</v>
-      </c>
-      <c r="AE12" s="28">
-        <v>10</v>
-      </c>
-      <c r="AF12" s="36">
+      <c r="AD12" s="27">
+        <v>-10</v>
+      </c>
+      <c r="AE12" s="27">
+        <v>10</v>
+      </c>
+      <c r="AF12" s="27">
+        <v>10</v>
+      </c>
+      <c r="AG12" s="35">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="AH12" s="27">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>3</v>
@@ -5281,44 +5546,50 @@
       <c r="V13" s="18">
         <v>10</v>
       </c>
-      <c r="W13" s="30">
-        <v>15</v>
-      </c>
-      <c r="X13" s="34">
-        <v>10</v>
-      </c>
-      <c r="Y13" s="28">
-        <v>15</v>
-      </c>
-      <c r="Z13" s="34">
-        <v>15</v>
-      </c>
-      <c r="AA13" s="36">
-        <v>10</v>
-      </c>
-      <c r="AB13" s="34">
-        <v>15</v>
-      </c>
-      <c r="AC13" s="28">
-        <v>10</v>
-      </c>
-      <c r="AD13" s="28">
-        <v>15</v>
-      </c>
-      <c r="AE13" s="28">
-        <v>10</v>
-      </c>
-      <c r="AF13" s="36">
+      <c r="W13" s="29">
+        <v>15</v>
+      </c>
+      <c r="X13" s="33">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="27">
+        <v>15</v>
+      </c>
+      <c r="Z13" s="33">
+        <v>15</v>
+      </c>
+      <c r="AA13" s="35">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="33">
+        <v>15</v>
+      </c>
+      <c r="AC13" s="27">
+        <v>10</v>
+      </c>
+      <c r="AD13" s="27">
+        <v>15</v>
+      </c>
+      <c r="AE13" s="27">
+        <v>10</v>
+      </c>
+      <c r="AF13" s="27">
+        <v>10</v>
+      </c>
+      <c r="AG13" s="35">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>225</v>
+      </c>
+      <c r="AH13" s="27">
+        <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>4</v>
@@ -5380,36 +5651,42 @@
       <c r="V14" s="18">
         <v>10</v>
       </c>
-      <c r="W14" s="30">
-        <v>15</v>
-      </c>
-      <c r="X14" s="34">
-        <v>10</v>
-      </c>
-      <c r="Y14" s="28">
-        <v>15</v>
-      </c>
-      <c r="Z14" s="34">
-        <v>15</v>
-      </c>
-      <c r="AA14" s="36">
+      <c r="W14" s="29">
+        <v>15</v>
+      </c>
+      <c r="X14" s="33">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="27">
+        <v>15</v>
+      </c>
+      <c r="Z14" s="33">
+        <v>15</v>
+      </c>
+      <c r="AA14" s="35">
         <v>-15</v>
       </c>
-      <c r="AB14" s="34">
-        <v>15</v>
-      </c>
-      <c r="AC14" s="28">
-        <v>10</v>
-      </c>
-      <c r="AD14" s="28">
-        <v>15</v>
-      </c>
-      <c r="AE14" s="28">
-        <v>10</v>
-      </c>
-      <c r="AF14" s="36">
+      <c r="AB14" s="33">
+        <v>15</v>
+      </c>
+      <c r="AC14" s="27">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="27">
+        <v>15</v>
+      </c>
+      <c r="AE14" s="27">
+        <v>10</v>
+      </c>
+      <c r="AF14" s="27">
+        <v>10</v>
+      </c>
+      <c r="AG14" s="35">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>200</v>
+      </c>
+      <c r="AH14" s="27">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5434,10 +5711,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="209" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5449,394 +5726,479 @@
     <col min="5" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.83203125" style="1" customWidth="1"/>
     <col min="14" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="G1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="24" t="s">
+      <c r="J1" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="45" t="s">
         <v>20</v>
       </c>
+      <c r="L1" s="47" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="21">
-        <f>SUM(C2:J2)</f>
-        <v>0</v>
+      <c r="C2" s="24">
+        <v>10</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24">
+        <v>10</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24">
+        <v>13</v>
+      </c>
+      <c r="I2" s="24">
+        <v>15</v>
+      </c>
+      <c r="J2" s="24">
+        <v>10</v>
+      </c>
+      <c r="K2" s="46">
+        <v>61</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="21">
-        <v>10</v>
-      </c>
-      <c r="D3" s="21">
-        <v>10</v>
-      </c>
-      <c r="E3" s="21">
-        <v>10</v>
-      </c>
-      <c r="F3" s="21">
+      <c r="C3" s="20">
+        <v>10</v>
+      </c>
+      <c r="D3" s="20">
+        <v>10</v>
+      </c>
+      <c r="E3" s="20">
+        <v>10</v>
+      </c>
+      <c r="F3" s="20">
         <v>5</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20">
-        <v>15</v>
-      </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21">
-        <f t="shared" ref="K3:K14" si="0">SUM(C3:J3)</f>
-        <v>50</v>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19">
+        <v>15</v>
+      </c>
+      <c r="J3" s="19">
+        <v>20</v>
+      </c>
+      <c r="K3" s="46">
+        <v>76</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="21">
-        <v>10</v>
-      </c>
-      <c r="D4" s="21">
-        <v>10</v>
-      </c>
-      <c r="E4" s="21">
-        <v>10</v>
-      </c>
-      <c r="F4" s="21">
-        <v>10</v>
-      </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21">
-        <f t="shared" si="0"/>
-        <v>40</v>
+      <c r="C4" s="20">
+        <v>10</v>
+      </c>
+      <c r="D4" s="20">
+        <v>10</v>
+      </c>
+      <c r="E4" s="20">
+        <v>10</v>
+      </c>
+      <c r="F4" s="20">
+        <v>10</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19">
+        <v>20</v>
+      </c>
+      <c r="K4" s="46">
+        <v>76</v>
+      </c>
+      <c r="L4" s="49" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="21">
-        <v>10</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="C5" s="20">
+        <v>10</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19">
+        <v>10</v>
+      </c>
+      <c r="F5" s="19">
+        <v>10</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19">
+        <v>20</v>
+      </c>
+      <c r="K5" s="46">
+        <v>61</v>
+      </c>
+      <c r="L5" s="49" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="35"/>
     </row>
-    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="19">
+        <v>10</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19">
+        <v>10</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19">
+        <v>12</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19">
+        <v>10</v>
+      </c>
+      <c r="J7" s="19">
+        <v>10</v>
+      </c>
+      <c r="K7" s="46">
+        <v>61</v>
+      </c>
+      <c r="L7" s="49" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="21">
-        <v>10</v>
-      </c>
-      <c r="D8" s="21">
+        <v>26</v>
+      </c>
+      <c r="C8" s="20">
+        <v>10</v>
+      </c>
+      <c r="D8" s="20">
         <v>7</v>
       </c>
-      <c r="E8" s="20">
-        <v>10</v>
-      </c>
-      <c r="F8" s="20">
-        <v>10</v>
-      </c>
-      <c r="G8" s="20">
+      <c r="E8" s="19">
+        <v>10</v>
+      </c>
+      <c r="F8" s="19">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19">
         <v>6</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21">
-        <f t="shared" si="0"/>
-        <v>43</v>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19">
+        <v>15</v>
+      </c>
+      <c r="J8" s="19">
+        <v>10</v>
+      </c>
+      <c r="K8" s="46">
+        <f t="shared" ref="K8:K14" si="0">SUM(C8:J8)</f>
+        <v>68</v>
+      </c>
+      <c r="L8" s="49" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="21">
-        <v>10</v>
-      </c>
-      <c r="D9" s="21">
-        <v>10</v>
-      </c>
-      <c r="E9" s="20">
+        <v>27</v>
+      </c>
+      <c r="C9" s="20">
+        <v>10</v>
+      </c>
+      <c r="D9" s="20">
+        <v>10</v>
+      </c>
+      <c r="E9" s="19">
         <v>5</v>
       </c>
-      <c r="F9" s="20">
-        <v>10</v>
-      </c>
-      <c r="G9" s="20">
+      <c r="F9" s="19">
+        <v>10</v>
+      </c>
+      <c r="G9" s="19">
         <v>5</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20">
-        <v>10</v>
-      </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21">
-        <f t="shared" si="0"/>
-        <v>50</v>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19">
+        <v>10</v>
+      </c>
+      <c r="J9" s="19">
+        <v>10</v>
+      </c>
+      <c r="K9" s="46">
+        <v>68</v>
+      </c>
+      <c r="L9" s="49" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="20">
+        <v>10</v>
+      </c>
+      <c r="D10" s="20">
+        <v>10</v>
+      </c>
+      <c r="E10" s="20">
+        <v>10</v>
+      </c>
+      <c r="F10" s="19">
+        <v>10</v>
+      </c>
+      <c r="G10" s="19">
+        <v>12</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19">
+        <v>15</v>
+      </c>
+      <c r="J10" s="19">
+        <v>10</v>
+      </c>
+      <c r="K10" s="46">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="L10" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="21">
-        <v>10</v>
-      </c>
-      <c r="D10" s="21">
-        <v>10</v>
-      </c>
-      <c r="E10" s="21">
-        <v>10</v>
-      </c>
-      <c r="F10" s="20">
-        <v>10</v>
-      </c>
-      <c r="G10" s="20">
-        <v>12</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20">
-        <v>15</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21">
-        <f t="shared" si="0"/>
-        <v>67</v>
+      <c r="C11" s="20">
+        <v>10</v>
+      </c>
+      <c r="D11" s="20">
+        <v>10</v>
+      </c>
+      <c r="E11" s="19">
+        <v>10</v>
+      </c>
+      <c r="F11" s="19">
+        <v>10</v>
+      </c>
+      <c r="G11" s="19">
+        <v>6</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19">
+        <v>8</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0</v>
+      </c>
+      <c r="K11" s="46">
+        <v>64</v>
+      </c>
+      <c r="L11" s="49" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="21">
-        <v>10</v>
-      </c>
-      <c r="D11" s="21">
-        <v>10</v>
-      </c>
-      <c r="E11" s="20">
-        <v>10</v>
-      </c>
-      <c r="F11" s="20">
-        <v>10</v>
-      </c>
-      <c r="G11" s="20">
-        <v>6</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20">
-        <v>8</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="21">
-        <v>10</v>
-      </c>
-      <c r="D12" s="21">
-        <v>10</v>
-      </c>
-      <c r="E12" s="21">
-        <v>10</v>
-      </c>
-      <c r="F12" s="20">
-        <v>10</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21">
+        <v>30</v>
+      </c>
+      <c r="C12" s="20">
+        <v>10</v>
+      </c>
+      <c r="D12" s="20">
+        <v>10</v>
+      </c>
+      <c r="E12" s="20">
+        <v>10</v>
+      </c>
+      <c r="F12" s="19">
+        <v>10</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19">
+        <v>13</v>
+      </c>
+      <c r="I12" s="19">
+        <v>15</v>
+      </c>
+      <c r="J12" s="19">
+        <v>10</v>
+      </c>
+      <c r="K12" s="46">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>78</v>
+      </c>
+      <c r="L12" s="49" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="21">
-        <v>10</v>
-      </c>
-      <c r="D13" s="21">
+        <v>31</v>
+      </c>
+      <c r="C13" s="20">
+        <v>10</v>
+      </c>
+      <c r="D13" s="20">
         <v>7</v>
       </c>
-      <c r="E13" s="20">
-        <v>10</v>
-      </c>
-      <c r="F13" s="20">
-        <v>10</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21">
-        <f t="shared" si="0"/>
-        <v>37</v>
+      <c r="E13" s="19">
+        <v>10</v>
+      </c>
+      <c r="F13" s="19">
+        <v>10</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19">
+        <v>15</v>
+      </c>
+      <c r="J13" s="19">
+        <v>10</v>
+      </c>
+      <c r="K13" s="46">
+        <v>76</v>
+      </c>
+      <c r="L13" s="49" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="21">
+        <v>32</v>
+      </c>
+      <c r="C14" s="20">
         <v>5</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21">
+      <c r="D14" s="19">
+        <v>10</v>
+      </c>
+      <c r="E14" s="19">
+        <v>10</v>
+      </c>
+      <c r="F14" s="19">
+        <v>10</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19">
+        <v>13</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19">
+        <v>18</v>
+      </c>
+      <c r="K14" s="46">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>66</v>
+      </c>
+      <c r="L14" s="49" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H22" s="27"/>
+      <c r="H22" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.70078700000000005" right="0.70078700000000005" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
